--- a/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>ATEYY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2527200</v>
+        <v>2874500</v>
       </c>
       <c r="E8" s="3">
-        <v>2587300</v>
+        <v>2535500</v>
       </c>
       <c r="F8" s="3">
-        <v>1898200</v>
+        <v>2595800</v>
       </c>
       <c r="G8" s="3">
-        <v>1428200</v>
+        <v>1904400</v>
       </c>
       <c r="H8" s="3">
-        <v>1488200</v>
+        <v>1432900</v>
       </c>
       <c r="I8" s="3">
-        <v>1496100</v>
+        <v>1489800</v>
       </c>
       <c r="J8" s="3">
+        <v>1501000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1024800</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1093700</v>
+        <v>1327900</v>
       </c>
       <c r="E9" s="3">
-        <v>1176300</v>
+        <v>1097300</v>
       </c>
       <c r="F9" s="3">
-        <v>921800</v>
+        <v>1180200</v>
       </c>
       <c r="G9" s="3">
-        <v>606200</v>
+        <v>924800</v>
       </c>
       <c r="H9" s="3">
-        <v>645700</v>
+        <v>608200</v>
       </c>
       <c r="I9" s="3">
-        <v>667800</v>
+        <v>649100</v>
       </c>
       <c r="J9" s="3">
+        <v>670000</v>
+      </c>
+      <c r="K9" s="3">
         <v>572900</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1433500</v>
+        <v>1546600</v>
       </c>
       <c r="E10" s="3">
-        <v>1411000</v>
+        <v>1438200</v>
       </c>
       <c r="F10" s="3">
-        <v>976300</v>
+        <v>1415600</v>
       </c>
       <c r="G10" s="3">
-        <v>822000</v>
+        <v>979500</v>
       </c>
       <c r="H10" s="3">
-        <v>842500</v>
+        <v>824700</v>
       </c>
       <c r="I10" s="3">
-        <v>828300</v>
+        <v>840700</v>
       </c>
       <c r="J10" s="3">
+        <v>831000</v>
+      </c>
+      <c r="K10" s="3">
         <v>451900</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -816,18 +829,21 @@
       <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="3">
-        <v>291600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>273700</v>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J12" s="3">
+        <v>274600</v>
+      </c>
+      <c r="K12" s="3">
         <v>299300</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,9 +868,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -873,42 +892,48 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>1900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>119700</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>70500</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>35500</v>
+        <v>70700</v>
       </c>
       <c r="F15" s="3">
-        <v>37500</v>
+        <v>35600</v>
       </c>
       <c r="G15" s="3">
-        <v>35600</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+        <v>37700</v>
+      </c>
+      <c r="H15" s="3">
+        <v>35700</v>
+      </c>
+      <c r="I15" s="3">
+        <v>31600</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1989400</v>
+        <v>2224600</v>
       </c>
       <c r="E17" s="3">
-        <v>1995000</v>
+        <v>1995900</v>
       </c>
       <c r="F17" s="3">
-        <v>1673900</v>
+        <v>2001500</v>
       </c>
       <c r="G17" s="3">
-        <v>1300800</v>
+        <v>1679300</v>
       </c>
       <c r="H17" s="3">
-        <v>1379100</v>
+        <v>1305100</v>
       </c>
       <c r="I17" s="3">
-        <v>1362200</v>
+        <v>1374000</v>
       </c>
       <c r="J17" s="3">
+        <v>1366600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1355900</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>537800</v>
+        <v>650000</v>
       </c>
       <c r="E18" s="3">
-        <v>592300</v>
+        <v>539500</v>
       </c>
       <c r="F18" s="3">
-        <v>224300</v>
+        <v>594200</v>
       </c>
       <c r="G18" s="3">
-        <v>127400</v>
+        <v>225000</v>
       </c>
       <c r="H18" s="3">
-        <v>109000</v>
+        <v>127800</v>
       </c>
       <c r="I18" s="3">
-        <v>133900</v>
+        <v>115800</v>
       </c>
       <c r="J18" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-331100</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>14900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>12300</v>
       </c>
-      <c r="H20" s="3">
-        <v>-3200</v>
-      </c>
       <c r="I20" s="3">
-        <v>40100</v>
+        <v>-5600</v>
       </c>
       <c r="J20" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K20" s="3">
         <v>9200</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>747900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>639900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>654900</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
+      <c r="H21" s="3">
+        <v>187500</v>
       </c>
       <c r="I21" s="3">
-        <v>220500</v>
+        <v>155800</v>
       </c>
       <c r="J21" s="3">
+        <v>221100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-245800</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
       </c>
-      <c r="H22" s="3">
-        <v>900</v>
-      </c>
       <c r="I22" s="3">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>536500</v>
+        <v>639800</v>
       </c>
       <c r="E23" s="3">
-        <v>606500</v>
+        <v>538300</v>
       </c>
       <c r="F23" s="3">
-        <v>222400</v>
+        <v>608500</v>
       </c>
       <c r="G23" s="3">
-        <v>137600</v>
+        <v>223200</v>
       </c>
       <c r="H23" s="3">
-        <v>104900</v>
+        <v>138100</v>
       </c>
       <c r="I23" s="3">
-        <v>172700</v>
+        <v>108100</v>
       </c>
       <c r="J23" s="3">
+        <v>173300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-323100</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>46200</v>
+        <v>-1600</v>
       </c>
       <c r="E24" s="3">
-        <v>84400</v>
+        <v>46300</v>
       </c>
       <c r="F24" s="3">
-        <v>56600</v>
+        <v>84700</v>
       </c>
       <c r="G24" s="3">
+        <v>56800</v>
+      </c>
+      <c r="H24" s="3">
         <v>7500</v>
       </c>
-      <c r="H24" s="3">
-        <v>32100</v>
-      </c>
       <c r="I24" s="3">
-        <v>54100</v>
+        <v>46600</v>
       </c>
       <c r="J24" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>490400</v>
+        <v>641300</v>
       </c>
       <c r="E26" s="3">
-        <v>522100</v>
+        <v>492000</v>
       </c>
       <c r="F26" s="3">
-        <v>165800</v>
+        <v>523800</v>
       </c>
       <c r="G26" s="3">
-        <v>130100</v>
+        <v>166400</v>
       </c>
       <c r="H26" s="3">
-        <v>72700</v>
+        <v>130500</v>
       </c>
       <c r="I26" s="3">
-        <v>118600</v>
+        <v>61500</v>
       </c>
       <c r="J26" s="3">
+        <v>119000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-323700</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>490400</v>
+        <v>641300</v>
       </c>
       <c r="E27" s="3">
-        <v>522100</v>
+        <v>492000</v>
       </c>
       <c r="F27" s="3">
-        <v>165800</v>
+        <v>523800</v>
       </c>
       <c r="G27" s="3">
-        <v>130100</v>
+        <v>166400</v>
       </c>
       <c r="H27" s="3">
-        <v>72700</v>
+        <v>130500</v>
       </c>
       <c r="I27" s="3">
-        <v>118600</v>
+        <v>61500</v>
       </c>
       <c r="J27" s="3">
+        <v>119000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-323500</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-14900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-12300</v>
       </c>
-      <c r="H32" s="3">
-        <v>3200</v>
-      </c>
       <c r="I32" s="3">
-        <v>-40100</v>
+        <v>5600</v>
       </c>
       <c r="J32" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-9200</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>490400</v>
+        <v>641300</v>
       </c>
       <c r="E33" s="3">
-        <v>522100</v>
+        <v>492000</v>
       </c>
       <c r="F33" s="3">
-        <v>165800</v>
+        <v>523800</v>
       </c>
       <c r="G33" s="3">
-        <v>130100</v>
+        <v>166400</v>
       </c>
       <c r="H33" s="3">
-        <v>72700</v>
+        <v>130500</v>
       </c>
       <c r="I33" s="3">
-        <v>118600</v>
+        <v>61500</v>
       </c>
       <c r="J33" s="3">
+        <v>119000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-323500</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>490400</v>
+        <v>641300</v>
       </c>
       <c r="E35" s="3">
-        <v>522100</v>
+        <v>492000</v>
       </c>
       <c r="F35" s="3">
-        <v>165800</v>
+        <v>523800</v>
       </c>
       <c r="G35" s="3">
-        <v>130100</v>
+        <v>166400</v>
       </c>
       <c r="H35" s="3">
-        <v>72700</v>
+        <v>130500</v>
       </c>
       <c r="I35" s="3">
-        <v>118600</v>
+        <v>61500</v>
       </c>
       <c r="J35" s="3">
+        <v>119000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-323500</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1559,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
+      <c r="D41" s="3">
+        <v>1370800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1173600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1102300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>955500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>876000</v>
       </c>
       <c r="I41" s="3">
-        <v>893800</v>
+        <v>785100</v>
       </c>
       <c r="J41" s="3">
+        <v>896700</v>
+      </c>
+      <c r="K41" s="3">
         <v>632000</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1527,198 +1616,222 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>524100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>426700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>475900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>348600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>298200</v>
       </c>
       <c r="I43" s="3">
-        <v>228600</v>
+        <v>257400</v>
       </c>
       <c r="J43" s="3">
+        <v>229400</v>
+      </c>
+      <c r="K43" s="3">
         <v>186900</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>591300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>541700</v>
+      </c>
+      <c r="F44" s="3">
+        <v>524700</v>
+      </c>
+      <c r="G44" s="3">
+        <v>456100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>359300</v>
       </c>
       <c r="I44" s="3">
-        <v>340800</v>
+        <v>311700</v>
       </c>
       <c r="J44" s="3">
+        <v>342000</v>
+      </c>
+      <c r="K44" s="3">
         <v>276600</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>40600</v>
+      </c>
+      <c r="G45" s="3">
+        <v>51600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>39300</v>
       </c>
       <c r="I45" s="3">
-        <v>46300</v>
+        <v>28000</v>
       </c>
       <c r="J45" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K45" s="3">
         <v>47800</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
+      <c r="D46" s="3">
+        <v>2564900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2206900</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2143600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1811700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1572800</v>
       </c>
       <c r="I46" s="3">
-        <v>1509600</v>
+        <v>1382100</v>
       </c>
       <c r="J46" s="3">
+        <v>1514500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1143300</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>27600</v>
+      </c>
+      <c r="F47" s="3">
+        <v>29500</v>
+      </c>
+      <c r="G47" s="3">
+        <v>25500</v>
+      </c>
+      <c r="H47" s="3">
+        <v>34800</v>
       </c>
       <c r="I47" s="3">
-        <v>20600</v>
+        <v>35300</v>
       </c>
       <c r="J47" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K47" s="3">
         <v>34300</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
+      <c r="D48" s="3">
+        <v>489700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>425100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>282900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>268600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>274900</v>
       </c>
       <c r="I48" s="3">
-        <v>352500</v>
+        <v>289000</v>
       </c>
       <c r="J48" s="3">
+        <v>353600</v>
+      </c>
+      <c r="K48" s="3">
         <v>365700</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>501300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>468900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>240000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>140500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>151400</v>
       </c>
       <c r="I49" s="3">
-        <v>537500</v>
+        <v>153700</v>
       </c>
       <c r="J49" s="3">
+        <v>539200</v>
+      </c>
+      <c r="K49" s="3">
         <v>461600</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>141100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>103000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>93100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>94500</v>
       </c>
       <c r="I52" s="3">
-        <v>80900</v>
+        <v>73900</v>
       </c>
       <c r="J52" s="3">
+        <v>81200</v>
+      </c>
+      <c r="K52" s="3">
         <v>100600</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
+      <c r="D54" s="3">
+        <v>3884100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3269600</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2799100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>2339400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>2128400</v>
       </c>
       <c r="I54" s="3">
-        <v>2501100</v>
+        <v>1934000</v>
       </c>
       <c r="J54" s="3">
+        <v>2509200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2105500</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,124 +2007,137 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="3">
+        <v>538100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>288900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>262400</v>
+      </c>
+      <c r="G57" s="3">
+        <v>288400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>176100</v>
       </c>
       <c r="I57" s="3">
-        <v>165800</v>
+        <v>122300</v>
       </c>
       <c r="J57" s="3">
+        <v>166300</v>
+      </c>
+      <c r="K57" s="3">
         <v>113200</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>274500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>137800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>91900</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3">
-        <v>91600</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
+      <c r="D59" s="3">
+        <v>264400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>338400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>306900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>238500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>158700</v>
       </c>
       <c r="I59" s="3">
-        <v>197700</v>
+        <v>143700</v>
       </c>
       <c r="J59" s="3">
+        <v>198400</v>
+      </c>
+      <c r="K59" s="3">
         <v>130600</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
+      <c r="D60" s="3">
+        <v>825400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>648200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>577600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>801300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>472700</v>
       </c>
       <c r="I60" s="3">
-        <v>455100</v>
+        <v>270500</v>
       </c>
       <c r="J60" s="3">
+        <v>456600</v>
+      </c>
+      <c r="K60" s="3">
         <v>243700</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>86100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>82800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2004,44 +2146,50 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>273400</v>
       </c>
       <c r="I61" s="3">
-        <v>413300</v>
+        <v>410000</v>
       </c>
       <c r="J61" s="3">
+        <v>414600</v>
+      </c>
+      <c r="K61" s="3">
         <v>505200</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>396100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>411500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>395200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>392900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>375900</v>
       </c>
       <c r="I62" s="3">
-        <v>341600</v>
+        <v>393100</v>
       </c>
       <c r="J62" s="3">
+        <v>342800</v>
+      </c>
+      <c r="K62" s="3">
         <v>291700</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
+      <c r="D66" s="3">
+        <v>1307500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1142500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>972800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1194200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1122000</v>
       </c>
       <c r="I66" s="3">
-        <v>1210100</v>
+        <v>1073700</v>
       </c>
       <c r="J66" s="3">
+        <v>1214000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1040600</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>1974500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1468600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1157300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1150600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1044700</v>
       </c>
       <c r="I72" s="3">
-        <v>1292500</v>
+        <v>966700</v>
       </c>
       <c r="J72" s="3">
+        <v>1296700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1197600</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
+      <c r="D76" s="3">
+        <v>2576600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2127000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1826300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1145200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1006500</v>
       </c>
       <c r="I76" s="3">
-        <v>1291000</v>
+        <v>860400</v>
       </c>
       <c r="J76" s="3">
+        <v>1295200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1064900</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>490400</v>
+        <v>641300</v>
       </c>
       <c r="E81" s="3">
-        <v>522100</v>
+        <v>492000</v>
       </c>
       <c r="F81" s="3">
-        <v>165800</v>
+        <v>523800</v>
       </c>
       <c r="G81" s="3">
-        <v>130100</v>
+        <v>166400</v>
       </c>
       <c r="H81" s="3">
-        <v>72700</v>
+        <v>130500</v>
       </c>
       <c r="I81" s="3">
-        <v>118600</v>
+        <v>61500</v>
       </c>
       <c r="J81" s="3">
+        <v>119000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-323500</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>100100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>45600</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
+      <c r="H83" s="3">
+        <v>47400</v>
       </c>
       <c r="I83" s="3">
-        <v>46300</v>
+        <v>45600</v>
       </c>
       <c r="J83" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K83" s="3">
         <v>75700</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>623400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>610900</v>
+      </c>
+      <c r="F89" s="3">
+        <v>411600</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
+      <c r="H89" s="3">
+        <v>145500</v>
       </c>
       <c r="I89" s="3">
-        <v>224200</v>
+        <v>71000</v>
       </c>
       <c r="J89" s="3">
+        <v>225000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-34600</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-114100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-54100</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>-36900</v>
       </c>
       <c r="I91" s="3">
-        <v>-29600</v>
+        <v>-28600</v>
       </c>
       <c r="J91" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-50500</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>-154700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-356700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-146300</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
+      <c r="H94" s="3">
+        <v>-32400</v>
       </c>
       <c r="I94" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-12000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-43200</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-143300</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-151000</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-126700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-36900</v>
       </c>
       <c r="I96" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-16000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-31800</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>-279500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-164600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-126100</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
+      <c r="H100" s="3">
+        <v>-9200</v>
       </c>
       <c r="I100" s="3">
+        <v>-124300</v>
+      </c>
+      <c r="J100" s="3">
         <v>-11900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>249200</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="F101" s="3">
+        <v>7500</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
+      <c r="H101" s="3">
+        <v>-13000</v>
       </c>
       <c r="I101" s="3">
-        <v>61400</v>
+        <v>-36300</v>
       </c>
       <c r="J101" s="3">
+        <v>61600</v>
+      </c>
+      <c r="K101" s="3">
         <v>42300</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>197200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>71300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>146800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
+      <c r="H102" s="3">
+        <v>90900</v>
       </c>
       <c r="I102" s="3">
-        <v>261800</v>
+        <v>-111600</v>
       </c>
       <c r="J102" s="3">
+        <v>262600</v>
+      </c>
+      <c r="K102" s="3">
         <v>213700</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>ATEYY</t>
   </si>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2874500</v>
+        <v>2849500</v>
       </c>
       <c r="E8" s="3">
-        <v>2535500</v>
+        <v>2513400</v>
       </c>
       <c r="F8" s="3">
-        <v>2595800</v>
+        <v>2573200</v>
       </c>
       <c r="G8" s="3">
-        <v>1904400</v>
+        <v>1887800</v>
       </c>
       <c r="H8" s="3">
-        <v>1432900</v>
+        <v>1420400</v>
       </c>
       <c r="I8" s="3">
-        <v>1489800</v>
+        <v>1476800</v>
       </c>
       <c r="J8" s="3">
-        <v>1501000</v>
+        <v>1487900</v>
       </c>
       <c r="K8" s="3">
         <v>1024800</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1327900</v>
+        <v>1316400</v>
       </c>
       <c r="E9" s="3">
-        <v>1097300</v>
+        <v>1087700</v>
       </c>
       <c r="F9" s="3">
-        <v>1180200</v>
+        <v>1169900</v>
       </c>
       <c r="G9" s="3">
-        <v>924800</v>
+        <v>916800</v>
       </c>
       <c r="H9" s="3">
-        <v>608200</v>
+        <v>602900</v>
       </c>
       <c r="I9" s="3">
-        <v>649100</v>
+        <v>643500</v>
       </c>
       <c r="J9" s="3">
-        <v>670000</v>
+        <v>664100</v>
       </c>
       <c r="K9" s="3">
         <v>572900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1546600</v>
+        <v>1533100</v>
       </c>
       <c r="E10" s="3">
-        <v>1438200</v>
+        <v>1425700</v>
       </c>
       <c r="F10" s="3">
-        <v>1415600</v>
+        <v>1403300</v>
       </c>
       <c r="G10" s="3">
-        <v>979500</v>
+        <v>971000</v>
       </c>
       <c r="H10" s="3">
-        <v>824700</v>
+        <v>817500</v>
       </c>
       <c r="I10" s="3">
-        <v>840700</v>
+        <v>833300</v>
       </c>
       <c r="J10" s="3">
-        <v>831000</v>
+        <v>823800</v>
       </c>
       <c r="K10" s="3">
         <v>451900</v>
@@ -836,7 +836,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>274600</v>
+        <v>272200</v>
       </c>
       <c r="K12" s="3">
         <v>299300</v>
@@ -907,23 +907,23 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>89000</v>
       </c>
       <c r="E15" s="3">
-        <v>70700</v>
+        <v>70100</v>
       </c>
       <c r="F15" s="3">
-        <v>35600</v>
+        <v>35300</v>
       </c>
       <c r="G15" s="3">
-        <v>37700</v>
+        <v>37300</v>
       </c>
       <c r="H15" s="3">
-        <v>35700</v>
+        <v>35400</v>
       </c>
       <c r="I15" s="3">
-        <v>31600</v>
+        <v>31400</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2224600</v>
+        <v>2205200</v>
       </c>
       <c r="E17" s="3">
-        <v>1995900</v>
+        <v>1978600</v>
       </c>
       <c r="F17" s="3">
-        <v>2001500</v>
+        <v>1984100</v>
       </c>
       <c r="G17" s="3">
-        <v>1679300</v>
+        <v>1664700</v>
       </c>
       <c r="H17" s="3">
-        <v>1305100</v>
+        <v>1293700</v>
       </c>
       <c r="I17" s="3">
-        <v>1374000</v>
+        <v>1362100</v>
       </c>
       <c r="J17" s="3">
-        <v>1366600</v>
+        <v>1354700</v>
       </c>
       <c r="K17" s="3">
         <v>1355900</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>650000</v>
+        <v>644300</v>
       </c>
       <c r="E18" s="3">
-        <v>539500</v>
+        <v>534800</v>
       </c>
       <c r="F18" s="3">
-        <v>594200</v>
+        <v>589100</v>
       </c>
       <c r="G18" s="3">
-        <v>225000</v>
+        <v>223100</v>
       </c>
       <c r="H18" s="3">
-        <v>127800</v>
+        <v>126700</v>
       </c>
       <c r="I18" s="3">
-        <v>115800</v>
+        <v>114800</v>
       </c>
       <c r="J18" s="3">
-        <v>134300</v>
+        <v>133200</v>
       </c>
       <c r="K18" s="3">
         <v>-331100</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-10200</v>
+        <v>-8400</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="G20" s="3">
         <v>-600</v>
       </c>
       <c r="H20" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="I20" s="3">
         <v>-5600</v>
       </c>
       <c r="J20" s="3">
-        <v>40200</v>
+        <v>39900</v>
       </c>
       <c r="K20" s="3">
         <v>9200</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>747900</v>
+        <v>743000</v>
       </c>
       <c r="E21" s="3">
-        <v>639900</v>
+        <v>634200</v>
       </c>
       <c r="F21" s="3">
-        <v>654900</v>
+        <v>649100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="3">
-        <v>187500</v>
+        <v>185900</v>
       </c>
       <c r="I21" s="3">
-        <v>155800</v>
+        <v>154400</v>
       </c>
       <c r="J21" s="3">
-        <v>221100</v>
+        <v>219100</v>
       </c>
       <c r="K21" s="3">
         <v>-245800</v>
@@ -1082,8 +1082,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>1700</v>
       </c>
       <c r="E22" s="3">
         <v>1400</v>
@@ -1101,7 +1101,7 @@
         <v>2000</v>
       </c>
       <c r="J22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K22" s="3">
         <v>1300</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>639800</v>
+        <v>634200</v>
       </c>
       <c r="E23" s="3">
-        <v>538300</v>
+        <v>533600</v>
       </c>
       <c r="F23" s="3">
-        <v>608500</v>
+        <v>603200</v>
       </c>
       <c r="G23" s="3">
-        <v>223200</v>
+        <v>221200</v>
       </c>
       <c r="H23" s="3">
-        <v>138100</v>
+        <v>136900</v>
       </c>
       <c r="I23" s="3">
-        <v>108100</v>
+        <v>107200</v>
       </c>
       <c r="J23" s="3">
-        <v>173300</v>
+        <v>171800</v>
       </c>
       <c r="K23" s="3">
         <v>-323100</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="E24" s="3">
-        <v>46300</v>
+        <v>45900</v>
       </c>
       <c r="F24" s="3">
-        <v>84700</v>
+        <v>84000</v>
       </c>
       <c r="G24" s="3">
-        <v>56800</v>
+        <v>56300</v>
       </c>
       <c r="H24" s="3">
         <v>7500</v>
       </c>
       <c r="I24" s="3">
-        <v>46600</v>
+        <v>46200</v>
       </c>
       <c r="J24" s="3">
-        <v>54300</v>
+        <v>53800</v>
       </c>
       <c r="K24" s="3">
         <v>600</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>641300</v>
+        <v>635800</v>
       </c>
       <c r="E26" s="3">
-        <v>492000</v>
+        <v>487700</v>
       </c>
       <c r="F26" s="3">
-        <v>523800</v>
+        <v>519200</v>
       </c>
       <c r="G26" s="3">
-        <v>166400</v>
+        <v>164900</v>
       </c>
       <c r="H26" s="3">
-        <v>130500</v>
+        <v>129400</v>
       </c>
       <c r="I26" s="3">
-        <v>61500</v>
+        <v>61000</v>
       </c>
       <c r="J26" s="3">
-        <v>119000</v>
+        <v>118000</v>
       </c>
       <c r="K26" s="3">
         <v>-323700</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>641300</v>
+        <v>635800</v>
       </c>
       <c r="E27" s="3">
-        <v>492000</v>
+        <v>487700</v>
       </c>
       <c r="F27" s="3">
-        <v>523800</v>
+        <v>519200</v>
       </c>
       <c r="G27" s="3">
-        <v>166400</v>
+        <v>164900</v>
       </c>
       <c r="H27" s="3">
-        <v>130500</v>
+        <v>129400</v>
       </c>
       <c r="I27" s="3">
-        <v>61500</v>
+        <v>61000</v>
       </c>
       <c r="J27" s="3">
-        <v>119000</v>
+        <v>118000</v>
       </c>
       <c r="K27" s="3">
         <v>-323500</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>10200</v>
+        <v>8400</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>-14900</v>
+        <v>-14800</v>
       </c>
       <c r="G32" s="3">
         <v>600</v>
       </c>
       <c r="H32" s="3">
-        <v>-12300</v>
+        <v>-12200</v>
       </c>
       <c r="I32" s="3">
         <v>5600</v>
       </c>
       <c r="J32" s="3">
-        <v>-40200</v>
+        <v>-39900</v>
       </c>
       <c r="K32" s="3">
         <v>-9200</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>641300</v>
+        <v>635800</v>
       </c>
       <c r="E33" s="3">
-        <v>492000</v>
+        <v>487700</v>
       </c>
       <c r="F33" s="3">
-        <v>523800</v>
+        <v>519200</v>
       </c>
       <c r="G33" s="3">
-        <v>166400</v>
+        <v>164900</v>
       </c>
       <c r="H33" s="3">
-        <v>130500</v>
+        <v>129400</v>
       </c>
       <c r="I33" s="3">
-        <v>61500</v>
+        <v>61000</v>
       </c>
       <c r="J33" s="3">
-        <v>119000</v>
+        <v>118000</v>
       </c>
       <c r="K33" s="3">
         <v>-323500</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>641300</v>
+        <v>635800</v>
       </c>
       <c r="E35" s="3">
-        <v>492000</v>
+        <v>487700</v>
       </c>
       <c r="F35" s="3">
-        <v>523800</v>
+        <v>519200</v>
       </c>
       <c r="G35" s="3">
-        <v>166400</v>
+        <v>164900</v>
       </c>
       <c r="H35" s="3">
-        <v>130500</v>
+        <v>129400</v>
       </c>
       <c r="I35" s="3">
-        <v>61500</v>
+        <v>61000</v>
       </c>
       <c r="J35" s="3">
-        <v>119000</v>
+        <v>118000</v>
       </c>
       <c r="K35" s="3">
         <v>-323500</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1370800</v>
+        <v>1358900</v>
       </c>
       <c r="E41" s="3">
-        <v>1173600</v>
+        <v>1163400</v>
       </c>
       <c r="F41" s="3">
-        <v>1102300</v>
+        <v>1092700</v>
       </c>
       <c r="G41" s="3">
-        <v>955500</v>
+        <v>947200</v>
       </c>
       <c r="H41" s="3">
-        <v>876000</v>
+        <v>868400</v>
       </c>
       <c r="I41" s="3">
-        <v>785100</v>
+        <v>778300</v>
       </c>
       <c r="J41" s="3">
-        <v>896700</v>
+        <v>888900</v>
       </c>
       <c r="K41" s="3">
         <v>632000</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>524100</v>
+        <v>519500</v>
       </c>
       <c r="E43" s="3">
-        <v>426700</v>
+        <v>422900</v>
       </c>
       <c r="F43" s="3">
-        <v>475900</v>
+        <v>471800</v>
       </c>
       <c r="G43" s="3">
-        <v>348600</v>
+        <v>345500</v>
       </c>
       <c r="H43" s="3">
-        <v>298200</v>
+        <v>295600</v>
       </c>
       <c r="I43" s="3">
-        <v>257400</v>
+        <v>255100</v>
       </c>
       <c r="J43" s="3">
-        <v>229400</v>
+        <v>227400</v>
       </c>
       <c r="K43" s="3">
         <v>186900</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>591300</v>
+        <v>586100</v>
       </c>
       <c r="E44" s="3">
-        <v>541700</v>
+        <v>537000</v>
       </c>
       <c r="F44" s="3">
-        <v>524700</v>
+        <v>520200</v>
       </c>
       <c r="G44" s="3">
-        <v>456100</v>
+        <v>452100</v>
       </c>
       <c r="H44" s="3">
-        <v>359300</v>
+        <v>356100</v>
       </c>
       <c r="I44" s="3">
-        <v>311700</v>
+        <v>308900</v>
       </c>
       <c r="J44" s="3">
-        <v>342000</v>
+        <v>339000</v>
       </c>
       <c r="K44" s="3">
         <v>276600</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>78700</v>
+        <v>78000</v>
       </c>
       <c r="E45" s="3">
-        <v>65000</v>
+        <v>64400</v>
       </c>
       <c r="F45" s="3">
-        <v>40600</v>
+        <v>40300</v>
       </c>
       <c r="G45" s="3">
-        <v>51600</v>
+        <v>51100</v>
       </c>
       <c r="H45" s="3">
-        <v>39300</v>
+        <v>38900</v>
       </c>
       <c r="I45" s="3">
-        <v>28000</v>
+        <v>27800</v>
       </c>
       <c r="J45" s="3">
-        <v>46500</v>
+        <v>46100</v>
       </c>
       <c r="K45" s="3">
         <v>47800</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2564900</v>
+        <v>2542600</v>
       </c>
       <c r="E46" s="3">
-        <v>2206900</v>
+        <v>2187700</v>
       </c>
       <c r="F46" s="3">
-        <v>2143600</v>
+        <v>2124900</v>
       </c>
       <c r="G46" s="3">
-        <v>1811700</v>
+        <v>1796000</v>
       </c>
       <c r="H46" s="3">
-        <v>1572800</v>
+        <v>1559100</v>
       </c>
       <c r="I46" s="3">
-        <v>1382100</v>
+        <v>1370100</v>
       </c>
       <c r="J46" s="3">
-        <v>1514500</v>
+        <v>1501300</v>
       </c>
       <c r="K46" s="3">
         <v>1143300</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>96300</v>
+        <v>95500</v>
       </c>
       <c r="E47" s="3">
-        <v>27600</v>
+        <v>27400</v>
       </c>
       <c r="F47" s="3">
-        <v>29500</v>
+        <v>29300</v>
       </c>
       <c r="G47" s="3">
-        <v>25500</v>
+        <v>25200</v>
       </c>
       <c r="H47" s="3">
-        <v>34800</v>
+        <v>34500</v>
       </c>
       <c r="I47" s="3">
-        <v>35300</v>
+        <v>35000</v>
       </c>
       <c r="J47" s="3">
-        <v>20700</v>
+        <v>20500</v>
       </c>
       <c r="K47" s="3">
         <v>34300</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>489700</v>
+        <v>485400</v>
       </c>
       <c r="E48" s="3">
-        <v>425100</v>
+        <v>421400</v>
       </c>
       <c r="F48" s="3">
-        <v>282900</v>
+        <v>280500</v>
       </c>
       <c r="G48" s="3">
-        <v>268600</v>
+        <v>266300</v>
       </c>
       <c r="H48" s="3">
-        <v>274900</v>
+        <v>272500</v>
       </c>
       <c r="I48" s="3">
-        <v>289000</v>
+        <v>286500</v>
       </c>
       <c r="J48" s="3">
-        <v>353600</v>
+        <v>350600</v>
       </c>
       <c r="K48" s="3">
         <v>365700</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>501300</v>
+        <v>496900</v>
       </c>
       <c r="E49" s="3">
-        <v>468900</v>
+        <v>464800</v>
       </c>
       <c r="F49" s="3">
-        <v>240000</v>
+        <v>237900</v>
       </c>
       <c r="G49" s="3">
-        <v>140500</v>
+        <v>139300</v>
       </c>
       <c r="H49" s="3">
-        <v>151400</v>
+        <v>150100</v>
       </c>
       <c r="I49" s="3">
-        <v>153700</v>
+        <v>152400</v>
       </c>
       <c r="J49" s="3">
-        <v>539200</v>
+        <v>534500</v>
       </c>
       <c r="K49" s="3">
         <v>461600</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>232000</v>
+        <v>230000</v>
       </c>
       <c r="E52" s="3">
-        <v>141100</v>
+        <v>139800</v>
       </c>
       <c r="F52" s="3">
-        <v>103000</v>
+        <v>102100</v>
       </c>
       <c r="G52" s="3">
-        <v>93100</v>
+        <v>92300</v>
       </c>
       <c r="H52" s="3">
-        <v>94500</v>
+        <v>93700</v>
       </c>
       <c r="I52" s="3">
-        <v>73900</v>
+        <v>73200</v>
       </c>
       <c r="J52" s="3">
-        <v>81200</v>
+        <v>80500</v>
       </c>
       <c r="K52" s="3">
         <v>100600</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3884100</v>
+        <v>3850300</v>
       </c>
       <c r="E54" s="3">
-        <v>3269600</v>
+        <v>3241100</v>
       </c>
       <c r="F54" s="3">
-        <v>2799100</v>
+        <v>2774700</v>
       </c>
       <c r="G54" s="3">
-        <v>2339400</v>
+        <v>2319000</v>
       </c>
       <c r="H54" s="3">
-        <v>2128400</v>
+        <v>2109900</v>
       </c>
       <c r="I54" s="3">
-        <v>1934000</v>
+        <v>1917200</v>
       </c>
       <c r="J54" s="3">
-        <v>2509200</v>
+        <v>2487400</v>
       </c>
       <c r="K54" s="3">
         <v>2105500</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>538100</v>
+        <v>367200</v>
       </c>
       <c r="E57" s="3">
-        <v>288900</v>
+        <v>286400</v>
       </c>
       <c r="F57" s="3">
-        <v>262400</v>
+        <v>260100</v>
       </c>
       <c r="G57" s="3">
-        <v>288400</v>
+        <v>285900</v>
       </c>
       <c r="H57" s="3">
-        <v>176100</v>
+        <v>174600</v>
       </c>
       <c r="I57" s="3">
-        <v>122300</v>
+        <v>121200</v>
       </c>
       <c r="J57" s="3">
-        <v>166300</v>
+        <v>164900</v>
       </c>
       <c r="K57" s="3">
         <v>113200</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22800</v>
+        <v>22600</v>
       </c>
       <c r="E58" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="F58" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="G58" s="3">
-        <v>274500</v>
+        <v>272100</v>
       </c>
       <c r="H58" s="3">
-        <v>137800</v>
+        <v>136700</v>
       </c>
       <c r="I58" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="J58" s="3">
-        <v>91900</v>
+        <v>91100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>264400</v>
+        <v>428400</v>
       </c>
       <c r="E59" s="3">
-        <v>338400</v>
+        <v>335500</v>
       </c>
       <c r="F59" s="3">
-        <v>306900</v>
+        <v>304200</v>
       </c>
       <c r="G59" s="3">
-        <v>238500</v>
+        <v>236400</v>
       </c>
       <c r="H59" s="3">
-        <v>158700</v>
+        <v>157300</v>
       </c>
       <c r="I59" s="3">
-        <v>143700</v>
+        <v>142500</v>
       </c>
       <c r="J59" s="3">
-        <v>198400</v>
+        <v>196600</v>
       </c>
       <c r="K59" s="3">
         <v>130600</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>825400</v>
+        <v>818200</v>
       </c>
       <c r="E60" s="3">
-        <v>648200</v>
+        <v>642600</v>
       </c>
       <c r="F60" s="3">
-        <v>577600</v>
+        <v>572500</v>
       </c>
       <c r="G60" s="3">
-        <v>801300</v>
+        <v>794400</v>
       </c>
       <c r="H60" s="3">
-        <v>472700</v>
+        <v>468600</v>
       </c>
       <c r="I60" s="3">
-        <v>270500</v>
+        <v>268100</v>
       </c>
       <c r="J60" s="3">
-        <v>456600</v>
+        <v>452600</v>
       </c>
       <c r="K60" s="3">
         <v>243700</v>
@@ -2134,10 +2134,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>86100</v>
+        <v>85300</v>
       </c>
       <c r="E61" s="3">
-        <v>82800</v>
+        <v>82100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2146,13 +2146,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>273400</v>
+        <v>271000</v>
       </c>
       <c r="I61" s="3">
-        <v>410000</v>
+        <v>406500</v>
       </c>
       <c r="J61" s="3">
-        <v>414600</v>
+        <v>411000</v>
       </c>
       <c r="K61" s="3">
         <v>505200</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>396100</v>
+        <v>392600</v>
       </c>
       <c r="E62" s="3">
-        <v>411500</v>
+        <v>407900</v>
       </c>
       <c r="F62" s="3">
-        <v>395200</v>
+        <v>391700</v>
       </c>
       <c r="G62" s="3">
-        <v>392900</v>
+        <v>389500</v>
       </c>
       <c r="H62" s="3">
-        <v>375900</v>
+        <v>372700</v>
       </c>
       <c r="I62" s="3">
-        <v>393100</v>
+        <v>389700</v>
       </c>
       <c r="J62" s="3">
-        <v>342800</v>
+        <v>339800</v>
       </c>
       <c r="K62" s="3">
         <v>291700</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1307500</v>
+        <v>1296100</v>
       </c>
       <c r="E66" s="3">
-        <v>1142500</v>
+        <v>1132600</v>
       </c>
       <c r="F66" s="3">
-        <v>972800</v>
+        <v>964300</v>
       </c>
       <c r="G66" s="3">
-        <v>1194200</v>
+        <v>1183800</v>
       </c>
       <c r="H66" s="3">
-        <v>1122000</v>
+        <v>1112200</v>
       </c>
       <c r="I66" s="3">
-        <v>1073700</v>
+        <v>1064300</v>
       </c>
       <c r="J66" s="3">
-        <v>1214000</v>
+        <v>1203500</v>
       </c>
       <c r="K66" s="3">
         <v>1040600</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1974500</v>
+        <v>1957400</v>
       </c>
       <c r="E72" s="3">
-        <v>1468600</v>
+        <v>1455800</v>
       </c>
       <c r="F72" s="3">
-        <v>1157300</v>
+        <v>1147200</v>
       </c>
       <c r="G72" s="3">
-        <v>1150600</v>
+        <v>1140600</v>
       </c>
       <c r="H72" s="3">
-        <v>1044700</v>
+        <v>1035600</v>
       </c>
       <c r="I72" s="3">
-        <v>966700</v>
+        <v>958300</v>
       </c>
       <c r="J72" s="3">
-        <v>1296700</v>
+        <v>1285500</v>
       </c>
       <c r="K72" s="3">
         <v>1197600</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2576600</v>
+        <v>2554200</v>
       </c>
       <c r="E76" s="3">
-        <v>2127000</v>
+        <v>2108500</v>
       </c>
       <c r="F76" s="3">
-        <v>1826300</v>
+        <v>1810400</v>
       </c>
       <c r="G76" s="3">
-        <v>1145200</v>
+        <v>1135200</v>
       </c>
       <c r="H76" s="3">
-        <v>1006500</v>
+        <v>997700</v>
       </c>
       <c r="I76" s="3">
-        <v>860400</v>
+        <v>852900</v>
       </c>
       <c r="J76" s="3">
-        <v>1295200</v>
+        <v>1283900</v>
       </c>
       <c r="K76" s="3">
         <v>1064900</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>641300</v>
+        <v>635800</v>
       </c>
       <c r="E81" s="3">
-        <v>492000</v>
+        <v>487700</v>
       </c>
       <c r="F81" s="3">
-        <v>523800</v>
+        <v>519200</v>
       </c>
       <c r="G81" s="3">
-        <v>166400</v>
+        <v>164900</v>
       </c>
       <c r="H81" s="3">
-        <v>130500</v>
+        <v>129400</v>
       </c>
       <c r="I81" s="3">
-        <v>61500</v>
+        <v>61000</v>
       </c>
       <c r="J81" s="3">
-        <v>119000</v>
+        <v>118000</v>
       </c>
       <c r="K81" s="3">
         <v>-323500</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>108000</v>
+        <v>107100</v>
       </c>
       <c r="E83" s="3">
-        <v>100100</v>
+        <v>99200</v>
       </c>
       <c r="F83" s="3">
-        <v>45600</v>
+        <v>45200</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H83" s="3">
-        <v>47400</v>
+        <v>47000</v>
       </c>
       <c r="I83" s="3">
-        <v>45600</v>
+        <v>45200</v>
       </c>
       <c r="J83" s="3">
-        <v>46500</v>
+        <v>46100</v>
       </c>
       <c r="K83" s="3">
         <v>75700</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>623400</v>
+        <v>617900</v>
       </c>
       <c r="E89" s="3">
-        <v>610900</v>
+        <v>605600</v>
       </c>
       <c r="F89" s="3">
-        <v>411600</v>
+        <v>408100</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H89" s="3">
-        <v>145500</v>
+        <v>144200</v>
       </c>
       <c r="I89" s="3">
-        <v>71000</v>
+        <v>70400</v>
       </c>
       <c r="J89" s="3">
-        <v>225000</v>
+        <v>223000</v>
       </c>
       <c r="K89" s="3">
         <v>-34600</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-114100</v>
+        <v>-113100</v>
       </c>
       <c r="E91" s="3">
-        <v>-74800</v>
+        <v>-74200</v>
       </c>
       <c r="F91" s="3">
-        <v>-54100</v>
+        <v>-53700</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H91" s="3">
-        <v>-36900</v>
+        <v>-36600</v>
       </c>
       <c r="I91" s="3">
-        <v>-28600</v>
+        <v>-28400</v>
       </c>
       <c r="J91" s="3">
-        <v>-29700</v>
+        <v>-29400</v>
       </c>
       <c r="K91" s="3">
         <v>-50500</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-154700</v>
+        <v>-153300</v>
       </c>
       <c r="E94" s="3">
-        <v>-356700</v>
+        <v>-353600</v>
       </c>
       <c r="F94" s="3">
-        <v>-146300</v>
+        <v>-145000</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H94" s="3">
-        <v>-32400</v>
+        <v>-32100</v>
       </c>
       <c r="I94" s="3">
-        <v>-22000</v>
+        <v>-21800</v>
       </c>
       <c r="J94" s="3">
-        <v>-12000</v>
+        <v>-11900</v>
       </c>
       <c r="K94" s="3">
         <v>-43200</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-143300</v>
+        <v>-142100</v>
       </c>
       <c r="E96" s="3">
-        <v>-151000</v>
+        <v>-149600</v>
       </c>
       <c r="F96" s="3">
-        <v>-126700</v>
+        <v>-125600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-36900</v>
+        <v>-36600</v>
       </c>
       <c r="I96" s="3">
-        <v>-32100</v>
+        <v>-31800</v>
       </c>
       <c r="J96" s="3">
-        <v>-16000</v>
+        <v>-15900</v>
       </c>
       <c r="K96" s="3">
         <v>-31800</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-279500</v>
+        <v>-277100</v>
       </c>
       <c r="E100" s="3">
-        <v>-164600</v>
+        <v>-163200</v>
       </c>
       <c r="F100" s="3">
-        <v>-126100</v>
+        <v>-125000</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H100" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="I100" s="3">
-        <v>-124300</v>
+        <v>-123300</v>
       </c>
       <c r="J100" s="3">
-        <v>-11900</v>
+        <v>-11800</v>
       </c>
       <c r="K100" s="3">
         <v>249200</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="E101" s="3">
-        <v>-18200</v>
+        <v>-18000</v>
       </c>
       <c r="F101" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H101" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="I101" s="3">
-        <v>-36300</v>
+        <v>-35900</v>
       </c>
       <c r="J101" s="3">
-        <v>61600</v>
+        <v>61100</v>
       </c>
       <c r="K101" s="3">
         <v>42300</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>197200</v>
+        <v>195500</v>
       </c>
       <c r="E102" s="3">
-        <v>71300</v>
+        <v>70700</v>
       </c>
       <c r="F102" s="3">
-        <v>146800</v>
+        <v>145500</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H102" s="3">
-        <v>90900</v>
+        <v>90100</v>
       </c>
       <c r="I102" s="3">
-        <v>-111600</v>
+        <v>-110600</v>
       </c>
       <c r="J102" s="3">
-        <v>262600</v>
+        <v>260300</v>
       </c>
       <c r="K102" s="3">
         <v>213700</v>

--- a/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>ATEYY</t>
   </si>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2849500</v>
+        <v>2755700</v>
       </c>
       <c r="E8" s="3">
-        <v>2513400</v>
+        <v>2430600</v>
       </c>
       <c r="F8" s="3">
-        <v>2573200</v>
+        <v>2488400</v>
       </c>
       <c r="G8" s="3">
-        <v>1887800</v>
+        <v>1825600</v>
       </c>
       <c r="H8" s="3">
-        <v>1420400</v>
+        <v>1373600</v>
       </c>
       <c r="I8" s="3">
-        <v>1476800</v>
+        <v>1428200</v>
       </c>
       <c r="J8" s="3">
-        <v>1487900</v>
+        <v>1438900</v>
       </c>
       <c r="K8" s="3">
         <v>1024800</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1316400</v>
+        <v>1273000</v>
       </c>
       <c r="E9" s="3">
-        <v>1087700</v>
+        <v>1051900</v>
       </c>
       <c r="F9" s="3">
-        <v>1169900</v>
+        <v>1131400</v>
       </c>
       <c r="G9" s="3">
-        <v>916800</v>
+        <v>886600</v>
       </c>
       <c r="H9" s="3">
-        <v>602900</v>
+        <v>583000</v>
       </c>
       <c r="I9" s="3">
-        <v>643500</v>
+        <v>622300</v>
       </c>
       <c r="J9" s="3">
-        <v>664100</v>
+        <v>642300</v>
       </c>
       <c r="K9" s="3">
         <v>572900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1533100</v>
+        <v>1482600</v>
       </c>
       <c r="E10" s="3">
-        <v>1425700</v>
+        <v>1378700</v>
       </c>
       <c r="F10" s="3">
-        <v>1403300</v>
+        <v>1357100</v>
       </c>
       <c r="G10" s="3">
-        <v>971000</v>
+        <v>939000</v>
       </c>
       <c r="H10" s="3">
-        <v>817500</v>
+        <v>790600</v>
       </c>
       <c r="I10" s="3">
-        <v>833300</v>
+        <v>805900</v>
       </c>
       <c r="J10" s="3">
-        <v>823800</v>
+        <v>796700</v>
       </c>
       <c r="K10" s="3">
         <v>451900</v>
@@ -836,7 +836,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>272200</v>
+        <v>263200</v>
       </c>
       <c r="K12" s="3">
         <v>299300</v>
@@ -908,22 +908,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>89000</v>
+        <v>86100</v>
       </c>
       <c r="E15" s="3">
-        <v>70100</v>
+        <v>67800</v>
       </c>
       <c r="F15" s="3">
-        <v>35300</v>
+        <v>34100</v>
       </c>
       <c r="G15" s="3">
-        <v>37300</v>
+        <v>36100</v>
       </c>
       <c r="H15" s="3">
-        <v>35400</v>
+        <v>34200</v>
       </c>
       <c r="I15" s="3">
-        <v>31400</v>
+        <v>30300</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2205200</v>
+        <v>2132600</v>
       </c>
       <c r="E17" s="3">
-        <v>1978600</v>
+        <v>1913400</v>
       </c>
       <c r="F17" s="3">
-        <v>1984100</v>
+        <v>1918800</v>
       </c>
       <c r="G17" s="3">
-        <v>1664700</v>
+        <v>1609900</v>
       </c>
       <c r="H17" s="3">
-        <v>1293700</v>
+        <v>1251100</v>
       </c>
       <c r="I17" s="3">
-        <v>1362100</v>
+        <v>1317200</v>
       </c>
       <c r="J17" s="3">
-        <v>1354700</v>
+        <v>1310100</v>
       </c>
       <c r="K17" s="3">
         <v>1355900</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>644300</v>
+        <v>623100</v>
       </c>
       <c r="E18" s="3">
-        <v>534800</v>
+        <v>517200</v>
       </c>
       <c r="F18" s="3">
-        <v>589100</v>
+        <v>569700</v>
       </c>
       <c r="G18" s="3">
-        <v>223100</v>
+        <v>215700</v>
       </c>
       <c r="H18" s="3">
-        <v>126700</v>
+        <v>122500</v>
       </c>
       <c r="I18" s="3">
-        <v>114800</v>
+        <v>111000</v>
       </c>
       <c r="J18" s="3">
-        <v>133200</v>
+        <v>128800</v>
       </c>
       <c r="K18" s="3">
         <v>-331100</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8400</v>
+        <v>-8200</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="G20" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="H20" s="3">
-        <v>12200</v>
+        <v>11800</v>
       </c>
       <c r="I20" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="J20" s="3">
-        <v>39900</v>
+        <v>38600</v>
       </c>
       <c r="K20" s="3">
         <v>9200</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>743000</v>
+        <v>718700</v>
       </c>
       <c r="E21" s="3">
-        <v>634200</v>
+        <v>613600</v>
       </c>
       <c r="F21" s="3">
-        <v>649100</v>
+        <v>627900</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="3">
-        <v>185900</v>
+        <v>179800</v>
       </c>
       <c r="I21" s="3">
-        <v>154400</v>
+        <v>149400</v>
       </c>
       <c r="J21" s="3">
-        <v>219100</v>
+        <v>212000</v>
       </c>
       <c r="K21" s="3">
         <v>-245800</v>
@@ -1083,7 +1083,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E22" s="3">
         <v>1400</v>
@@ -1095,10 +1095,10 @@
         <v>1300</v>
       </c>
       <c r="H22" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I22" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J22" s="3">
         <v>1200</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>634200</v>
+        <v>613300</v>
       </c>
       <c r="E23" s="3">
-        <v>533600</v>
+        <v>516000</v>
       </c>
       <c r="F23" s="3">
-        <v>603200</v>
+        <v>583300</v>
       </c>
       <c r="G23" s="3">
-        <v>221200</v>
+        <v>213900</v>
       </c>
       <c r="H23" s="3">
-        <v>136900</v>
+        <v>132300</v>
       </c>
       <c r="I23" s="3">
-        <v>107200</v>
+        <v>103700</v>
       </c>
       <c r="J23" s="3">
-        <v>171800</v>
+        <v>166100</v>
       </c>
       <c r="K23" s="3">
         <v>-323100</v>
@@ -1146,22 +1146,22 @@
         <v>-1500</v>
       </c>
       <c r="E24" s="3">
-        <v>45900</v>
+        <v>44400</v>
       </c>
       <c r="F24" s="3">
-        <v>84000</v>
+        <v>81200</v>
       </c>
       <c r="G24" s="3">
-        <v>56300</v>
+        <v>54400</v>
       </c>
       <c r="H24" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="I24" s="3">
-        <v>46200</v>
+        <v>44700</v>
       </c>
       <c r="J24" s="3">
-        <v>53800</v>
+        <v>52100</v>
       </c>
       <c r="K24" s="3">
         <v>600</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>635800</v>
+        <v>614800</v>
       </c>
       <c r="E26" s="3">
-        <v>487700</v>
+        <v>471600</v>
       </c>
       <c r="F26" s="3">
-        <v>519200</v>
+        <v>502100</v>
       </c>
       <c r="G26" s="3">
-        <v>164900</v>
+        <v>159500</v>
       </c>
       <c r="H26" s="3">
-        <v>129400</v>
+        <v>125100</v>
       </c>
       <c r="I26" s="3">
-        <v>61000</v>
+        <v>59000</v>
       </c>
       <c r="J26" s="3">
-        <v>118000</v>
+        <v>114100</v>
       </c>
       <c r="K26" s="3">
         <v>-323700</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>635800</v>
+        <v>614800</v>
       </c>
       <c r="E27" s="3">
-        <v>487700</v>
+        <v>471600</v>
       </c>
       <c r="F27" s="3">
-        <v>519200</v>
+        <v>502100</v>
       </c>
       <c r="G27" s="3">
-        <v>164900</v>
+        <v>159500</v>
       </c>
       <c r="H27" s="3">
-        <v>129400</v>
+        <v>125100</v>
       </c>
       <c r="I27" s="3">
-        <v>61000</v>
+        <v>59000</v>
       </c>
       <c r="J27" s="3">
-        <v>118000</v>
+        <v>114100</v>
       </c>
       <c r="K27" s="3">
         <v>-323500</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>-14800</v>
+        <v>-14300</v>
       </c>
       <c r="G32" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H32" s="3">
-        <v>-12200</v>
+        <v>-11800</v>
       </c>
       <c r="I32" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="J32" s="3">
-        <v>-39900</v>
+        <v>-38600</v>
       </c>
       <c r="K32" s="3">
         <v>-9200</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>635800</v>
+        <v>614800</v>
       </c>
       <c r="E33" s="3">
-        <v>487700</v>
+        <v>471600</v>
       </c>
       <c r="F33" s="3">
-        <v>519200</v>
+        <v>502100</v>
       </c>
       <c r="G33" s="3">
-        <v>164900</v>
+        <v>159500</v>
       </c>
       <c r="H33" s="3">
-        <v>129400</v>
+        <v>125100</v>
       </c>
       <c r="I33" s="3">
-        <v>61000</v>
+        <v>59000</v>
       </c>
       <c r="J33" s="3">
-        <v>118000</v>
+        <v>114100</v>
       </c>
       <c r="K33" s="3">
         <v>-323500</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>635800</v>
+        <v>614800</v>
       </c>
       <c r="E35" s="3">
-        <v>487700</v>
+        <v>471600</v>
       </c>
       <c r="F35" s="3">
-        <v>519200</v>
+        <v>502100</v>
       </c>
       <c r="G35" s="3">
-        <v>164900</v>
+        <v>159500</v>
       </c>
       <c r="H35" s="3">
-        <v>129400</v>
+        <v>125100</v>
       </c>
       <c r="I35" s="3">
-        <v>61000</v>
+        <v>59000</v>
       </c>
       <c r="J35" s="3">
-        <v>118000</v>
+        <v>114100</v>
       </c>
       <c r="K35" s="3">
         <v>-323500</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1358900</v>
+        <v>1314100</v>
       </c>
       <c r="E41" s="3">
-        <v>1163400</v>
+        <v>1125100</v>
       </c>
       <c r="F41" s="3">
-        <v>1092700</v>
+        <v>1056700</v>
       </c>
       <c r="G41" s="3">
-        <v>947200</v>
+        <v>916000</v>
       </c>
       <c r="H41" s="3">
-        <v>868400</v>
+        <v>839800</v>
       </c>
       <c r="I41" s="3">
-        <v>778300</v>
+        <v>752600</v>
       </c>
       <c r="J41" s="3">
-        <v>888900</v>
+        <v>859600</v>
       </c>
       <c r="K41" s="3">
         <v>632000</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>519500</v>
+        <v>502400</v>
       </c>
       <c r="E43" s="3">
-        <v>422900</v>
+        <v>409000</v>
       </c>
       <c r="F43" s="3">
-        <v>471800</v>
+        <v>456200</v>
       </c>
       <c r="G43" s="3">
-        <v>345500</v>
+        <v>334200</v>
       </c>
       <c r="H43" s="3">
-        <v>295600</v>
+        <v>285900</v>
       </c>
       <c r="I43" s="3">
-        <v>255100</v>
+        <v>246700</v>
       </c>
       <c r="J43" s="3">
-        <v>227400</v>
+        <v>219900</v>
       </c>
       <c r="K43" s="3">
         <v>186900</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>586100</v>
+        <v>566800</v>
       </c>
       <c r="E44" s="3">
-        <v>537000</v>
+        <v>519300</v>
       </c>
       <c r="F44" s="3">
-        <v>520200</v>
+        <v>503000</v>
       </c>
       <c r="G44" s="3">
-        <v>452100</v>
+        <v>437200</v>
       </c>
       <c r="H44" s="3">
-        <v>356100</v>
+        <v>344400</v>
       </c>
       <c r="I44" s="3">
-        <v>308900</v>
+        <v>298800</v>
       </c>
       <c r="J44" s="3">
-        <v>339000</v>
+        <v>327800</v>
       </c>
       <c r="K44" s="3">
         <v>276600</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>78000</v>
+        <v>75400</v>
       </c>
       <c r="E45" s="3">
-        <v>64400</v>
+        <v>62300</v>
       </c>
       <c r="F45" s="3">
-        <v>40300</v>
+        <v>39000</v>
       </c>
       <c r="G45" s="3">
-        <v>51100</v>
+        <v>49500</v>
       </c>
       <c r="H45" s="3">
-        <v>38900</v>
+        <v>37600</v>
       </c>
       <c r="I45" s="3">
-        <v>27800</v>
+        <v>26900</v>
       </c>
       <c r="J45" s="3">
-        <v>46100</v>
+        <v>44600</v>
       </c>
       <c r="K45" s="3">
         <v>47800</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2542600</v>
+        <v>2458800</v>
       </c>
       <c r="E46" s="3">
-        <v>2187700</v>
+        <v>2115700</v>
       </c>
       <c r="F46" s="3">
-        <v>2124900</v>
+        <v>2054900</v>
       </c>
       <c r="G46" s="3">
-        <v>1796000</v>
+        <v>1736800</v>
       </c>
       <c r="H46" s="3">
-        <v>1559100</v>
+        <v>1507700</v>
       </c>
       <c r="I46" s="3">
-        <v>1370100</v>
+        <v>1325000</v>
       </c>
       <c r="J46" s="3">
-        <v>1501300</v>
+        <v>1451900</v>
       </c>
       <c r="K46" s="3">
         <v>1143300</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>95500</v>
+        <v>92300</v>
       </c>
       <c r="E47" s="3">
-        <v>27400</v>
+        <v>26500</v>
       </c>
       <c r="F47" s="3">
-        <v>29300</v>
+        <v>28300</v>
       </c>
       <c r="G47" s="3">
-        <v>25200</v>
+        <v>24400</v>
       </c>
       <c r="H47" s="3">
-        <v>34500</v>
+        <v>33400</v>
       </c>
       <c r="I47" s="3">
-        <v>35000</v>
+        <v>33800</v>
       </c>
       <c r="J47" s="3">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="K47" s="3">
         <v>34300</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>485400</v>
+        <v>469400</v>
       </c>
       <c r="E48" s="3">
-        <v>421400</v>
+        <v>407500</v>
       </c>
       <c r="F48" s="3">
-        <v>280500</v>
+        <v>271200</v>
       </c>
       <c r="G48" s="3">
-        <v>266300</v>
+        <v>257500</v>
       </c>
       <c r="H48" s="3">
-        <v>272500</v>
+        <v>263600</v>
       </c>
       <c r="I48" s="3">
-        <v>286500</v>
+        <v>277100</v>
       </c>
       <c r="J48" s="3">
-        <v>350600</v>
+        <v>339000</v>
       </c>
       <c r="K48" s="3">
         <v>365700</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>496900</v>
+        <v>480500</v>
       </c>
       <c r="E49" s="3">
-        <v>464800</v>
+        <v>449500</v>
       </c>
       <c r="F49" s="3">
-        <v>237900</v>
+        <v>230100</v>
       </c>
       <c r="G49" s="3">
-        <v>139300</v>
+        <v>134700</v>
       </c>
       <c r="H49" s="3">
-        <v>150100</v>
+        <v>145200</v>
       </c>
       <c r="I49" s="3">
-        <v>152400</v>
+        <v>147400</v>
       </c>
       <c r="J49" s="3">
-        <v>534500</v>
+        <v>516900</v>
       </c>
       <c r="K49" s="3">
         <v>461600</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>230000</v>
+        <v>222400</v>
       </c>
       <c r="E52" s="3">
-        <v>139800</v>
+        <v>135200</v>
       </c>
       <c r="F52" s="3">
-        <v>102100</v>
+        <v>98800</v>
       </c>
       <c r="G52" s="3">
-        <v>92300</v>
+        <v>89200</v>
       </c>
       <c r="H52" s="3">
-        <v>93700</v>
+        <v>90600</v>
       </c>
       <c r="I52" s="3">
-        <v>73200</v>
+        <v>70800</v>
       </c>
       <c r="J52" s="3">
-        <v>80500</v>
+        <v>77800</v>
       </c>
       <c r="K52" s="3">
         <v>100600</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3850300</v>
+        <v>3723500</v>
       </c>
       <c r="E54" s="3">
-        <v>3241100</v>
+        <v>3134400</v>
       </c>
       <c r="F54" s="3">
-        <v>2774700</v>
+        <v>2683300</v>
       </c>
       <c r="G54" s="3">
-        <v>2319000</v>
+        <v>2242700</v>
       </c>
       <c r="H54" s="3">
-        <v>2109900</v>
+        <v>2040400</v>
       </c>
       <c r="I54" s="3">
-        <v>1917200</v>
+        <v>1854100</v>
       </c>
       <c r="J54" s="3">
-        <v>2487400</v>
+        <v>2405500</v>
       </c>
       <c r="K54" s="3">
         <v>2105500</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>367200</v>
+        <v>355100</v>
       </c>
       <c r="E57" s="3">
-        <v>286400</v>
+        <v>276900</v>
       </c>
       <c r="F57" s="3">
-        <v>260100</v>
+        <v>251500</v>
       </c>
       <c r="G57" s="3">
-        <v>285900</v>
+        <v>276400</v>
       </c>
       <c r="H57" s="3">
-        <v>174600</v>
+        <v>168900</v>
       </c>
       <c r="I57" s="3">
-        <v>121200</v>
+        <v>117200</v>
       </c>
       <c r="J57" s="3">
-        <v>164900</v>
+        <v>159500</v>
       </c>
       <c r="K57" s="3">
         <v>113200</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22600</v>
+        <v>21900</v>
       </c>
       <c r="E58" s="3">
-        <v>20700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>8200</v>
+        <v>20000</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
-        <v>272100</v>
+        <v>263200</v>
       </c>
       <c r="H58" s="3">
-        <v>136700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>4400</v>
+        <v>132200</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3">
-        <v>91100</v>
+        <v>88100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>428400</v>
+        <v>414300</v>
       </c>
       <c r="E59" s="3">
-        <v>335500</v>
+        <v>324500</v>
       </c>
       <c r="F59" s="3">
-        <v>304200</v>
+        <v>302200</v>
       </c>
       <c r="G59" s="3">
-        <v>236400</v>
+        <v>228600</v>
       </c>
       <c r="H59" s="3">
-        <v>157300</v>
+        <v>152100</v>
       </c>
       <c r="I59" s="3">
-        <v>142500</v>
+        <v>142100</v>
       </c>
       <c r="J59" s="3">
-        <v>196600</v>
+        <v>190200</v>
       </c>
       <c r="K59" s="3">
         <v>130600</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>818200</v>
+        <v>791200</v>
       </c>
       <c r="E60" s="3">
-        <v>642600</v>
+        <v>621400</v>
       </c>
       <c r="F60" s="3">
-        <v>572500</v>
+        <v>553700</v>
       </c>
       <c r="G60" s="3">
-        <v>794400</v>
+        <v>768200</v>
       </c>
       <c r="H60" s="3">
-        <v>468600</v>
+        <v>453100</v>
       </c>
       <c r="I60" s="3">
-        <v>268100</v>
+        <v>259300</v>
       </c>
       <c r="J60" s="3">
-        <v>452600</v>
+        <v>437700</v>
       </c>
       <c r="K60" s="3">
         <v>243700</v>
@@ -2134,10 +2134,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>85300</v>
+        <v>82500</v>
       </c>
       <c r="E61" s="3">
-        <v>82100</v>
+        <v>79400</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2146,13 +2146,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>271000</v>
+        <v>262100</v>
       </c>
       <c r="I61" s="3">
-        <v>406500</v>
+        <v>393100</v>
       </c>
       <c r="J61" s="3">
-        <v>411000</v>
+        <v>397500</v>
       </c>
       <c r="K61" s="3">
         <v>505200</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>392600</v>
+        <v>379700</v>
       </c>
       <c r="E62" s="3">
-        <v>407900</v>
+        <v>394500</v>
       </c>
       <c r="F62" s="3">
-        <v>391700</v>
+        <v>378800</v>
       </c>
       <c r="G62" s="3">
-        <v>389500</v>
+        <v>376600</v>
       </c>
       <c r="H62" s="3">
-        <v>372700</v>
+        <v>360400</v>
       </c>
       <c r="I62" s="3">
-        <v>389700</v>
+        <v>376900</v>
       </c>
       <c r="J62" s="3">
-        <v>339800</v>
+        <v>328600</v>
       </c>
       <c r="K62" s="3">
         <v>291700</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1296100</v>
+        <v>1253400</v>
       </c>
       <c r="E66" s="3">
-        <v>1132600</v>
+        <v>1095300</v>
       </c>
       <c r="F66" s="3">
-        <v>964300</v>
+        <v>932500</v>
       </c>
       <c r="G66" s="3">
-        <v>1183800</v>
+        <v>1144900</v>
       </c>
       <c r="H66" s="3">
-        <v>1112200</v>
+        <v>1075600</v>
       </c>
       <c r="I66" s="3">
-        <v>1064300</v>
+        <v>1029300</v>
       </c>
       <c r="J66" s="3">
-        <v>1203500</v>
+        <v>1163800</v>
       </c>
       <c r="K66" s="3">
         <v>1040600</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1957400</v>
+        <v>1892900</v>
       </c>
       <c r="E72" s="3">
-        <v>1455800</v>
+        <v>1407900</v>
       </c>
       <c r="F72" s="3">
-        <v>1147200</v>
+        <v>1109400</v>
       </c>
       <c r="G72" s="3">
-        <v>1140600</v>
+        <v>1103000</v>
       </c>
       <c r="H72" s="3">
-        <v>1035600</v>
+        <v>1001500</v>
       </c>
       <c r="I72" s="3">
-        <v>958300</v>
+        <v>926700</v>
       </c>
       <c r="J72" s="3">
-        <v>1285500</v>
+        <v>1243100</v>
       </c>
       <c r="K72" s="3">
         <v>1197600</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2554200</v>
+        <v>2470100</v>
       </c>
       <c r="E76" s="3">
-        <v>2108500</v>
+        <v>2039100</v>
       </c>
       <c r="F76" s="3">
-        <v>1810400</v>
+        <v>1750800</v>
       </c>
       <c r="G76" s="3">
-        <v>1135200</v>
+        <v>1097800</v>
       </c>
       <c r="H76" s="3">
-        <v>997700</v>
+        <v>964800</v>
       </c>
       <c r="I76" s="3">
-        <v>852900</v>
+        <v>824800</v>
       </c>
       <c r="J76" s="3">
-        <v>1283900</v>
+        <v>1241700</v>
       </c>
       <c r="K76" s="3">
         <v>1064900</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>635800</v>
+        <v>614800</v>
       </c>
       <c r="E81" s="3">
-        <v>487700</v>
+        <v>471600</v>
       </c>
       <c r="F81" s="3">
-        <v>519200</v>
+        <v>502100</v>
       </c>
       <c r="G81" s="3">
-        <v>164900</v>
+        <v>159500</v>
       </c>
       <c r="H81" s="3">
-        <v>129400</v>
+        <v>125100</v>
       </c>
       <c r="I81" s="3">
-        <v>61000</v>
+        <v>59000</v>
       </c>
       <c r="J81" s="3">
-        <v>118000</v>
+        <v>114100</v>
       </c>
       <c r="K81" s="3">
         <v>-323500</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>107100</v>
+        <v>103600</v>
       </c>
       <c r="E83" s="3">
-        <v>99200</v>
+        <v>96000</v>
       </c>
       <c r="F83" s="3">
-        <v>45200</v>
+        <v>43800</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H83" s="3">
-        <v>47000</v>
+        <v>45400</v>
       </c>
       <c r="I83" s="3">
-        <v>45200</v>
+        <v>43700</v>
       </c>
       <c r="J83" s="3">
-        <v>46100</v>
+        <v>44600</v>
       </c>
       <c r="K83" s="3">
         <v>75700</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>617900</v>
+        <v>597600</v>
       </c>
       <c r="E89" s="3">
-        <v>605600</v>
+        <v>585600</v>
       </c>
       <c r="F89" s="3">
-        <v>408100</v>
+        <v>394600</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H89" s="3">
-        <v>144200</v>
+        <v>139500</v>
       </c>
       <c r="I89" s="3">
-        <v>70400</v>
+        <v>68100</v>
       </c>
       <c r="J89" s="3">
-        <v>223000</v>
+        <v>215700</v>
       </c>
       <c r="K89" s="3">
         <v>-34600</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-113100</v>
+        <v>-109400</v>
       </c>
       <c r="E91" s="3">
-        <v>-74200</v>
+        <v>-71700</v>
       </c>
       <c r="F91" s="3">
-        <v>-53700</v>
+        <v>-51900</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H91" s="3">
-        <v>-36600</v>
+        <v>-35400</v>
       </c>
       <c r="I91" s="3">
-        <v>-28400</v>
+        <v>-27500</v>
       </c>
       <c r="J91" s="3">
-        <v>-29400</v>
+        <v>-28500</v>
       </c>
       <c r="K91" s="3">
         <v>-50500</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-153300</v>
+        <v>-148300</v>
       </c>
       <c r="E94" s="3">
-        <v>-353600</v>
+        <v>-342000</v>
       </c>
       <c r="F94" s="3">
-        <v>-145000</v>
+        <v>-140200</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H94" s="3">
-        <v>-32100</v>
+        <v>-31000</v>
       </c>
       <c r="I94" s="3">
-        <v>-21800</v>
+        <v>-21100</v>
       </c>
       <c r="J94" s="3">
-        <v>-11900</v>
+        <v>-11500</v>
       </c>
       <c r="K94" s="3">
         <v>-43200</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-142100</v>
+        <v>-137400</v>
       </c>
       <c r="E96" s="3">
-        <v>-149600</v>
+        <v>-144700</v>
       </c>
       <c r="F96" s="3">
-        <v>-125600</v>
+        <v>-121500</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-36600</v>
+        <v>-35400</v>
       </c>
       <c r="I96" s="3">
-        <v>-31800</v>
+        <v>-30700</v>
       </c>
       <c r="J96" s="3">
-        <v>-15900</v>
+        <v>-15300</v>
       </c>
       <c r="K96" s="3">
         <v>-31800</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-277100</v>
+        <v>-268000</v>
       </c>
       <c r="E100" s="3">
-        <v>-163200</v>
+        <v>-157800</v>
       </c>
       <c r="F100" s="3">
-        <v>-125000</v>
+        <v>-120900</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H100" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="I100" s="3">
-        <v>-123300</v>
+        <v>-119200</v>
       </c>
       <c r="J100" s="3">
-        <v>-11800</v>
+        <v>-11400</v>
       </c>
       <c r="K100" s="3">
         <v>249200</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="E101" s="3">
-        <v>-18000</v>
+        <v>-17400</v>
       </c>
       <c r="F101" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H101" s="3">
-        <v>-12900</v>
+        <v>-12500</v>
       </c>
       <c r="I101" s="3">
-        <v>-35900</v>
+        <v>-34800</v>
       </c>
       <c r="J101" s="3">
-        <v>61100</v>
+        <v>59100</v>
       </c>
       <c r="K101" s="3">
         <v>42300</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>195500</v>
+        <v>189100</v>
       </c>
       <c r="E102" s="3">
-        <v>70700</v>
+        <v>68400</v>
       </c>
       <c r="F102" s="3">
-        <v>145500</v>
+        <v>140700</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H102" s="3">
-        <v>90100</v>
+        <v>87200</v>
       </c>
       <c r="I102" s="3">
-        <v>-110600</v>
+        <v>-107000</v>
       </c>
       <c r="J102" s="3">
-        <v>260300</v>
+        <v>251800</v>
       </c>
       <c r="K102" s="3">
         <v>213700</v>

--- a/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2755700</v>
+        <v>2668100</v>
       </c>
       <c r="E8" s="3">
-        <v>2430600</v>
+        <v>2353400</v>
       </c>
       <c r="F8" s="3">
-        <v>2488400</v>
+        <v>2409300</v>
       </c>
       <c r="G8" s="3">
-        <v>1825600</v>
+        <v>1767600</v>
       </c>
       <c r="H8" s="3">
-        <v>1373600</v>
+        <v>1330000</v>
       </c>
       <c r="I8" s="3">
-        <v>1428200</v>
+        <v>1382800</v>
       </c>
       <c r="J8" s="3">
-        <v>1438900</v>
+        <v>1393200</v>
       </c>
       <c r="K8" s="3">
         <v>1024800</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1273000</v>
+        <v>1232600</v>
       </c>
       <c r="E9" s="3">
-        <v>1051900</v>
+        <v>1018500</v>
       </c>
       <c r="F9" s="3">
-        <v>1131400</v>
+        <v>1095400</v>
       </c>
       <c r="G9" s="3">
-        <v>886600</v>
+        <v>858400</v>
       </c>
       <c r="H9" s="3">
-        <v>583000</v>
+        <v>564500</v>
       </c>
       <c r="I9" s="3">
-        <v>622300</v>
+        <v>602500</v>
       </c>
       <c r="J9" s="3">
-        <v>642300</v>
+        <v>621900</v>
       </c>
       <c r="K9" s="3">
         <v>572900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1482600</v>
+        <v>1435500</v>
       </c>
       <c r="E10" s="3">
-        <v>1378700</v>
+        <v>1334900</v>
       </c>
       <c r="F10" s="3">
-        <v>1357100</v>
+        <v>1314000</v>
       </c>
       <c r="G10" s="3">
-        <v>939000</v>
+        <v>909200</v>
       </c>
       <c r="H10" s="3">
-        <v>790600</v>
+        <v>765500</v>
       </c>
       <c r="I10" s="3">
-        <v>805900</v>
+        <v>780300</v>
       </c>
       <c r="J10" s="3">
-        <v>796700</v>
+        <v>771300</v>
       </c>
       <c r="K10" s="3">
         <v>451900</v>
@@ -836,7 +836,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>263200</v>
+        <v>254800</v>
       </c>
       <c r="K12" s="3">
         <v>299300</v>
@@ -896,7 +896,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K14" s="3">
         <v>119700</v>
@@ -908,22 +908,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>86100</v>
+        <v>83400</v>
       </c>
       <c r="E15" s="3">
-        <v>67800</v>
+        <v>65600</v>
       </c>
       <c r="F15" s="3">
-        <v>34100</v>
+        <v>33000</v>
       </c>
       <c r="G15" s="3">
-        <v>36100</v>
+        <v>35000</v>
       </c>
       <c r="H15" s="3">
-        <v>34200</v>
+        <v>33100</v>
       </c>
       <c r="I15" s="3">
-        <v>30300</v>
+        <v>29400</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2132600</v>
+        <v>2064800</v>
       </c>
       <c r="E17" s="3">
-        <v>1913400</v>
+        <v>1852600</v>
       </c>
       <c r="F17" s="3">
-        <v>1918800</v>
+        <v>1857800</v>
       </c>
       <c r="G17" s="3">
-        <v>1609900</v>
+        <v>1558700</v>
       </c>
       <c r="H17" s="3">
-        <v>1251100</v>
+        <v>1211400</v>
       </c>
       <c r="I17" s="3">
-        <v>1317200</v>
+        <v>1275400</v>
       </c>
       <c r="J17" s="3">
-        <v>1310100</v>
+        <v>1268500</v>
       </c>
       <c r="K17" s="3">
         <v>1355900</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>623100</v>
+        <v>603300</v>
       </c>
       <c r="E18" s="3">
-        <v>517200</v>
+        <v>500800</v>
       </c>
       <c r="F18" s="3">
-        <v>569700</v>
+        <v>551600</v>
       </c>
       <c r="G18" s="3">
-        <v>215700</v>
+        <v>208900</v>
       </c>
       <c r="H18" s="3">
-        <v>122500</v>
+        <v>118600</v>
       </c>
       <c r="I18" s="3">
-        <v>111000</v>
+        <v>107500</v>
       </c>
       <c r="J18" s="3">
-        <v>128800</v>
+        <v>124700</v>
       </c>
       <c r="K18" s="3">
         <v>-331100</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8200</v>
+        <v>-7900</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="G20" s="3">
         <v>-500</v>
       </c>
       <c r="H20" s="3">
-        <v>11800</v>
+        <v>11400</v>
       </c>
       <c r="I20" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="J20" s="3">
-        <v>38600</v>
+        <v>37300</v>
       </c>
       <c r="K20" s="3">
         <v>9200</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>718700</v>
+        <v>696800</v>
       </c>
       <c r="E21" s="3">
-        <v>613600</v>
+        <v>595000</v>
       </c>
       <c r="F21" s="3">
-        <v>627900</v>
+        <v>608300</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="3">
-        <v>179800</v>
+        <v>174500</v>
       </c>
       <c r="I21" s="3">
-        <v>149400</v>
+        <v>145100</v>
       </c>
       <c r="J21" s="3">
-        <v>212000</v>
+        <v>205700</v>
       </c>
       <c r="K21" s="3">
         <v>-245800</v>
@@ -1086,19 +1086,19 @@
         <v>1600</v>
       </c>
       <c r="E22" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F22" s="3">
         <v>700</v>
       </c>
       <c r="G22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H22" s="3">
         <v>1900</v>
       </c>
       <c r="I22" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J22" s="3">
         <v>1200</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>613300</v>
+        <v>593800</v>
       </c>
       <c r="E23" s="3">
-        <v>516000</v>
+        <v>499600</v>
       </c>
       <c r="F23" s="3">
-        <v>583300</v>
+        <v>564800</v>
       </c>
       <c r="G23" s="3">
-        <v>213900</v>
+        <v>207100</v>
       </c>
       <c r="H23" s="3">
-        <v>132300</v>
+        <v>128100</v>
       </c>
       <c r="I23" s="3">
-        <v>103700</v>
+        <v>100400</v>
       </c>
       <c r="J23" s="3">
-        <v>166100</v>
+        <v>160900</v>
       </c>
       <c r="K23" s="3">
         <v>-323100</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="E24" s="3">
-        <v>44400</v>
+        <v>43000</v>
       </c>
       <c r="F24" s="3">
-        <v>81200</v>
+        <v>78600</v>
       </c>
       <c r="G24" s="3">
-        <v>54400</v>
+        <v>52700</v>
       </c>
       <c r="H24" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="I24" s="3">
-        <v>44700</v>
+        <v>43300</v>
       </c>
       <c r="J24" s="3">
-        <v>52100</v>
+        <v>50400</v>
       </c>
       <c r="K24" s="3">
         <v>600</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>614800</v>
+        <v>595300</v>
       </c>
       <c r="E26" s="3">
-        <v>471600</v>
+        <v>456600</v>
       </c>
       <c r="F26" s="3">
-        <v>502100</v>
+        <v>486200</v>
       </c>
       <c r="G26" s="3">
-        <v>159500</v>
+        <v>154400</v>
       </c>
       <c r="H26" s="3">
-        <v>125100</v>
+        <v>121100</v>
       </c>
       <c r="I26" s="3">
-        <v>59000</v>
+        <v>57100</v>
       </c>
       <c r="J26" s="3">
-        <v>114100</v>
+        <v>110400</v>
       </c>
       <c r="K26" s="3">
         <v>-323700</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>614800</v>
+        <v>595300</v>
       </c>
       <c r="E27" s="3">
-        <v>471600</v>
+        <v>456600</v>
       </c>
       <c r="F27" s="3">
-        <v>502100</v>
+        <v>486200</v>
       </c>
       <c r="G27" s="3">
-        <v>159500</v>
+        <v>154400</v>
       </c>
       <c r="H27" s="3">
-        <v>125100</v>
+        <v>121100</v>
       </c>
       <c r="I27" s="3">
-        <v>59000</v>
+        <v>57100</v>
       </c>
       <c r="J27" s="3">
-        <v>114100</v>
+        <v>110400</v>
       </c>
       <c r="K27" s="3">
         <v>-323500</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>-14300</v>
+        <v>-13900</v>
       </c>
       <c r="G32" s="3">
         <v>500</v>
       </c>
       <c r="H32" s="3">
-        <v>-11800</v>
+        <v>-11400</v>
       </c>
       <c r="I32" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="J32" s="3">
-        <v>-38600</v>
+        <v>-37300</v>
       </c>
       <c r="K32" s="3">
         <v>-9200</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>614800</v>
+        <v>595300</v>
       </c>
       <c r="E33" s="3">
-        <v>471600</v>
+        <v>456600</v>
       </c>
       <c r="F33" s="3">
-        <v>502100</v>
+        <v>486200</v>
       </c>
       <c r="G33" s="3">
-        <v>159500</v>
+        <v>154400</v>
       </c>
       <c r="H33" s="3">
-        <v>125100</v>
+        <v>121100</v>
       </c>
       <c r="I33" s="3">
-        <v>59000</v>
+        <v>57100</v>
       </c>
       <c r="J33" s="3">
-        <v>114100</v>
+        <v>110400</v>
       </c>
       <c r="K33" s="3">
         <v>-323500</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>614800</v>
+        <v>595300</v>
       </c>
       <c r="E35" s="3">
-        <v>471600</v>
+        <v>456600</v>
       </c>
       <c r="F35" s="3">
-        <v>502100</v>
+        <v>486200</v>
       </c>
       <c r="G35" s="3">
-        <v>159500</v>
+        <v>154400</v>
       </c>
       <c r="H35" s="3">
-        <v>125100</v>
+        <v>121100</v>
       </c>
       <c r="I35" s="3">
-        <v>59000</v>
+        <v>57100</v>
       </c>
       <c r="J35" s="3">
-        <v>114100</v>
+        <v>110400</v>
       </c>
       <c r="K35" s="3">
         <v>-323500</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1314100</v>
+        <v>1272400</v>
       </c>
       <c r="E41" s="3">
-        <v>1125100</v>
+        <v>1089300</v>
       </c>
       <c r="F41" s="3">
-        <v>1056700</v>
+        <v>1023100</v>
       </c>
       <c r="G41" s="3">
-        <v>916000</v>
+        <v>886900</v>
       </c>
       <c r="H41" s="3">
-        <v>839800</v>
+        <v>813100</v>
       </c>
       <c r="I41" s="3">
-        <v>752600</v>
+        <v>728700</v>
       </c>
       <c r="J41" s="3">
-        <v>859600</v>
+        <v>832300</v>
       </c>
       <c r="K41" s="3">
         <v>632000</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>502400</v>
+        <v>486400</v>
       </c>
       <c r="E43" s="3">
-        <v>409000</v>
+        <v>396000</v>
       </c>
       <c r="F43" s="3">
-        <v>456200</v>
+        <v>441700</v>
       </c>
       <c r="G43" s="3">
-        <v>334200</v>
+        <v>323500</v>
       </c>
       <c r="H43" s="3">
-        <v>285900</v>
+        <v>276800</v>
       </c>
       <c r="I43" s="3">
-        <v>246700</v>
+        <v>238900</v>
       </c>
       <c r="J43" s="3">
-        <v>219900</v>
+        <v>212900</v>
       </c>
       <c r="K43" s="3">
         <v>186900</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>566800</v>
+        <v>548800</v>
       </c>
       <c r="E44" s="3">
-        <v>519300</v>
+        <v>502800</v>
       </c>
       <c r="F44" s="3">
-        <v>503000</v>
+        <v>487100</v>
       </c>
       <c r="G44" s="3">
-        <v>437200</v>
+        <v>423300</v>
       </c>
       <c r="H44" s="3">
-        <v>344400</v>
+        <v>333500</v>
       </c>
       <c r="I44" s="3">
-        <v>298800</v>
+        <v>289300</v>
       </c>
       <c r="J44" s="3">
-        <v>327800</v>
+        <v>317400</v>
       </c>
       <c r="K44" s="3">
         <v>276600</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>75400</v>
+        <v>73000</v>
       </c>
       <c r="E45" s="3">
-        <v>62300</v>
+        <v>60300</v>
       </c>
       <c r="F45" s="3">
-        <v>39000</v>
+        <v>37700</v>
       </c>
       <c r="G45" s="3">
-        <v>49500</v>
+        <v>47900</v>
       </c>
       <c r="H45" s="3">
-        <v>37600</v>
+        <v>36400</v>
       </c>
       <c r="I45" s="3">
-        <v>26900</v>
+        <v>26000</v>
       </c>
       <c r="J45" s="3">
-        <v>44600</v>
+        <v>43100</v>
       </c>
       <c r="K45" s="3">
         <v>47800</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2458800</v>
+        <v>2380700</v>
       </c>
       <c r="E46" s="3">
-        <v>2115700</v>
+        <v>2048400</v>
       </c>
       <c r="F46" s="3">
-        <v>2054900</v>
+        <v>1989600</v>
       </c>
       <c r="G46" s="3">
-        <v>1736800</v>
+        <v>1681600</v>
       </c>
       <c r="H46" s="3">
-        <v>1507700</v>
+        <v>1459800</v>
       </c>
       <c r="I46" s="3">
-        <v>1325000</v>
+        <v>1282900</v>
       </c>
       <c r="J46" s="3">
-        <v>1451900</v>
+        <v>1405800</v>
       </c>
       <c r="K46" s="3">
         <v>1143300</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>92300</v>
+        <v>89400</v>
       </c>
       <c r="E47" s="3">
-        <v>26500</v>
+        <v>25600</v>
       </c>
       <c r="F47" s="3">
-        <v>28300</v>
+        <v>27400</v>
       </c>
       <c r="G47" s="3">
-        <v>24400</v>
+        <v>23600</v>
       </c>
       <c r="H47" s="3">
-        <v>33400</v>
+        <v>32300</v>
       </c>
       <c r="I47" s="3">
-        <v>33800</v>
+        <v>32800</v>
       </c>
       <c r="J47" s="3">
-        <v>19800</v>
+        <v>19200</v>
       </c>
       <c r="K47" s="3">
         <v>34300</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>469400</v>
+        <v>454500</v>
       </c>
       <c r="E48" s="3">
-        <v>407500</v>
+        <v>394600</v>
       </c>
       <c r="F48" s="3">
-        <v>271200</v>
+        <v>262600</v>
       </c>
       <c r="G48" s="3">
-        <v>257500</v>
+        <v>249300</v>
       </c>
       <c r="H48" s="3">
-        <v>263600</v>
+        <v>255200</v>
       </c>
       <c r="I48" s="3">
-        <v>277100</v>
+        <v>268300</v>
       </c>
       <c r="J48" s="3">
-        <v>339000</v>
+        <v>328200</v>
       </c>
       <c r="K48" s="3">
         <v>365700</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>480500</v>
+        <v>465300</v>
       </c>
       <c r="E49" s="3">
-        <v>449500</v>
+        <v>435200</v>
       </c>
       <c r="F49" s="3">
-        <v>230100</v>
+        <v>222800</v>
       </c>
       <c r="G49" s="3">
-        <v>134700</v>
+        <v>130400</v>
       </c>
       <c r="H49" s="3">
-        <v>145200</v>
+        <v>140600</v>
       </c>
       <c r="I49" s="3">
-        <v>147400</v>
+        <v>142700</v>
       </c>
       <c r="J49" s="3">
-        <v>516900</v>
+        <v>500500</v>
       </c>
       <c r="K49" s="3">
         <v>461600</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>222400</v>
+        <v>215300</v>
       </c>
       <c r="E52" s="3">
-        <v>135200</v>
+        <v>130900</v>
       </c>
       <c r="F52" s="3">
-        <v>98800</v>
+        <v>95600</v>
       </c>
       <c r="G52" s="3">
-        <v>89200</v>
+        <v>86400</v>
       </c>
       <c r="H52" s="3">
-        <v>90600</v>
+        <v>87700</v>
       </c>
       <c r="I52" s="3">
-        <v>70800</v>
+        <v>68600</v>
       </c>
       <c r="J52" s="3">
-        <v>77800</v>
+        <v>75400</v>
       </c>
       <c r="K52" s="3">
         <v>100600</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3723500</v>
+        <v>3605100</v>
       </c>
       <c r="E54" s="3">
-        <v>3134400</v>
+        <v>3034800</v>
       </c>
       <c r="F54" s="3">
-        <v>2683300</v>
+        <v>2598100</v>
       </c>
       <c r="G54" s="3">
-        <v>2242700</v>
+        <v>2171400</v>
       </c>
       <c r="H54" s="3">
-        <v>2040400</v>
+        <v>1975600</v>
       </c>
       <c r="I54" s="3">
-        <v>1854100</v>
+        <v>1795100</v>
       </c>
       <c r="J54" s="3">
-        <v>2405500</v>
+        <v>2329000</v>
       </c>
       <c r="K54" s="3">
         <v>2105500</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>355100</v>
+        <v>343800</v>
       </c>
       <c r="E57" s="3">
-        <v>276900</v>
+        <v>268100</v>
       </c>
       <c r="F57" s="3">
-        <v>251500</v>
+        <v>243500</v>
       </c>
       <c r="G57" s="3">
-        <v>276400</v>
+        <v>267700</v>
       </c>
       <c r="H57" s="3">
-        <v>168900</v>
+        <v>163500</v>
       </c>
       <c r="I57" s="3">
-        <v>117200</v>
+        <v>113500</v>
       </c>
       <c r="J57" s="3">
-        <v>159500</v>
+        <v>154400</v>
       </c>
       <c r="K57" s="3">
         <v>113200</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21900</v>
+        <v>21200</v>
       </c>
       <c r="E58" s="3">
-        <v>20000</v>
+        <v>19400</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="3">
-        <v>263200</v>
+        <v>254800</v>
       </c>
       <c r="H58" s="3">
-        <v>132200</v>
+        <v>127900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J58" s="3">
-        <v>88100</v>
+        <v>85300</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>414300</v>
+        <v>401100</v>
       </c>
       <c r="E59" s="3">
-        <v>324500</v>
+        <v>314100</v>
       </c>
       <c r="F59" s="3">
-        <v>302200</v>
+        <v>292600</v>
       </c>
       <c r="G59" s="3">
-        <v>228600</v>
+        <v>221300</v>
       </c>
       <c r="H59" s="3">
-        <v>152100</v>
+        <v>147300</v>
       </c>
       <c r="I59" s="3">
-        <v>142100</v>
+        <v>137600</v>
       </c>
       <c r="J59" s="3">
-        <v>190200</v>
+        <v>184100</v>
       </c>
       <c r="K59" s="3">
         <v>130600</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>791200</v>
+        <v>766100</v>
       </c>
       <c r="E60" s="3">
-        <v>621400</v>
+        <v>601700</v>
       </c>
       <c r="F60" s="3">
-        <v>553700</v>
+        <v>536100</v>
       </c>
       <c r="G60" s="3">
-        <v>768200</v>
+        <v>743800</v>
       </c>
       <c r="H60" s="3">
-        <v>453100</v>
+        <v>438700</v>
       </c>
       <c r="I60" s="3">
-        <v>259300</v>
+        <v>251100</v>
       </c>
       <c r="J60" s="3">
-        <v>437700</v>
+        <v>423800</v>
       </c>
       <c r="K60" s="3">
         <v>243700</v>
@@ -2134,10 +2134,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>82500</v>
+        <v>79900</v>
       </c>
       <c r="E61" s="3">
-        <v>79400</v>
+        <v>76900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2146,13 +2146,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>262100</v>
+        <v>253700</v>
       </c>
       <c r="I61" s="3">
-        <v>393100</v>
+        <v>380600</v>
       </c>
       <c r="J61" s="3">
-        <v>397500</v>
+        <v>384900</v>
       </c>
       <c r="K61" s="3">
         <v>505200</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>379700</v>
+        <v>367600</v>
       </c>
       <c r="E62" s="3">
-        <v>394500</v>
+        <v>381900</v>
       </c>
       <c r="F62" s="3">
-        <v>378800</v>
+        <v>366800</v>
       </c>
       <c r="G62" s="3">
-        <v>376600</v>
+        <v>364700</v>
       </c>
       <c r="H62" s="3">
-        <v>360400</v>
+        <v>348900</v>
       </c>
       <c r="I62" s="3">
-        <v>376900</v>
+        <v>364900</v>
       </c>
       <c r="J62" s="3">
-        <v>328600</v>
+        <v>318200</v>
       </c>
       <c r="K62" s="3">
         <v>291700</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1253400</v>
+        <v>1213600</v>
       </c>
       <c r="E66" s="3">
-        <v>1095300</v>
+        <v>1060500</v>
       </c>
       <c r="F66" s="3">
-        <v>932500</v>
+        <v>902900</v>
       </c>
       <c r="G66" s="3">
-        <v>1144900</v>
+        <v>1108500</v>
       </c>
       <c r="H66" s="3">
-        <v>1075600</v>
+        <v>1041400</v>
       </c>
       <c r="I66" s="3">
-        <v>1029300</v>
+        <v>996600</v>
       </c>
       <c r="J66" s="3">
-        <v>1163800</v>
+        <v>1126800</v>
       </c>
       <c r="K66" s="3">
         <v>1040600</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1892900</v>
+        <v>1832700</v>
       </c>
       <c r="E72" s="3">
-        <v>1407900</v>
+        <v>1363100</v>
       </c>
       <c r="F72" s="3">
-        <v>1109400</v>
+        <v>1074200</v>
       </c>
       <c r="G72" s="3">
-        <v>1103000</v>
+        <v>1068000</v>
       </c>
       <c r="H72" s="3">
-        <v>1001500</v>
+        <v>969700</v>
       </c>
       <c r="I72" s="3">
-        <v>926700</v>
+        <v>897300</v>
       </c>
       <c r="J72" s="3">
-        <v>1243100</v>
+        <v>1203600</v>
       </c>
       <c r="K72" s="3">
         <v>1197600</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2470100</v>
+        <v>2391500</v>
       </c>
       <c r="E76" s="3">
-        <v>2039100</v>
+        <v>1974300</v>
       </c>
       <c r="F76" s="3">
-        <v>1750800</v>
+        <v>1695200</v>
       </c>
       <c r="G76" s="3">
-        <v>1097800</v>
+        <v>1062900</v>
       </c>
       <c r="H76" s="3">
-        <v>964800</v>
+        <v>934200</v>
       </c>
       <c r="I76" s="3">
-        <v>824800</v>
+        <v>798600</v>
       </c>
       <c r="J76" s="3">
-        <v>1241700</v>
+        <v>1202200</v>
       </c>
       <c r="K76" s="3">
         <v>1064900</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>614800</v>
+        <v>595300</v>
       </c>
       <c r="E81" s="3">
-        <v>471600</v>
+        <v>456600</v>
       </c>
       <c r="F81" s="3">
-        <v>502100</v>
+        <v>486200</v>
       </c>
       <c r="G81" s="3">
-        <v>159500</v>
+        <v>154400</v>
       </c>
       <c r="H81" s="3">
-        <v>125100</v>
+        <v>121100</v>
       </c>
       <c r="I81" s="3">
-        <v>59000</v>
+        <v>57100</v>
       </c>
       <c r="J81" s="3">
-        <v>114100</v>
+        <v>110400</v>
       </c>
       <c r="K81" s="3">
         <v>-323500</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>103600</v>
+        <v>100300</v>
       </c>
       <c r="E83" s="3">
-        <v>96000</v>
+        <v>92900</v>
       </c>
       <c r="F83" s="3">
-        <v>43800</v>
+        <v>42400</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H83" s="3">
-        <v>45400</v>
+        <v>44000</v>
       </c>
       <c r="I83" s="3">
-        <v>43700</v>
+        <v>42400</v>
       </c>
       <c r="J83" s="3">
-        <v>44600</v>
+        <v>43200</v>
       </c>
       <c r="K83" s="3">
         <v>75700</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>597600</v>
+        <v>578600</v>
       </c>
       <c r="E89" s="3">
-        <v>585600</v>
+        <v>567000</v>
       </c>
       <c r="F89" s="3">
-        <v>394600</v>
+        <v>382100</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H89" s="3">
-        <v>139500</v>
+        <v>135100</v>
       </c>
       <c r="I89" s="3">
-        <v>68100</v>
+        <v>65900</v>
       </c>
       <c r="J89" s="3">
-        <v>215700</v>
+        <v>208800</v>
       </c>
       <c r="K89" s="3">
         <v>-34600</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-109400</v>
+        <v>-105900</v>
       </c>
       <c r="E91" s="3">
-        <v>-71700</v>
+        <v>-69400</v>
       </c>
       <c r="F91" s="3">
-        <v>-51900</v>
+        <v>-50300</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H91" s="3">
-        <v>-35400</v>
+        <v>-34300</v>
       </c>
       <c r="I91" s="3">
-        <v>-27500</v>
+        <v>-26600</v>
       </c>
       <c r="J91" s="3">
-        <v>-28500</v>
+        <v>-27600</v>
       </c>
       <c r="K91" s="3">
         <v>-50500</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-148300</v>
+        <v>-143600</v>
       </c>
       <c r="E94" s="3">
-        <v>-342000</v>
+        <v>-331100</v>
       </c>
       <c r="F94" s="3">
-        <v>-140200</v>
+        <v>-135800</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H94" s="3">
-        <v>-31000</v>
+        <v>-30000</v>
       </c>
       <c r="I94" s="3">
-        <v>-21100</v>
+        <v>-20400</v>
       </c>
       <c r="J94" s="3">
-        <v>-11500</v>
+        <v>-11200</v>
       </c>
       <c r="K94" s="3">
         <v>-43200</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-137400</v>
+        <v>-133000</v>
       </c>
       <c r="E96" s="3">
-        <v>-144700</v>
+        <v>-140100</v>
       </c>
       <c r="F96" s="3">
-        <v>-121500</v>
+        <v>-117600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-35400</v>
+        <v>-34300</v>
       </c>
       <c r="I96" s="3">
-        <v>-30700</v>
+        <v>-29800</v>
       </c>
       <c r="J96" s="3">
-        <v>-15300</v>
+        <v>-14900</v>
       </c>
       <c r="K96" s="3">
         <v>-31800</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-268000</v>
+        <v>-259400</v>
       </c>
       <c r="E100" s="3">
-        <v>-157800</v>
+        <v>-152800</v>
       </c>
       <c r="F100" s="3">
-        <v>-120900</v>
+        <v>-117100</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H100" s="3">
-        <v>-8800</v>
+        <v>-8500</v>
       </c>
       <c r="I100" s="3">
-        <v>-119200</v>
+        <v>-115400</v>
       </c>
       <c r="J100" s="3">
-        <v>-11400</v>
+        <v>-11100</v>
       </c>
       <c r="K100" s="3">
         <v>249200</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="E101" s="3">
-        <v>-17400</v>
+        <v>-16900</v>
       </c>
       <c r="F101" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H101" s="3">
-        <v>-12500</v>
+        <v>-12100</v>
       </c>
       <c r="I101" s="3">
-        <v>-34800</v>
+        <v>-33700</v>
       </c>
       <c r="J101" s="3">
-        <v>59100</v>
+        <v>57200</v>
       </c>
       <c r="K101" s="3">
         <v>42300</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>189100</v>
+        <v>183100</v>
       </c>
       <c r="E102" s="3">
-        <v>68400</v>
+        <v>66200</v>
       </c>
       <c r="F102" s="3">
-        <v>140700</v>
+        <v>136200</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H102" s="3">
-        <v>87200</v>
+        <v>84400</v>
       </c>
       <c r="I102" s="3">
-        <v>-107000</v>
+        <v>-103600</v>
       </c>
       <c r="J102" s="3">
-        <v>251800</v>
+        <v>243800</v>
       </c>
       <c r="K102" s="3">
         <v>213700</v>

--- a/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>ATEYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2668100</v>
+        <v>3247700</v>
       </c>
       <c r="E8" s="3">
-        <v>2353400</v>
+        <v>2436600</v>
       </c>
       <c r="F8" s="3">
-        <v>2409300</v>
+        <v>2149200</v>
       </c>
       <c r="G8" s="3">
-        <v>1767600</v>
+        <v>2200300</v>
       </c>
       <c r="H8" s="3">
-        <v>1330000</v>
+        <v>1614300</v>
       </c>
       <c r="I8" s="3">
-        <v>1382800</v>
+        <v>1214600</v>
       </c>
       <c r="J8" s="3">
+        <v>1262800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1393200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1024800</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1232600</v>
+        <v>1409900</v>
       </c>
       <c r="E9" s="3">
-        <v>1018500</v>
+        <v>1125600</v>
       </c>
       <c r="F9" s="3">
-        <v>1095400</v>
+        <v>930100</v>
       </c>
       <c r="G9" s="3">
-        <v>858400</v>
+        <v>1000400</v>
       </c>
       <c r="H9" s="3">
-        <v>564500</v>
+        <v>783900</v>
       </c>
       <c r="I9" s="3">
-        <v>602500</v>
+        <v>515500</v>
       </c>
       <c r="J9" s="3">
+        <v>550300</v>
+      </c>
+      <c r="K9" s="3">
         <v>621900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>572900</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1435500</v>
+        <v>1837700</v>
       </c>
       <c r="E10" s="3">
-        <v>1334900</v>
+        <v>1311000</v>
       </c>
       <c r="F10" s="3">
-        <v>1314000</v>
+        <v>1219100</v>
       </c>
       <c r="G10" s="3">
-        <v>909200</v>
+        <v>1200000</v>
       </c>
       <c r="H10" s="3">
-        <v>765500</v>
+        <v>830300</v>
       </c>
       <c r="I10" s="3">
-        <v>780300</v>
+        <v>699100</v>
       </c>
       <c r="J10" s="3">
+        <v>712600</v>
+      </c>
+      <c r="K10" s="3">
         <v>771300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>451900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,15 +848,18 @@
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3">
         <v>254800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>299300</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>119700</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>83400</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>65600</v>
+        <v>76100</v>
       </c>
       <c r="F15" s="3">
-        <v>33000</v>
+        <v>60000</v>
       </c>
       <c r="G15" s="3">
-        <v>35000</v>
+        <v>30200</v>
       </c>
       <c r="H15" s="3">
-        <v>33100</v>
+        <v>31900</v>
       </c>
       <c r="I15" s="3">
-        <v>29400</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+        <v>30300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>26800</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2064800</v>
+        <v>2353900</v>
       </c>
       <c r="E17" s="3">
-        <v>1852600</v>
+        <v>1885700</v>
       </c>
       <c r="F17" s="3">
-        <v>1857800</v>
+        <v>1691900</v>
       </c>
       <c r="G17" s="3">
-        <v>1558700</v>
+        <v>1696600</v>
       </c>
       <c r="H17" s="3">
-        <v>1211400</v>
+        <v>1423500</v>
       </c>
       <c r="I17" s="3">
-        <v>1275400</v>
+        <v>1106300</v>
       </c>
       <c r="J17" s="3">
+        <v>1164700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1268500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1355900</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>603300</v>
+        <v>893800</v>
       </c>
       <c r="E18" s="3">
-        <v>500800</v>
+        <v>551000</v>
       </c>
       <c r="F18" s="3">
-        <v>551600</v>
+        <v>457300</v>
       </c>
       <c r="G18" s="3">
-        <v>208900</v>
+        <v>503700</v>
       </c>
       <c r="H18" s="3">
-        <v>118600</v>
+        <v>190800</v>
       </c>
       <c r="I18" s="3">
-        <v>107500</v>
+        <v>108300</v>
       </c>
       <c r="J18" s="3">
+        <v>98100</v>
+      </c>
+      <c r="K18" s="3">
         <v>124700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-331100</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7900</v>
+        <v>12500</v>
       </c>
       <c r="E20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>13900</v>
-      </c>
       <c r="G20" s="3">
+        <v>12700</v>
+      </c>
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
-        <v>11400</v>
-      </c>
       <c r="I20" s="3">
-        <v>-5200</v>
+        <v>10400</v>
       </c>
       <c r="J20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K20" s="3">
         <v>37300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9200</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>696800</v>
+        <v>1021400</v>
       </c>
       <c r="E21" s="3">
-        <v>595000</v>
+        <v>634100</v>
       </c>
       <c r="F21" s="3">
-        <v>608300</v>
-      </c>
-      <c r="G21" s="3" t="s">
+        <v>541300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>554600</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
-        <v>174500</v>
-      </c>
       <c r="I21" s="3">
-        <v>145100</v>
+        <v>158400</v>
       </c>
       <c r="J21" s="3">
+        <v>131500</v>
+      </c>
+      <c r="K21" s="3">
         <v>205700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-245800</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>1600</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
-        <v>700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>593800</v>
+        <v>906300</v>
       </c>
       <c r="E23" s="3">
-        <v>499600</v>
+        <v>542300</v>
       </c>
       <c r="F23" s="3">
-        <v>564800</v>
+        <v>456300</v>
       </c>
       <c r="G23" s="3">
-        <v>207100</v>
+        <v>515800</v>
       </c>
       <c r="H23" s="3">
-        <v>128100</v>
+        <v>189200</v>
       </c>
       <c r="I23" s="3">
-        <v>100400</v>
+        <v>117000</v>
       </c>
       <c r="J23" s="3">
+        <v>91700</v>
+      </c>
+      <c r="K23" s="3">
         <v>160900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-323100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1400</v>
+        <v>226200</v>
       </c>
       <c r="E24" s="3">
-        <v>43000</v>
+        <v>-1300</v>
       </c>
       <c r="F24" s="3">
-        <v>78600</v>
+        <v>39300</v>
       </c>
       <c r="G24" s="3">
-        <v>52700</v>
+        <v>71800</v>
       </c>
       <c r="H24" s="3">
-        <v>7000</v>
+        <v>48100</v>
       </c>
       <c r="I24" s="3">
-        <v>43300</v>
+        <v>6400</v>
       </c>
       <c r="J24" s="3">
+        <v>39500</v>
+      </c>
+      <c r="K24" s="3">
         <v>50400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>595300</v>
+        <v>680100</v>
       </c>
       <c r="E26" s="3">
-        <v>456600</v>
+        <v>543600</v>
       </c>
       <c r="F26" s="3">
-        <v>486200</v>
+        <v>417000</v>
       </c>
       <c r="G26" s="3">
-        <v>154400</v>
+        <v>444000</v>
       </c>
       <c r="H26" s="3">
-        <v>121100</v>
+        <v>141000</v>
       </c>
       <c r="I26" s="3">
-        <v>57100</v>
+        <v>110600</v>
       </c>
       <c r="J26" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K26" s="3">
         <v>110400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-323700</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>595300</v>
+        <v>680100</v>
       </c>
       <c r="E27" s="3">
-        <v>456600</v>
+        <v>543600</v>
       </c>
       <c r="F27" s="3">
-        <v>486200</v>
+        <v>417000</v>
       </c>
       <c r="G27" s="3">
-        <v>154400</v>
+        <v>444000</v>
       </c>
       <c r="H27" s="3">
-        <v>121100</v>
+        <v>141000</v>
       </c>
       <c r="I27" s="3">
-        <v>57100</v>
+        <v>110600</v>
       </c>
       <c r="J27" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K27" s="3">
         <v>110400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-323500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7900</v>
+        <v>-12500</v>
       </c>
       <c r="E32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-13900</v>
-      </c>
       <c r="G32" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
-        <v>-11400</v>
-      </c>
       <c r="I32" s="3">
-        <v>5200</v>
+        <v>-10400</v>
       </c>
       <c r="J32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-37300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9200</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>595300</v>
+        <v>680100</v>
       </c>
       <c r="E33" s="3">
-        <v>456600</v>
+        <v>543600</v>
       </c>
       <c r="F33" s="3">
-        <v>486200</v>
+        <v>417000</v>
       </c>
       <c r="G33" s="3">
-        <v>154400</v>
+        <v>444000</v>
       </c>
       <c r="H33" s="3">
-        <v>121100</v>
+        <v>141000</v>
       </c>
       <c r="I33" s="3">
-        <v>57100</v>
+        <v>110600</v>
       </c>
       <c r="J33" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K33" s="3">
         <v>110400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-323500</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>595300</v>
+        <v>680100</v>
       </c>
       <c r="E35" s="3">
-        <v>456600</v>
+        <v>543600</v>
       </c>
       <c r="F35" s="3">
-        <v>486200</v>
+        <v>417000</v>
       </c>
       <c r="G35" s="3">
-        <v>154400</v>
+        <v>444000</v>
       </c>
       <c r="H35" s="3">
-        <v>121100</v>
+        <v>141000</v>
       </c>
       <c r="I35" s="3">
-        <v>57100</v>
+        <v>110600</v>
       </c>
       <c r="J35" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K35" s="3">
         <v>110400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-323500</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1272400</v>
+        <v>908200</v>
       </c>
       <c r="E41" s="3">
-        <v>1089300</v>
+        <v>1162000</v>
       </c>
       <c r="F41" s="3">
-        <v>1023100</v>
+        <v>994800</v>
       </c>
       <c r="G41" s="3">
-        <v>886900</v>
+        <v>934400</v>
       </c>
       <c r="H41" s="3">
-        <v>813100</v>
+        <v>809900</v>
       </c>
       <c r="I41" s="3">
-        <v>728700</v>
+        <v>742600</v>
       </c>
       <c r="J41" s="3">
+        <v>665500</v>
+      </c>
+      <c r="K41" s="3">
         <v>832300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>632000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,219 +1708,243 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>486400</v>
+        <v>640000</v>
       </c>
       <c r="E43" s="3">
-        <v>396000</v>
+        <v>444200</v>
       </c>
       <c r="F43" s="3">
-        <v>441700</v>
+        <v>361700</v>
       </c>
       <c r="G43" s="3">
-        <v>323500</v>
+        <v>403400</v>
       </c>
       <c r="H43" s="3">
-        <v>276800</v>
+        <v>295500</v>
       </c>
       <c r="I43" s="3">
-        <v>238900</v>
+        <v>252800</v>
       </c>
       <c r="J43" s="3">
+        <v>218200</v>
+      </c>
+      <c r="K43" s="3">
         <v>212900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>186900</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>548800</v>
+        <v>740200</v>
       </c>
       <c r="E44" s="3">
-        <v>502800</v>
+        <v>501200</v>
       </c>
       <c r="F44" s="3">
-        <v>487100</v>
+        <v>459200</v>
       </c>
       <c r="G44" s="3">
-        <v>423300</v>
+        <v>444800</v>
       </c>
       <c r="H44" s="3">
-        <v>333500</v>
+        <v>386600</v>
       </c>
       <c r="I44" s="3">
-        <v>289300</v>
+        <v>304500</v>
       </c>
       <c r="J44" s="3">
+        <v>264200</v>
+      </c>
+      <c r="K44" s="3">
         <v>317400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>276600</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>73000</v>
+        <v>87200</v>
       </c>
       <c r="E45" s="3">
-        <v>60300</v>
+        <v>66700</v>
       </c>
       <c r="F45" s="3">
-        <v>37700</v>
+        <v>55100</v>
       </c>
       <c r="G45" s="3">
-        <v>47900</v>
+        <v>34500</v>
       </c>
       <c r="H45" s="3">
-        <v>36400</v>
+        <v>43700</v>
       </c>
       <c r="I45" s="3">
-        <v>26000</v>
+        <v>33300</v>
       </c>
       <c r="J45" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K45" s="3">
         <v>43100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>47800</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2380700</v>
+        <v>2375500</v>
       </c>
       <c r="E46" s="3">
-        <v>2048400</v>
+        <v>2174200</v>
       </c>
       <c r="F46" s="3">
-        <v>1989600</v>
+        <v>1870700</v>
       </c>
       <c r="G46" s="3">
-        <v>1681600</v>
+        <v>1817000</v>
       </c>
       <c r="H46" s="3">
-        <v>1459800</v>
+        <v>1535700</v>
       </c>
       <c r="I46" s="3">
-        <v>1282900</v>
+        <v>1333200</v>
       </c>
       <c r="J46" s="3">
+        <v>1171600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1405800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1143300</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>89400</v>
+        <v>116200</v>
       </c>
       <c r="E47" s="3">
-        <v>25600</v>
+        <v>81600</v>
       </c>
       <c r="F47" s="3">
-        <v>27400</v>
+        <v>23400</v>
       </c>
       <c r="G47" s="3">
-        <v>23600</v>
+        <v>25000</v>
       </c>
       <c r="H47" s="3">
-        <v>32300</v>
+        <v>21600</v>
       </c>
       <c r="I47" s="3">
-        <v>32800</v>
+        <v>29500</v>
       </c>
       <c r="J47" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K47" s="3">
         <v>19200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>34300</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>454500</v>
+        <v>498800</v>
       </c>
       <c r="E48" s="3">
-        <v>394600</v>
+        <v>415100</v>
       </c>
       <c r="F48" s="3">
-        <v>262600</v>
+        <v>360300</v>
       </c>
       <c r="G48" s="3">
-        <v>249300</v>
+        <v>239800</v>
       </c>
       <c r="H48" s="3">
-        <v>255200</v>
+        <v>227700</v>
       </c>
       <c r="I48" s="3">
-        <v>268300</v>
+        <v>233000</v>
       </c>
       <c r="J48" s="3">
+        <v>245000</v>
+      </c>
+      <c r="K48" s="3">
         <v>328200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>365700</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>465300</v>
+        <v>664500</v>
       </c>
       <c r="E49" s="3">
-        <v>435200</v>
+        <v>424900</v>
       </c>
       <c r="F49" s="3">
-        <v>222800</v>
+        <v>397500</v>
       </c>
       <c r="G49" s="3">
-        <v>130400</v>
+        <v>203500</v>
       </c>
       <c r="H49" s="3">
-        <v>140600</v>
+        <v>119100</v>
       </c>
       <c r="I49" s="3">
-        <v>142700</v>
+        <v>128400</v>
       </c>
       <c r="J49" s="3">
+        <v>130300</v>
+      </c>
+      <c r="K49" s="3">
         <v>500500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>461600</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>215300</v>
+        <v>198600</v>
       </c>
       <c r="E52" s="3">
-        <v>130900</v>
+        <v>196600</v>
       </c>
       <c r="F52" s="3">
-        <v>95600</v>
+        <v>119600</v>
       </c>
       <c r="G52" s="3">
-        <v>86400</v>
+        <v>87300</v>
       </c>
       <c r="H52" s="3">
-        <v>87700</v>
+        <v>78900</v>
       </c>
       <c r="I52" s="3">
-        <v>68600</v>
+        <v>80100</v>
       </c>
       <c r="J52" s="3">
+        <v>62600</v>
+      </c>
+      <c r="K52" s="3">
         <v>75400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100600</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3605100</v>
+        <v>3853700</v>
       </c>
       <c r="E54" s="3">
-        <v>3034800</v>
+        <v>3292400</v>
       </c>
       <c r="F54" s="3">
-        <v>2598100</v>
+        <v>2771500</v>
       </c>
       <c r="G54" s="3">
-        <v>2171400</v>
+        <v>2372700</v>
       </c>
       <c r="H54" s="3">
-        <v>1975600</v>
+        <v>1983000</v>
       </c>
       <c r="I54" s="3">
-        <v>1795100</v>
+        <v>1804200</v>
       </c>
       <c r="J54" s="3">
+        <v>1639400</v>
+      </c>
+      <c r="K54" s="3">
         <v>2329000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2105500</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>343800</v>
+        <v>548000</v>
       </c>
       <c r="E57" s="3">
-        <v>268100</v>
+        <v>314000</v>
       </c>
       <c r="F57" s="3">
-        <v>243500</v>
+        <v>244900</v>
       </c>
       <c r="G57" s="3">
-        <v>267700</v>
+        <v>222400</v>
       </c>
       <c r="H57" s="3">
-        <v>163500</v>
+        <v>244400</v>
       </c>
       <c r="I57" s="3">
-        <v>113500</v>
+        <v>149300</v>
       </c>
       <c r="J57" s="3">
+        <v>103600</v>
+      </c>
+      <c r="K57" s="3">
         <v>154400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>113200</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21200</v>
+        <v>165700</v>
       </c>
       <c r="E58" s="3">
         <v>19400</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="3">
+        <v>17700</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>254800</v>
-      </c>
       <c r="H58" s="3">
-        <v>127900</v>
-      </c>
-      <c r="I58" s="3" t="s">
+        <v>232700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>116800</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>85300</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>401100</v>
+        <v>461600</v>
       </c>
       <c r="E59" s="3">
-        <v>314100</v>
+        <v>366300</v>
       </c>
       <c r="F59" s="3">
-        <v>292600</v>
+        <v>286900</v>
       </c>
       <c r="G59" s="3">
-        <v>221300</v>
+        <v>267200</v>
       </c>
       <c r="H59" s="3">
-        <v>147300</v>
+        <v>202100</v>
       </c>
       <c r="I59" s="3">
-        <v>137600</v>
+        <v>134500</v>
       </c>
       <c r="J59" s="3">
+        <v>125600</v>
+      </c>
+      <c r="K59" s="3">
         <v>184100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>130600</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>766100</v>
+        <v>1175400</v>
       </c>
       <c r="E60" s="3">
-        <v>601700</v>
+        <v>699600</v>
       </c>
       <c r="F60" s="3">
-        <v>536100</v>
+        <v>549500</v>
       </c>
       <c r="G60" s="3">
-        <v>743800</v>
+        <v>489600</v>
       </c>
       <c r="H60" s="3">
-        <v>438700</v>
+        <v>679300</v>
       </c>
       <c r="I60" s="3">
-        <v>251100</v>
+        <v>400700</v>
       </c>
       <c r="J60" s="3">
+        <v>229300</v>
+      </c>
+      <c r="K60" s="3">
         <v>423800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>243700</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>79900</v>
+        <v>172800</v>
       </c>
       <c r="E61" s="3">
-        <v>76900</v>
+        <v>72900</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>70200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>253700</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>380600</v>
+        <v>231700</v>
       </c>
       <c r="J61" s="3">
+        <v>347600</v>
+      </c>
+      <c r="K61" s="3">
         <v>384900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>505200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>367600</v>
+        <v>210400</v>
       </c>
       <c r="E62" s="3">
-        <v>381900</v>
+        <v>335700</v>
       </c>
       <c r="F62" s="3">
-        <v>366800</v>
+        <v>348800</v>
       </c>
       <c r="G62" s="3">
-        <v>364700</v>
+        <v>335000</v>
       </c>
       <c r="H62" s="3">
-        <v>348900</v>
+        <v>333000</v>
       </c>
       <c r="I62" s="3">
-        <v>364900</v>
+        <v>318700</v>
       </c>
       <c r="J62" s="3">
+        <v>333300</v>
+      </c>
+      <c r="K62" s="3">
         <v>318200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>291700</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1213600</v>
+        <v>1558600</v>
       </c>
       <c r="E66" s="3">
-        <v>1060500</v>
+        <v>1108300</v>
       </c>
       <c r="F66" s="3">
-        <v>902900</v>
+        <v>968500</v>
       </c>
       <c r="G66" s="3">
-        <v>1108500</v>
+        <v>824600</v>
       </c>
       <c r="H66" s="3">
-        <v>1041400</v>
+        <v>1012300</v>
       </c>
       <c r="I66" s="3">
-        <v>996600</v>
+        <v>951000</v>
       </c>
       <c r="J66" s="3">
+        <v>910100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1126800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1040600</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1832700</v>
+        <v>2179900</v>
       </c>
       <c r="E72" s="3">
-        <v>1363100</v>
+        <v>1673700</v>
       </c>
       <c r="F72" s="3">
-        <v>1074200</v>
+        <v>1244900</v>
       </c>
       <c r="G72" s="3">
-        <v>1068000</v>
+        <v>981000</v>
       </c>
       <c r="H72" s="3">
-        <v>969700</v>
+        <v>975300</v>
       </c>
       <c r="I72" s="3">
-        <v>897300</v>
+        <v>885500</v>
       </c>
       <c r="J72" s="3">
+        <v>819400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1203600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1197600</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2391500</v>
+        <v>2295100</v>
       </c>
       <c r="E76" s="3">
-        <v>1974300</v>
+        <v>2184100</v>
       </c>
       <c r="F76" s="3">
-        <v>1695200</v>
+        <v>1803000</v>
       </c>
       <c r="G76" s="3">
-        <v>1062900</v>
+        <v>1548100</v>
       </c>
       <c r="H76" s="3">
-        <v>934200</v>
+        <v>970700</v>
       </c>
       <c r="I76" s="3">
-        <v>798600</v>
+        <v>853100</v>
       </c>
       <c r="J76" s="3">
+        <v>729300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1202200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1064900</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>595300</v>
+        <v>680100</v>
       </c>
       <c r="E81" s="3">
-        <v>456600</v>
+        <v>543600</v>
       </c>
       <c r="F81" s="3">
-        <v>486200</v>
+        <v>417000</v>
       </c>
       <c r="G81" s="3">
-        <v>154400</v>
+        <v>444000</v>
       </c>
       <c r="H81" s="3">
-        <v>121100</v>
+        <v>141000</v>
       </c>
       <c r="I81" s="3">
-        <v>57100</v>
+        <v>110600</v>
       </c>
       <c r="J81" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K81" s="3">
         <v>110400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-323500</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100300</v>
+        <v>116600</v>
       </c>
       <c r="E83" s="3">
-        <v>92900</v>
+        <v>91600</v>
       </c>
       <c r="F83" s="3">
-        <v>42400</v>
-      </c>
-      <c r="G83" s="3" t="s">
+        <v>84800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>38700</v>
+      </c>
+      <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H83" s="3">
-        <v>44000</v>
-      </c>
       <c r="I83" s="3">
-        <v>42400</v>
+        <v>40200</v>
       </c>
       <c r="J83" s="3">
+        <v>38700</v>
+      </c>
+      <c r="K83" s="3">
         <v>43200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>75700</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>578600</v>
+        <v>614500</v>
       </c>
       <c r="E89" s="3">
-        <v>567000</v>
+        <v>528400</v>
       </c>
       <c r="F89" s="3">
-        <v>382100</v>
-      </c>
-      <c r="G89" s="3" t="s">
+        <v>517800</v>
+      </c>
+      <c r="G89" s="3">
+        <v>348900</v>
+      </c>
+      <c r="H89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="3">
-        <v>135100</v>
-      </c>
       <c r="I89" s="3">
-        <v>65900</v>
+        <v>123300</v>
       </c>
       <c r="J89" s="3">
+        <v>60200</v>
+      </c>
+      <c r="K89" s="3">
         <v>208800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-34600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-105900</v>
+        <v>-133700</v>
       </c>
       <c r="E91" s="3">
-        <v>-69400</v>
+        <v>-96700</v>
       </c>
       <c r="F91" s="3">
-        <v>-50300</v>
-      </c>
-      <c r="G91" s="3" t="s">
+        <v>-63400</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>-34300</v>
-      </c>
       <c r="I91" s="3">
-        <v>-26600</v>
+        <v>-31300</v>
       </c>
       <c r="J91" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-27600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-50500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-143600</v>
+        <v>-365400</v>
       </c>
       <c r="E94" s="3">
-        <v>-331100</v>
+        <v>-131100</v>
       </c>
       <c r="F94" s="3">
-        <v>-135800</v>
-      </c>
-      <c r="G94" s="3" t="s">
+        <v>-302400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3">
-        <v>-30000</v>
-      </c>
       <c r="I94" s="3">
-        <v>-20400</v>
+        <v>-27400</v>
       </c>
       <c r="J94" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-11200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-43200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-133000</v>
+        <v>-198300</v>
       </c>
       <c r="E96" s="3">
-        <v>-140100</v>
+        <v>-121500</v>
       </c>
       <c r="F96" s="3">
-        <v>-117600</v>
+        <v>-128000</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-107400</v>
       </c>
       <c r="H96" s="3">
-        <v>-34300</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-29800</v>
+        <v>-31300</v>
       </c>
       <c r="J96" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-14900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-31800</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-259400</v>
+        <v>-535500</v>
       </c>
       <c r="E100" s="3">
-        <v>-152800</v>
+        <v>-236900</v>
       </c>
       <c r="F100" s="3">
-        <v>-117100</v>
-      </c>
-      <c r="G100" s="3" t="s">
+        <v>-139600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-106900</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H100" s="3">
-        <v>-8500</v>
-      </c>
       <c r="I100" s="3">
-        <v>-115400</v>
+        <v>-7800</v>
       </c>
       <c r="J100" s="3">
+        <v>-105400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-11100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>249200</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7500</v>
+        <v>32500</v>
       </c>
       <c r="E101" s="3">
-        <v>-16900</v>
+        <v>6800</v>
       </c>
       <c r="F101" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G101" s="3" t="s">
+        <v>-15400</v>
+      </c>
+      <c r="G101" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="3">
-        <v>-12100</v>
-      </c>
       <c r="I101" s="3">
-        <v>-33700</v>
+        <v>-11000</v>
       </c>
       <c r="J101" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="K101" s="3">
         <v>57200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>42300</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>183100</v>
+        <v>-253800</v>
       </c>
       <c r="E102" s="3">
-        <v>66200</v>
+        <v>167200</v>
       </c>
       <c r="F102" s="3">
-        <v>136200</v>
-      </c>
-      <c r="G102" s="3" t="s">
+        <v>60500</v>
+      </c>
+      <c r="G102" s="3">
+        <v>124400</v>
+      </c>
+      <c r="H102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H102" s="3">
-        <v>84400</v>
-      </c>
       <c r="I102" s="3">
-        <v>-103600</v>
+        <v>77100</v>
       </c>
       <c r="J102" s="3">
+        <v>-94600</v>
+      </c>
+      <c r="K102" s="3">
         <v>243800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>213700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>ATEYY</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3247700</v>
+        <v>3055900</v>
       </c>
       <c r="E8" s="3">
-        <v>2436600</v>
+        <v>2292700</v>
       </c>
       <c r="F8" s="3">
-        <v>2149200</v>
+        <v>2022300</v>
       </c>
       <c r="G8" s="3">
-        <v>2200300</v>
+        <v>2070400</v>
       </c>
       <c r="H8" s="3">
-        <v>1614300</v>
+        <v>1518900</v>
       </c>
       <c r="I8" s="3">
-        <v>1214600</v>
+        <v>1142900</v>
       </c>
       <c r="J8" s="3">
-        <v>1262800</v>
+        <v>1188300</v>
       </c>
       <c r="K8" s="3">
         <v>1393200</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1409900</v>
+        <v>1326700</v>
       </c>
       <c r="E9" s="3">
-        <v>1125600</v>
+        <v>1059200</v>
       </c>
       <c r="F9" s="3">
-        <v>930100</v>
+        <v>875200</v>
       </c>
       <c r="G9" s="3">
-        <v>1000400</v>
+        <v>941300</v>
       </c>
       <c r="H9" s="3">
-        <v>783900</v>
+        <v>737700</v>
       </c>
       <c r="I9" s="3">
-        <v>515500</v>
+        <v>485100</v>
       </c>
       <c r="J9" s="3">
-        <v>550300</v>
+        <v>517800</v>
       </c>
       <c r="K9" s="3">
         <v>621900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1837700</v>
+        <v>1729200</v>
       </c>
       <c r="E10" s="3">
-        <v>1311000</v>
+        <v>1233600</v>
       </c>
       <c r="F10" s="3">
-        <v>1219100</v>
+        <v>1147100</v>
       </c>
       <c r="G10" s="3">
-        <v>1200000</v>
+        <v>1129100</v>
       </c>
       <c r="H10" s="3">
-        <v>830300</v>
+        <v>781300</v>
       </c>
       <c r="I10" s="3">
-        <v>699100</v>
+        <v>657800</v>
       </c>
       <c r="J10" s="3">
-        <v>712600</v>
+        <v>670500</v>
       </c>
       <c r="K10" s="3">
         <v>771300</v>
@@ -896,26 +896,26 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+        <v>-40800</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-18500</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>1800</v>
@@ -929,26 +929,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>82500</v>
       </c>
       <c r="E15" s="3">
-        <v>76100</v>
+        <v>71600</v>
       </c>
       <c r="F15" s="3">
-        <v>60000</v>
+        <v>56400</v>
       </c>
       <c r="G15" s="3">
-        <v>30200</v>
+        <v>28400</v>
       </c>
       <c r="H15" s="3">
-        <v>31900</v>
+        <v>30000</v>
       </c>
       <c r="I15" s="3">
-        <v>30300</v>
+        <v>28500</v>
       </c>
       <c r="J15" s="3">
-        <v>26800</v>
+        <v>25200</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2353900</v>
+        <v>2214900</v>
       </c>
       <c r="E17" s="3">
-        <v>1885700</v>
+        <v>1774300</v>
       </c>
       <c r="F17" s="3">
-        <v>1691900</v>
+        <v>1592000</v>
       </c>
       <c r="G17" s="3">
-        <v>1696600</v>
+        <v>1596400</v>
       </c>
       <c r="H17" s="3">
-        <v>1423500</v>
+        <v>1339500</v>
       </c>
       <c r="I17" s="3">
-        <v>1106300</v>
+        <v>1040900</v>
       </c>
       <c r="J17" s="3">
-        <v>1164700</v>
+        <v>1095900</v>
       </c>
       <c r="K17" s="3">
         <v>1268500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>893800</v>
+        <v>841000</v>
       </c>
       <c r="E18" s="3">
-        <v>551000</v>
+        <v>518400</v>
       </c>
       <c r="F18" s="3">
-        <v>457300</v>
+        <v>430300</v>
       </c>
       <c r="G18" s="3">
-        <v>503700</v>
+        <v>474000</v>
       </c>
       <c r="H18" s="3">
-        <v>190800</v>
+        <v>179500</v>
       </c>
       <c r="I18" s="3">
-        <v>108300</v>
+        <v>101900</v>
       </c>
       <c r="J18" s="3">
-        <v>98100</v>
+        <v>92300</v>
       </c>
       <c r="K18" s="3">
         <v>124700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>12500</v>
+        <v>13800</v>
       </c>
       <c r="E20" s="3">
-        <v>-7200</v>
+        <v>-6800</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>12700</v>
+        <v>11900</v>
       </c>
       <c r="H20" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="I20" s="3">
-        <v>10400</v>
+        <v>9800</v>
       </c>
       <c r="J20" s="3">
-        <v>-4800</v>
+        <v>-4500</v>
       </c>
       <c r="K20" s="3">
         <v>37300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1021400</v>
+        <v>964000</v>
       </c>
       <c r="E21" s="3">
-        <v>634100</v>
+        <v>597300</v>
       </c>
       <c r="F21" s="3">
-        <v>541300</v>
+        <v>509900</v>
       </c>
       <c r="G21" s="3">
-        <v>554600</v>
+        <v>522100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I21" s="3">
-        <v>158400</v>
+        <v>149300</v>
       </c>
       <c r="J21" s="3">
-        <v>131500</v>
+        <v>124000</v>
       </c>
       <c r="K21" s="3">
         <v>205700</v>
@@ -1121,14 +1121,14 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>2000</v>
       </c>
       <c r="E22" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G22" s="3">
         <v>600</v>
@@ -1137,10 +1137,10 @@
         <v>1100</v>
       </c>
       <c r="I22" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J22" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K22" s="3">
         <v>1200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>906300</v>
+        <v>852800</v>
       </c>
       <c r="E23" s="3">
-        <v>542300</v>
+        <v>510300</v>
       </c>
       <c r="F23" s="3">
-        <v>456300</v>
+        <v>429300</v>
       </c>
       <c r="G23" s="3">
-        <v>515800</v>
+        <v>485300</v>
       </c>
       <c r="H23" s="3">
-        <v>189200</v>
+        <v>178000</v>
       </c>
       <c r="I23" s="3">
-        <v>117000</v>
+        <v>110100</v>
       </c>
       <c r="J23" s="3">
-        <v>91700</v>
+        <v>86300</v>
       </c>
       <c r="K23" s="3">
         <v>160900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>226200</v>
+        <v>212900</v>
       </c>
       <c r="E24" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="F24" s="3">
-        <v>39300</v>
+        <v>37000</v>
       </c>
       <c r="G24" s="3">
-        <v>71800</v>
+        <v>67600</v>
       </c>
       <c r="H24" s="3">
-        <v>48100</v>
+        <v>45300</v>
       </c>
       <c r="I24" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="J24" s="3">
-        <v>39500</v>
+        <v>37200</v>
       </c>
       <c r="K24" s="3">
         <v>50400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>680100</v>
+        <v>639900</v>
       </c>
       <c r="E26" s="3">
-        <v>543600</v>
+        <v>511500</v>
       </c>
       <c r="F26" s="3">
-        <v>417000</v>
+        <v>392400</v>
       </c>
       <c r="G26" s="3">
-        <v>444000</v>
+        <v>417800</v>
       </c>
       <c r="H26" s="3">
-        <v>141000</v>
+        <v>132700</v>
       </c>
       <c r="I26" s="3">
-        <v>110600</v>
+        <v>104100</v>
       </c>
       <c r="J26" s="3">
-        <v>52100</v>
+        <v>49100</v>
       </c>
       <c r="K26" s="3">
         <v>110400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>680100</v>
+        <v>639900</v>
       </c>
       <c r="E27" s="3">
-        <v>543600</v>
+        <v>511500</v>
       </c>
       <c r="F27" s="3">
-        <v>417000</v>
+        <v>392400</v>
       </c>
       <c r="G27" s="3">
-        <v>444000</v>
+        <v>417800</v>
       </c>
       <c r="H27" s="3">
-        <v>141000</v>
+        <v>132700</v>
       </c>
       <c r="I27" s="3">
-        <v>110600</v>
+        <v>104100</v>
       </c>
       <c r="J27" s="3">
-        <v>52100</v>
+        <v>49100</v>
       </c>
       <c r="K27" s="3">
         <v>110400</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12500</v>
+        <v>-13800</v>
       </c>
       <c r="E32" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
-        <v>-12700</v>
+        <v>-11900</v>
       </c>
       <c r="H32" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I32" s="3">
-        <v>-10400</v>
+        <v>-9800</v>
       </c>
       <c r="J32" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="K32" s="3">
         <v>-37300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>680100</v>
+        <v>639900</v>
       </c>
       <c r="E33" s="3">
-        <v>543600</v>
+        <v>511500</v>
       </c>
       <c r="F33" s="3">
-        <v>417000</v>
+        <v>392400</v>
       </c>
       <c r="G33" s="3">
-        <v>444000</v>
+        <v>417800</v>
       </c>
       <c r="H33" s="3">
-        <v>141000</v>
+        <v>132700</v>
       </c>
       <c r="I33" s="3">
-        <v>110600</v>
+        <v>104100</v>
       </c>
       <c r="J33" s="3">
-        <v>52100</v>
+        <v>49100</v>
       </c>
       <c r="K33" s="3">
         <v>110400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>680100</v>
+        <v>639900</v>
       </c>
       <c r="E35" s="3">
-        <v>543600</v>
+        <v>511500</v>
       </c>
       <c r="F35" s="3">
-        <v>417000</v>
+        <v>392400</v>
       </c>
       <c r="G35" s="3">
-        <v>444000</v>
+        <v>417800</v>
       </c>
       <c r="H35" s="3">
-        <v>141000</v>
+        <v>132700</v>
       </c>
       <c r="I35" s="3">
-        <v>110600</v>
+        <v>104100</v>
       </c>
       <c r="J35" s="3">
-        <v>52100</v>
+        <v>49100</v>
       </c>
       <c r="K35" s="3">
         <v>110400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>908200</v>
+        <v>854500</v>
       </c>
       <c r="E41" s="3">
-        <v>1162000</v>
+        <v>1093400</v>
       </c>
       <c r="F41" s="3">
-        <v>994800</v>
+        <v>936100</v>
       </c>
       <c r="G41" s="3">
-        <v>934400</v>
+        <v>879200</v>
       </c>
       <c r="H41" s="3">
-        <v>809900</v>
+        <v>762100</v>
       </c>
       <c r="I41" s="3">
-        <v>742600</v>
+        <v>698700</v>
       </c>
       <c r="J41" s="3">
-        <v>665500</v>
+        <v>626200</v>
       </c>
       <c r="K41" s="3">
         <v>832300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>640000</v>
+        <v>602200</v>
       </c>
       <c r="E43" s="3">
-        <v>444200</v>
+        <v>418000</v>
       </c>
       <c r="F43" s="3">
-        <v>361700</v>
+        <v>340300</v>
       </c>
       <c r="G43" s="3">
-        <v>403400</v>
+        <v>379600</v>
       </c>
       <c r="H43" s="3">
-        <v>295500</v>
+        <v>278000</v>
       </c>
       <c r="I43" s="3">
-        <v>252800</v>
+        <v>237900</v>
       </c>
       <c r="J43" s="3">
-        <v>218200</v>
+        <v>205300</v>
       </c>
       <c r="K43" s="3">
         <v>212900</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>740200</v>
+        <v>696400</v>
       </c>
       <c r="E44" s="3">
-        <v>501200</v>
+        <v>471600</v>
       </c>
       <c r="F44" s="3">
-        <v>459200</v>
+        <v>432100</v>
       </c>
       <c r="G44" s="3">
-        <v>444800</v>
+        <v>418500</v>
       </c>
       <c r="H44" s="3">
-        <v>386600</v>
+        <v>363800</v>
       </c>
       <c r="I44" s="3">
-        <v>304500</v>
+        <v>286600</v>
       </c>
       <c r="J44" s="3">
-        <v>264200</v>
+        <v>248600</v>
       </c>
       <c r="K44" s="3">
         <v>317400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>87200</v>
+        <v>82100</v>
       </c>
       <c r="E45" s="3">
-        <v>66700</v>
+        <v>62800</v>
       </c>
       <c r="F45" s="3">
-        <v>55100</v>
+        <v>51800</v>
       </c>
       <c r="G45" s="3">
-        <v>34500</v>
+        <v>32400</v>
       </c>
       <c r="H45" s="3">
-        <v>43700</v>
+        <v>41200</v>
       </c>
       <c r="I45" s="3">
-        <v>33300</v>
+        <v>31300</v>
       </c>
       <c r="J45" s="3">
-        <v>23800</v>
+        <v>22300</v>
       </c>
       <c r="K45" s="3">
         <v>43100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2375500</v>
+        <v>2235200</v>
       </c>
       <c r="E46" s="3">
-        <v>2174200</v>
+        <v>2045800</v>
       </c>
       <c r="F46" s="3">
-        <v>1870700</v>
+        <v>1760200</v>
       </c>
       <c r="G46" s="3">
-        <v>1817000</v>
+        <v>1709700</v>
       </c>
       <c r="H46" s="3">
-        <v>1535700</v>
+        <v>1445100</v>
       </c>
       <c r="I46" s="3">
-        <v>1333200</v>
+        <v>1254400</v>
       </c>
       <c r="J46" s="3">
-        <v>1171600</v>
+        <v>1102400</v>
       </c>
       <c r="K46" s="3">
         <v>1405800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>116200</v>
+        <v>109300</v>
       </c>
       <c r="E47" s="3">
-        <v>81600</v>
+        <v>76800</v>
       </c>
       <c r="F47" s="3">
-        <v>23400</v>
+        <v>22000</v>
       </c>
       <c r="G47" s="3">
-        <v>25000</v>
+        <v>23600</v>
       </c>
       <c r="H47" s="3">
-        <v>21600</v>
+        <v>20300</v>
       </c>
       <c r="I47" s="3">
-        <v>29500</v>
+        <v>27800</v>
       </c>
       <c r="J47" s="3">
-        <v>29900</v>
+        <v>28100</v>
       </c>
       <c r="K47" s="3">
         <v>19200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>498800</v>
+        <v>469400</v>
       </c>
       <c r="E48" s="3">
-        <v>415100</v>
+        <v>390500</v>
       </c>
       <c r="F48" s="3">
-        <v>360300</v>
+        <v>339100</v>
       </c>
       <c r="G48" s="3">
-        <v>239800</v>
+        <v>225700</v>
       </c>
       <c r="H48" s="3">
-        <v>227700</v>
+        <v>214300</v>
       </c>
       <c r="I48" s="3">
-        <v>233000</v>
+        <v>219300</v>
       </c>
       <c r="J48" s="3">
-        <v>245000</v>
+        <v>230500</v>
       </c>
       <c r="K48" s="3">
         <v>328200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>664500</v>
+        <v>625300</v>
       </c>
       <c r="E49" s="3">
-        <v>424900</v>
+        <v>399800</v>
       </c>
       <c r="F49" s="3">
-        <v>397500</v>
+        <v>374000</v>
       </c>
       <c r="G49" s="3">
-        <v>203500</v>
+        <v>191500</v>
       </c>
       <c r="H49" s="3">
-        <v>119100</v>
+        <v>112100</v>
       </c>
       <c r="I49" s="3">
-        <v>128400</v>
+        <v>120800</v>
       </c>
       <c r="J49" s="3">
-        <v>130300</v>
+        <v>122600</v>
       </c>
       <c r="K49" s="3">
         <v>500500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>198600</v>
+        <v>186900</v>
       </c>
       <c r="E52" s="3">
-        <v>196600</v>
+        <v>185000</v>
       </c>
       <c r="F52" s="3">
-        <v>119600</v>
+        <v>112500</v>
       </c>
       <c r="G52" s="3">
-        <v>87300</v>
+        <v>82200</v>
       </c>
       <c r="H52" s="3">
-        <v>78900</v>
+        <v>74200</v>
       </c>
       <c r="I52" s="3">
-        <v>80100</v>
+        <v>75400</v>
       </c>
       <c r="J52" s="3">
-        <v>62600</v>
+        <v>58900</v>
       </c>
       <c r="K52" s="3">
         <v>75400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3853700</v>
+        <v>3626100</v>
       </c>
       <c r="E54" s="3">
-        <v>3292400</v>
+        <v>3098000</v>
       </c>
       <c r="F54" s="3">
-        <v>2771500</v>
+        <v>2607800</v>
       </c>
       <c r="G54" s="3">
-        <v>2372700</v>
+        <v>2232600</v>
       </c>
       <c r="H54" s="3">
-        <v>1983000</v>
+        <v>1865900</v>
       </c>
       <c r="I54" s="3">
-        <v>1804200</v>
+        <v>1697600</v>
       </c>
       <c r="J54" s="3">
-        <v>1639400</v>
+        <v>1542600</v>
       </c>
       <c r="K54" s="3">
         <v>2329000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>548000</v>
+        <v>363300</v>
       </c>
       <c r="E57" s="3">
-        <v>314000</v>
+        <v>295400</v>
       </c>
       <c r="F57" s="3">
-        <v>244900</v>
+        <v>230400</v>
       </c>
       <c r="G57" s="3">
-        <v>222400</v>
+        <v>209300</v>
       </c>
       <c r="H57" s="3">
-        <v>244400</v>
+        <v>230000</v>
       </c>
       <c r="I57" s="3">
-        <v>149300</v>
+        <v>140500</v>
       </c>
       <c r="J57" s="3">
-        <v>103600</v>
+        <v>97500</v>
       </c>
       <c r="K57" s="3">
         <v>154400</v>
@@ -2177,22 +2177,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>165700</v>
+        <v>156000</v>
       </c>
       <c r="E58" s="3">
-        <v>19400</v>
+        <v>18200</v>
       </c>
       <c r="F58" s="3">
-        <v>17700</v>
+        <v>16700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H58" s="3">
-        <v>232700</v>
+        <v>219000</v>
       </c>
       <c r="I58" s="3">
-        <v>116800</v>
+        <v>109900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>461600</v>
+        <v>586700</v>
       </c>
       <c r="E59" s="3">
-        <v>366300</v>
+        <v>344700</v>
       </c>
       <c r="F59" s="3">
-        <v>286900</v>
+        <v>269900</v>
       </c>
       <c r="G59" s="3">
-        <v>267200</v>
+        <v>251400</v>
       </c>
       <c r="H59" s="3">
-        <v>202100</v>
+        <v>190200</v>
       </c>
       <c r="I59" s="3">
-        <v>134500</v>
+        <v>126600</v>
       </c>
       <c r="J59" s="3">
-        <v>125600</v>
+        <v>118200</v>
       </c>
       <c r="K59" s="3">
         <v>184100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1175400</v>
+        <v>1106000</v>
       </c>
       <c r="E60" s="3">
-        <v>699600</v>
+        <v>658300</v>
       </c>
       <c r="F60" s="3">
-        <v>549500</v>
+        <v>517000</v>
       </c>
       <c r="G60" s="3">
-        <v>489600</v>
+        <v>460700</v>
       </c>
       <c r="H60" s="3">
-        <v>679300</v>
+        <v>639200</v>
       </c>
       <c r="I60" s="3">
-        <v>400700</v>
+        <v>377000</v>
       </c>
       <c r="J60" s="3">
-        <v>229300</v>
+        <v>215800</v>
       </c>
       <c r="K60" s="3">
         <v>423800</v>
@@ -2276,13 +2276,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>172800</v>
+        <v>162600</v>
       </c>
       <c r="E61" s="3">
-        <v>72900</v>
+        <v>68600</v>
       </c>
       <c r="F61" s="3">
-        <v>70200</v>
+        <v>66100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2291,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>231700</v>
+        <v>218000</v>
       </c>
       <c r="J61" s="3">
-        <v>347600</v>
+        <v>327000</v>
       </c>
       <c r="K61" s="3">
         <v>384900</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>210400</v>
+        <v>198000</v>
       </c>
       <c r="E62" s="3">
-        <v>335700</v>
+        <v>315900</v>
       </c>
       <c r="F62" s="3">
-        <v>348800</v>
+        <v>328200</v>
       </c>
       <c r="G62" s="3">
-        <v>335000</v>
+        <v>315200</v>
       </c>
       <c r="H62" s="3">
-        <v>333000</v>
+        <v>313400</v>
       </c>
       <c r="I62" s="3">
-        <v>318700</v>
+        <v>299800</v>
       </c>
       <c r="J62" s="3">
-        <v>333300</v>
+        <v>313600</v>
       </c>
       <c r="K62" s="3">
         <v>318200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1558600</v>
+        <v>1466500</v>
       </c>
       <c r="E66" s="3">
-        <v>1108300</v>
+        <v>1042900</v>
       </c>
       <c r="F66" s="3">
-        <v>968500</v>
+        <v>911300</v>
       </c>
       <c r="G66" s="3">
-        <v>824600</v>
+        <v>775900</v>
       </c>
       <c r="H66" s="3">
-        <v>1012300</v>
+        <v>952500</v>
       </c>
       <c r="I66" s="3">
-        <v>951000</v>
+        <v>894900</v>
       </c>
       <c r="J66" s="3">
-        <v>910100</v>
+        <v>856400</v>
       </c>
       <c r="K66" s="3">
         <v>1126800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2179900</v>
+        <v>2051100</v>
       </c>
       <c r="E72" s="3">
-        <v>1673700</v>
+        <v>1574900</v>
       </c>
       <c r="F72" s="3">
-        <v>1244900</v>
+        <v>1171400</v>
       </c>
       <c r="G72" s="3">
-        <v>981000</v>
+        <v>923000</v>
       </c>
       <c r="H72" s="3">
-        <v>975300</v>
+        <v>917700</v>
       </c>
       <c r="I72" s="3">
-        <v>885500</v>
+        <v>833200</v>
       </c>
       <c r="J72" s="3">
-        <v>819400</v>
+        <v>771000</v>
       </c>
       <c r="K72" s="3">
         <v>1203600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2295100</v>
+        <v>2159600</v>
       </c>
       <c r="E76" s="3">
-        <v>2184100</v>
+        <v>2055100</v>
       </c>
       <c r="F76" s="3">
-        <v>1803000</v>
+        <v>1696500</v>
       </c>
       <c r="G76" s="3">
-        <v>1548100</v>
+        <v>1456700</v>
       </c>
       <c r="H76" s="3">
-        <v>970700</v>
+        <v>913400</v>
       </c>
       <c r="I76" s="3">
-        <v>853100</v>
+        <v>802800</v>
       </c>
       <c r="J76" s="3">
-        <v>729300</v>
+        <v>686200</v>
       </c>
       <c r="K76" s="3">
         <v>1202200</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>680100</v>
+        <v>639900</v>
       </c>
       <c r="E81" s="3">
-        <v>543600</v>
+        <v>511500</v>
       </c>
       <c r="F81" s="3">
-        <v>417000</v>
+        <v>392400</v>
       </c>
       <c r="G81" s="3">
-        <v>444000</v>
+        <v>417800</v>
       </c>
       <c r="H81" s="3">
-        <v>141000</v>
+        <v>132700</v>
       </c>
       <c r="I81" s="3">
-        <v>110600</v>
+        <v>104100</v>
       </c>
       <c r="J81" s="3">
-        <v>52100</v>
+        <v>49100</v>
       </c>
       <c r="K81" s="3">
         <v>110400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>116600</v>
+        <v>109700</v>
       </c>
       <c r="E83" s="3">
-        <v>91600</v>
+        <v>86200</v>
       </c>
       <c r="F83" s="3">
-        <v>84800</v>
+        <v>79800</v>
       </c>
       <c r="G83" s="3">
-        <v>38700</v>
+        <v>36400</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I83" s="3">
-        <v>40200</v>
+        <v>37800</v>
       </c>
       <c r="J83" s="3">
-        <v>38700</v>
+        <v>36400</v>
       </c>
       <c r="K83" s="3">
         <v>43200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>614500</v>
+        <v>578300</v>
       </c>
       <c r="E89" s="3">
-        <v>528400</v>
+        <v>497200</v>
       </c>
       <c r="F89" s="3">
-        <v>517800</v>
+        <v>487300</v>
       </c>
       <c r="G89" s="3">
-        <v>348900</v>
+        <v>328300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I89" s="3">
-        <v>123300</v>
+        <v>116100</v>
       </c>
       <c r="J89" s="3">
-        <v>60200</v>
+        <v>56600</v>
       </c>
       <c r="K89" s="3">
         <v>208800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-133700</v>
+        <v>-125800</v>
       </c>
       <c r="E91" s="3">
-        <v>-96700</v>
+        <v>-91000</v>
       </c>
       <c r="F91" s="3">
-        <v>-63400</v>
+        <v>-59700</v>
       </c>
       <c r="G91" s="3">
-        <v>-45900</v>
+        <v>-43200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I91" s="3">
-        <v>-31300</v>
+        <v>-29500</v>
       </c>
       <c r="J91" s="3">
-        <v>-24300</v>
+        <v>-22800</v>
       </c>
       <c r="K91" s="3">
         <v>-27600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-365400</v>
+        <v>-343800</v>
       </c>
       <c r="E94" s="3">
-        <v>-131100</v>
+        <v>-123400</v>
       </c>
       <c r="F94" s="3">
-        <v>-302400</v>
+        <v>-284500</v>
       </c>
       <c r="G94" s="3">
-        <v>-124000</v>
+        <v>-116700</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I94" s="3">
-        <v>-27400</v>
+        <v>-25800</v>
       </c>
       <c r="J94" s="3">
-        <v>-18700</v>
+        <v>-17600</v>
       </c>
       <c r="K94" s="3">
         <v>-11200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-198300</v>
+        <v>-186600</v>
       </c>
       <c r="E96" s="3">
-        <v>-121500</v>
+        <v>-114300</v>
       </c>
       <c r="F96" s="3">
-        <v>-128000</v>
+        <v>-120400</v>
       </c>
       <c r="G96" s="3">
-        <v>-107400</v>
+        <v>-101100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-31300</v>
+        <v>-29400</v>
       </c>
       <c r="J96" s="3">
-        <v>-27200</v>
+        <v>-25600</v>
       </c>
       <c r="K96" s="3">
         <v>-14900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-535500</v>
+        <v>-503800</v>
       </c>
       <c r="E100" s="3">
-        <v>-236900</v>
+        <v>-222900</v>
       </c>
       <c r="F100" s="3">
-        <v>-139600</v>
+        <v>-131300</v>
       </c>
       <c r="G100" s="3">
-        <v>-106900</v>
+        <v>-100600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I100" s="3">
-        <v>-7800</v>
+        <v>-7300</v>
       </c>
       <c r="J100" s="3">
-        <v>-105400</v>
+        <v>-99200</v>
       </c>
       <c r="K100" s="3">
         <v>-11100</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>32500</v>
+        <v>30600</v>
       </c>
       <c r="E101" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="F101" s="3">
-        <v>-15400</v>
+        <v>-14500</v>
       </c>
       <c r="G101" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I101" s="3">
-        <v>-11000</v>
+        <v>-10400</v>
       </c>
       <c r="J101" s="3">
-        <v>-30700</v>
+        <v>-28900</v>
       </c>
       <c r="K101" s="3">
         <v>57200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-253800</v>
+        <v>-238800</v>
       </c>
       <c r="E102" s="3">
-        <v>167200</v>
+        <v>157300</v>
       </c>
       <c r="F102" s="3">
-        <v>60500</v>
+        <v>56900</v>
       </c>
       <c r="G102" s="3">
-        <v>124400</v>
+        <v>117100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I102" s="3">
-        <v>77100</v>
+        <v>72500</v>
       </c>
       <c r="J102" s="3">
-        <v>-94600</v>
+        <v>-89000</v>
       </c>
       <c r="K102" s="3">
         <v>243800</v>

--- a/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3055900</v>
+        <v>2955800</v>
       </c>
       <c r="E8" s="3">
-        <v>2292700</v>
+        <v>2217700</v>
       </c>
       <c r="F8" s="3">
-        <v>2022300</v>
+        <v>1956100</v>
       </c>
       <c r="G8" s="3">
-        <v>2070400</v>
+        <v>2002600</v>
       </c>
       <c r="H8" s="3">
-        <v>1518900</v>
+        <v>1469200</v>
       </c>
       <c r="I8" s="3">
-        <v>1142900</v>
+        <v>1105400</v>
       </c>
       <c r="J8" s="3">
-        <v>1188300</v>
+        <v>1149400</v>
       </c>
       <c r="K8" s="3">
         <v>1393200</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1326700</v>
+        <v>1283200</v>
       </c>
       <c r="E9" s="3">
-        <v>1059200</v>
+        <v>1024500</v>
       </c>
       <c r="F9" s="3">
-        <v>875200</v>
+        <v>846500</v>
       </c>
       <c r="G9" s="3">
-        <v>941300</v>
+        <v>910500</v>
       </c>
       <c r="H9" s="3">
-        <v>737700</v>
+        <v>713500</v>
       </c>
       <c r="I9" s="3">
-        <v>485100</v>
+        <v>469200</v>
       </c>
       <c r="J9" s="3">
-        <v>517800</v>
+        <v>500800</v>
       </c>
       <c r="K9" s="3">
         <v>621900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1729200</v>
+        <v>1672600</v>
       </c>
       <c r="E10" s="3">
-        <v>1233600</v>
+        <v>1193200</v>
       </c>
       <c r="F10" s="3">
-        <v>1147100</v>
+        <v>1109600</v>
       </c>
       <c r="G10" s="3">
-        <v>1129100</v>
+        <v>1092100</v>
       </c>
       <c r="H10" s="3">
-        <v>781300</v>
+        <v>755700</v>
       </c>
       <c r="I10" s="3">
-        <v>657800</v>
+        <v>636300</v>
       </c>
       <c r="J10" s="3">
-        <v>670500</v>
+        <v>648600</v>
       </c>
       <c r="K10" s="3">
         <v>771300</v>
@@ -900,13 +900,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-40800</v>
+        <v>-39500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>-18500</v>
+        <v>-17900</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>82500</v>
+        <v>79800</v>
       </c>
       <c r="E15" s="3">
-        <v>71600</v>
+        <v>69300</v>
       </c>
       <c r="F15" s="3">
-        <v>56400</v>
+        <v>54600</v>
       </c>
       <c r="G15" s="3">
-        <v>28400</v>
+        <v>27500</v>
       </c>
       <c r="H15" s="3">
-        <v>30000</v>
+        <v>29100</v>
       </c>
       <c r="I15" s="3">
-        <v>28500</v>
+        <v>27500</v>
       </c>
       <c r="J15" s="3">
-        <v>25200</v>
+        <v>24400</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2214900</v>
+        <v>2142400</v>
       </c>
       <c r="E17" s="3">
-        <v>1774300</v>
+        <v>1716200</v>
       </c>
       <c r="F17" s="3">
-        <v>1592000</v>
+        <v>1539800</v>
       </c>
       <c r="G17" s="3">
-        <v>1596400</v>
+        <v>1544200</v>
       </c>
       <c r="H17" s="3">
-        <v>1339500</v>
+        <v>1295600</v>
       </c>
       <c r="I17" s="3">
-        <v>1040900</v>
+        <v>1006900</v>
       </c>
       <c r="J17" s="3">
-        <v>1095900</v>
+        <v>1060100</v>
       </c>
       <c r="K17" s="3">
         <v>1268500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>841000</v>
+        <v>813500</v>
       </c>
       <c r="E18" s="3">
-        <v>518400</v>
+        <v>501400</v>
       </c>
       <c r="F18" s="3">
-        <v>430300</v>
+        <v>416200</v>
       </c>
       <c r="G18" s="3">
-        <v>474000</v>
+        <v>458500</v>
       </c>
       <c r="H18" s="3">
-        <v>179500</v>
+        <v>173600</v>
       </c>
       <c r="I18" s="3">
-        <v>101900</v>
+        <v>98600</v>
       </c>
       <c r="J18" s="3">
-        <v>92300</v>
+        <v>89300</v>
       </c>
       <c r="K18" s="3">
         <v>124700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13800</v>
+        <v>13400</v>
       </c>
       <c r="E20" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="F20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="H20" s="3">
         <v>-400</v>
       </c>
       <c r="I20" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="J20" s="3">
-        <v>-4500</v>
+        <v>-4400</v>
       </c>
       <c r="K20" s="3">
         <v>37300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>964000</v>
+        <v>929100</v>
       </c>
       <c r="E21" s="3">
-        <v>597300</v>
+        <v>575200</v>
       </c>
       <c r="F21" s="3">
-        <v>509900</v>
+        <v>490800</v>
       </c>
       <c r="G21" s="3">
-        <v>522100</v>
+        <v>503900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I21" s="3">
-        <v>149300</v>
+        <v>143300</v>
       </c>
       <c r="J21" s="3">
-        <v>124000</v>
+        <v>118900</v>
       </c>
       <c r="K21" s="3">
         <v>205700</v>
@@ -1131,16 +1131,16 @@
         <v>1100</v>
       </c>
       <c r="G22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I22" s="3">
         <v>1600</v>
       </c>
       <c r="J22" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K22" s="3">
         <v>1200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>852800</v>
+        <v>824900</v>
       </c>
       <c r="E23" s="3">
-        <v>510300</v>
+        <v>493600</v>
       </c>
       <c r="F23" s="3">
-        <v>429300</v>
+        <v>415300</v>
       </c>
       <c r="G23" s="3">
-        <v>485300</v>
+        <v>469400</v>
       </c>
       <c r="H23" s="3">
-        <v>178000</v>
+        <v>172200</v>
       </c>
       <c r="I23" s="3">
-        <v>110100</v>
+        <v>106500</v>
       </c>
       <c r="J23" s="3">
-        <v>86300</v>
+        <v>83400</v>
       </c>
       <c r="K23" s="3">
         <v>160900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>212900</v>
+        <v>205900</v>
       </c>
       <c r="E24" s="3">
         <v>-1200</v>
       </c>
       <c r="F24" s="3">
-        <v>37000</v>
+        <v>35700</v>
       </c>
       <c r="G24" s="3">
-        <v>67600</v>
+        <v>65400</v>
       </c>
       <c r="H24" s="3">
-        <v>45300</v>
+        <v>43800</v>
       </c>
       <c r="I24" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="J24" s="3">
-        <v>37200</v>
+        <v>36000</v>
       </c>
       <c r="K24" s="3">
         <v>50400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>639900</v>
+        <v>619000</v>
       </c>
       <c r="E26" s="3">
-        <v>511500</v>
+        <v>494800</v>
       </c>
       <c r="F26" s="3">
-        <v>392400</v>
+        <v>379500</v>
       </c>
       <c r="G26" s="3">
-        <v>417800</v>
+        <v>404100</v>
       </c>
       <c r="H26" s="3">
-        <v>132700</v>
+        <v>128400</v>
       </c>
       <c r="I26" s="3">
-        <v>104100</v>
+        <v>100700</v>
       </c>
       <c r="J26" s="3">
-        <v>49100</v>
+        <v>47500</v>
       </c>
       <c r="K26" s="3">
         <v>110400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>639900</v>
+        <v>619000</v>
       </c>
       <c r="E27" s="3">
-        <v>511500</v>
+        <v>494800</v>
       </c>
       <c r="F27" s="3">
-        <v>392400</v>
+        <v>379500</v>
       </c>
       <c r="G27" s="3">
-        <v>417800</v>
+        <v>404100</v>
       </c>
       <c r="H27" s="3">
-        <v>132700</v>
+        <v>128400</v>
       </c>
       <c r="I27" s="3">
-        <v>104100</v>
+        <v>100700</v>
       </c>
       <c r="J27" s="3">
-        <v>49100</v>
+        <v>47500</v>
       </c>
       <c r="K27" s="3">
         <v>110400</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13800</v>
+        <v>-13400</v>
       </c>
       <c r="E32" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="F32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>-11900</v>
+        <v>-11500</v>
       </c>
       <c r="H32" s="3">
         <v>400</v>
       </c>
       <c r="I32" s="3">
-        <v>-9800</v>
+        <v>-9500</v>
       </c>
       <c r="J32" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K32" s="3">
         <v>-37300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>639900</v>
+        <v>619000</v>
       </c>
       <c r="E33" s="3">
-        <v>511500</v>
+        <v>494800</v>
       </c>
       <c r="F33" s="3">
-        <v>392400</v>
+        <v>379500</v>
       </c>
       <c r="G33" s="3">
-        <v>417800</v>
+        <v>404100</v>
       </c>
       <c r="H33" s="3">
-        <v>132700</v>
+        <v>128400</v>
       </c>
       <c r="I33" s="3">
-        <v>104100</v>
+        <v>100700</v>
       </c>
       <c r="J33" s="3">
-        <v>49100</v>
+        <v>47500</v>
       </c>
       <c r="K33" s="3">
         <v>110400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>639900</v>
+        <v>619000</v>
       </c>
       <c r="E35" s="3">
-        <v>511500</v>
+        <v>494800</v>
       </c>
       <c r="F35" s="3">
-        <v>392400</v>
+        <v>379500</v>
       </c>
       <c r="G35" s="3">
-        <v>417800</v>
+        <v>404100</v>
       </c>
       <c r="H35" s="3">
-        <v>132700</v>
+        <v>128400</v>
       </c>
       <c r="I35" s="3">
-        <v>104100</v>
+        <v>100700</v>
       </c>
       <c r="J35" s="3">
-        <v>49100</v>
+        <v>47500</v>
       </c>
       <c r="K35" s="3">
         <v>110400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>854500</v>
+        <v>826600</v>
       </c>
       <c r="E41" s="3">
-        <v>1093400</v>
+        <v>1057600</v>
       </c>
       <c r="F41" s="3">
-        <v>936100</v>
+        <v>905400</v>
       </c>
       <c r="G41" s="3">
-        <v>879200</v>
+        <v>850400</v>
       </c>
       <c r="H41" s="3">
-        <v>762100</v>
+        <v>737200</v>
       </c>
       <c r="I41" s="3">
-        <v>698700</v>
+        <v>675800</v>
       </c>
       <c r="J41" s="3">
-        <v>626200</v>
+        <v>605700</v>
       </c>
       <c r="K41" s="3">
         <v>832300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>602200</v>
+        <v>582500</v>
       </c>
       <c r="E43" s="3">
-        <v>418000</v>
+        <v>404300</v>
       </c>
       <c r="F43" s="3">
-        <v>340300</v>
+        <v>329200</v>
       </c>
       <c r="G43" s="3">
-        <v>379600</v>
+        <v>367200</v>
       </c>
       <c r="H43" s="3">
-        <v>278000</v>
+        <v>268900</v>
       </c>
       <c r="I43" s="3">
-        <v>237900</v>
+        <v>230100</v>
       </c>
       <c r="J43" s="3">
-        <v>205300</v>
+        <v>198600</v>
       </c>
       <c r="K43" s="3">
         <v>212900</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>696400</v>
+        <v>673600</v>
       </c>
       <c r="E44" s="3">
-        <v>471600</v>
+        <v>456200</v>
       </c>
       <c r="F44" s="3">
-        <v>432100</v>
+        <v>417900</v>
       </c>
       <c r="G44" s="3">
-        <v>418500</v>
+        <v>404800</v>
       </c>
       <c r="H44" s="3">
-        <v>363800</v>
+        <v>351900</v>
       </c>
       <c r="I44" s="3">
-        <v>286600</v>
+        <v>277200</v>
       </c>
       <c r="J44" s="3">
-        <v>248600</v>
+        <v>240400</v>
       </c>
       <c r="K44" s="3">
         <v>317400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>82100</v>
+        <v>79400</v>
       </c>
       <c r="E45" s="3">
-        <v>62800</v>
+        <v>60700</v>
       </c>
       <c r="F45" s="3">
-        <v>51800</v>
+        <v>50100</v>
       </c>
       <c r="G45" s="3">
-        <v>32400</v>
+        <v>31400</v>
       </c>
       <c r="H45" s="3">
-        <v>41200</v>
+        <v>39800</v>
       </c>
       <c r="I45" s="3">
-        <v>31300</v>
+        <v>30300</v>
       </c>
       <c r="J45" s="3">
-        <v>22300</v>
+        <v>21600</v>
       </c>
       <c r="K45" s="3">
         <v>43100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2235200</v>
+        <v>2162100</v>
       </c>
       <c r="E46" s="3">
-        <v>2045800</v>
+        <v>1978800</v>
       </c>
       <c r="F46" s="3">
-        <v>1760200</v>
+        <v>1702600</v>
       </c>
       <c r="G46" s="3">
-        <v>1709700</v>
+        <v>1653700</v>
       </c>
       <c r="H46" s="3">
-        <v>1445100</v>
+        <v>1397700</v>
       </c>
       <c r="I46" s="3">
-        <v>1254400</v>
+        <v>1213400</v>
       </c>
       <c r="J46" s="3">
-        <v>1102400</v>
+        <v>1066300</v>
       </c>
       <c r="K46" s="3">
         <v>1405800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>109300</v>
+        <v>105700</v>
       </c>
       <c r="E47" s="3">
-        <v>76800</v>
+        <v>74300</v>
       </c>
       <c r="F47" s="3">
-        <v>22000</v>
+        <v>21300</v>
       </c>
       <c r="G47" s="3">
-        <v>23600</v>
+        <v>22800</v>
       </c>
       <c r="H47" s="3">
-        <v>20300</v>
+        <v>19600</v>
       </c>
       <c r="I47" s="3">
-        <v>27800</v>
+        <v>26900</v>
       </c>
       <c r="J47" s="3">
-        <v>28100</v>
+        <v>27200</v>
       </c>
       <c r="K47" s="3">
         <v>19200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>469400</v>
+        <v>454000</v>
       </c>
       <c r="E48" s="3">
-        <v>390500</v>
+        <v>377800</v>
       </c>
       <c r="F48" s="3">
-        <v>339100</v>
+        <v>328000</v>
       </c>
       <c r="G48" s="3">
-        <v>225700</v>
+        <v>218300</v>
       </c>
       <c r="H48" s="3">
-        <v>214300</v>
+        <v>207300</v>
       </c>
       <c r="I48" s="3">
-        <v>219300</v>
+        <v>212100</v>
       </c>
       <c r="J48" s="3">
-        <v>230500</v>
+        <v>223000</v>
       </c>
       <c r="K48" s="3">
         <v>328200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>625300</v>
+        <v>604800</v>
       </c>
       <c r="E49" s="3">
-        <v>399800</v>
+        <v>386700</v>
       </c>
       <c r="F49" s="3">
-        <v>374000</v>
+        <v>361800</v>
       </c>
       <c r="G49" s="3">
-        <v>191500</v>
+        <v>185200</v>
       </c>
       <c r="H49" s="3">
-        <v>112100</v>
+        <v>108400</v>
       </c>
       <c r="I49" s="3">
-        <v>120800</v>
+        <v>116800</v>
       </c>
       <c r="J49" s="3">
-        <v>122600</v>
+        <v>118600</v>
       </c>
       <c r="K49" s="3">
         <v>500500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>186900</v>
+        <v>180800</v>
       </c>
       <c r="E52" s="3">
-        <v>185000</v>
+        <v>179000</v>
       </c>
       <c r="F52" s="3">
-        <v>112500</v>
+        <v>108800</v>
       </c>
       <c r="G52" s="3">
-        <v>82200</v>
+        <v>79500</v>
       </c>
       <c r="H52" s="3">
-        <v>74200</v>
+        <v>71800</v>
       </c>
       <c r="I52" s="3">
-        <v>75400</v>
+        <v>72900</v>
       </c>
       <c r="J52" s="3">
-        <v>58900</v>
+        <v>57000</v>
       </c>
       <c r="K52" s="3">
         <v>75400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3626100</v>
+        <v>3507400</v>
       </c>
       <c r="E54" s="3">
-        <v>3098000</v>
+        <v>2996500</v>
       </c>
       <c r="F54" s="3">
-        <v>2607800</v>
+        <v>2522500</v>
       </c>
       <c r="G54" s="3">
-        <v>2232600</v>
+        <v>2159500</v>
       </c>
       <c r="H54" s="3">
-        <v>1865900</v>
+        <v>1804800</v>
       </c>
       <c r="I54" s="3">
-        <v>1697600</v>
+        <v>1642100</v>
       </c>
       <c r="J54" s="3">
-        <v>1542600</v>
+        <v>1492100</v>
       </c>
       <c r="K54" s="3">
         <v>2329000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>363300</v>
+        <v>351400</v>
       </c>
       <c r="E57" s="3">
-        <v>295400</v>
+        <v>285800</v>
       </c>
       <c r="F57" s="3">
-        <v>230400</v>
+        <v>222900</v>
       </c>
       <c r="G57" s="3">
-        <v>209300</v>
+        <v>202400</v>
       </c>
       <c r="H57" s="3">
-        <v>230000</v>
+        <v>222500</v>
       </c>
       <c r="I57" s="3">
-        <v>140500</v>
+        <v>135900</v>
       </c>
       <c r="J57" s="3">
-        <v>97500</v>
+        <v>94300</v>
       </c>
       <c r="K57" s="3">
         <v>154400</v>
@@ -2177,22 +2177,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>156000</v>
+        <v>150900</v>
       </c>
       <c r="E58" s="3">
-        <v>18200</v>
+        <v>17600</v>
       </c>
       <c r="F58" s="3">
-        <v>16700</v>
+        <v>16100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H58" s="3">
-        <v>219000</v>
+        <v>211800</v>
       </c>
       <c r="I58" s="3">
-        <v>109900</v>
+        <v>106300</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>586700</v>
+        <v>567500</v>
       </c>
       <c r="E59" s="3">
-        <v>344700</v>
+        <v>333400</v>
       </c>
       <c r="F59" s="3">
-        <v>269900</v>
+        <v>261100</v>
       </c>
       <c r="G59" s="3">
-        <v>251400</v>
+        <v>243200</v>
       </c>
       <c r="H59" s="3">
-        <v>190200</v>
+        <v>184000</v>
       </c>
       <c r="I59" s="3">
-        <v>126600</v>
+        <v>122400</v>
       </c>
       <c r="J59" s="3">
-        <v>118200</v>
+        <v>114400</v>
       </c>
       <c r="K59" s="3">
         <v>184100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1106000</v>
+        <v>1069800</v>
       </c>
       <c r="E60" s="3">
-        <v>658300</v>
+        <v>636800</v>
       </c>
       <c r="F60" s="3">
-        <v>517000</v>
+        <v>500100</v>
       </c>
       <c r="G60" s="3">
-        <v>460700</v>
+        <v>445600</v>
       </c>
       <c r="H60" s="3">
-        <v>639200</v>
+        <v>618200</v>
       </c>
       <c r="I60" s="3">
-        <v>377000</v>
+        <v>364700</v>
       </c>
       <c r="J60" s="3">
-        <v>215800</v>
+        <v>208700</v>
       </c>
       <c r="K60" s="3">
         <v>423800</v>
@@ -2276,13 +2276,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>162600</v>
+        <v>157300</v>
       </c>
       <c r="E61" s="3">
-        <v>68600</v>
+        <v>66400</v>
       </c>
       <c r="F61" s="3">
-        <v>66100</v>
+        <v>63900</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2291,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>218000</v>
+        <v>210900</v>
       </c>
       <c r="J61" s="3">
-        <v>327000</v>
+        <v>316300</v>
       </c>
       <c r="K61" s="3">
         <v>384900</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>198000</v>
+        <v>191500</v>
       </c>
       <c r="E62" s="3">
-        <v>315900</v>
+        <v>305600</v>
       </c>
       <c r="F62" s="3">
-        <v>328200</v>
+        <v>317500</v>
       </c>
       <c r="G62" s="3">
-        <v>315200</v>
+        <v>304900</v>
       </c>
       <c r="H62" s="3">
-        <v>313400</v>
+        <v>303100</v>
       </c>
       <c r="I62" s="3">
-        <v>299800</v>
+        <v>290000</v>
       </c>
       <c r="J62" s="3">
-        <v>313600</v>
+        <v>303300</v>
       </c>
       <c r="K62" s="3">
         <v>318200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1466500</v>
+        <v>1418500</v>
       </c>
       <c r="E66" s="3">
-        <v>1042900</v>
+        <v>1008700</v>
       </c>
       <c r="F66" s="3">
-        <v>911300</v>
+        <v>881500</v>
       </c>
       <c r="G66" s="3">
-        <v>775900</v>
+        <v>750500</v>
       </c>
       <c r="H66" s="3">
-        <v>952500</v>
+        <v>921300</v>
       </c>
       <c r="I66" s="3">
-        <v>894900</v>
+        <v>865600</v>
       </c>
       <c r="J66" s="3">
-        <v>856400</v>
+        <v>828300</v>
       </c>
       <c r="K66" s="3">
         <v>1126800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2051100</v>
+        <v>1984000</v>
       </c>
       <c r="E72" s="3">
-        <v>1574900</v>
+        <v>1523300</v>
       </c>
       <c r="F72" s="3">
-        <v>1171400</v>
+        <v>1133000</v>
       </c>
       <c r="G72" s="3">
-        <v>923000</v>
+        <v>892800</v>
       </c>
       <c r="H72" s="3">
-        <v>917700</v>
+        <v>887700</v>
       </c>
       <c r="I72" s="3">
-        <v>833200</v>
+        <v>806000</v>
       </c>
       <c r="J72" s="3">
-        <v>771000</v>
+        <v>745800</v>
       </c>
       <c r="K72" s="3">
         <v>1203600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2159600</v>
+        <v>2088900</v>
       </c>
       <c r="E76" s="3">
-        <v>2055100</v>
+        <v>1987800</v>
       </c>
       <c r="F76" s="3">
-        <v>1696500</v>
+        <v>1641000</v>
       </c>
       <c r="G76" s="3">
-        <v>1456700</v>
+        <v>1409000</v>
       </c>
       <c r="H76" s="3">
-        <v>913400</v>
+        <v>883500</v>
       </c>
       <c r="I76" s="3">
-        <v>802800</v>
+        <v>776500</v>
       </c>
       <c r="J76" s="3">
-        <v>686200</v>
+        <v>663800</v>
       </c>
       <c r="K76" s="3">
         <v>1202200</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>639900</v>
+        <v>619000</v>
       </c>
       <c r="E81" s="3">
-        <v>511500</v>
+        <v>494800</v>
       </c>
       <c r="F81" s="3">
-        <v>392400</v>
+        <v>379500</v>
       </c>
       <c r="G81" s="3">
-        <v>417800</v>
+        <v>404100</v>
       </c>
       <c r="H81" s="3">
-        <v>132700</v>
+        <v>128400</v>
       </c>
       <c r="I81" s="3">
-        <v>104100</v>
+        <v>100700</v>
       </c>
       <c r="J81" s="3">
-        <v>49100</v>
+        <v>47500</v>
       </c>
       <c r="K81" s="3">
         <v>110400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>109700</v>
+        <v>106100</v>
       </c>
       <c r="E83" s="3">
-        <v>86200</v>
+        <v>83400</v>
       </c>
       <c r="F83" s="3">
-        <v>79800</v>
+        <v>77200</v>
       </c>
       <c r="G83" s="3">
-        <v>36400</v>
+        <v>35200</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I83" s="3">
-        <v>37800</v>
+        <v>36600</v>
       </c>
       <c r="J83" s="3">
-        <v>36400</v>
+        <v>35200</v>
       </c>
       <c r="K83" s="3">
         <v>43200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>578300</v>
+        <v>559300</v>
       </c>
       <c r="E89" s="3">
-        <v>497200</v>
+        <v>480900</v>
       </c>
       <c r="F89" s="3">
-        <v>487300</v>
+        <v>471300</v>
       </c>
       <c r="G89" s="3">
-        <v>328300</v>
+        <v>317600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I89" s="3">
-        <v>116100</v>
+        <v>112300</v>
       </c>
       <c r="J89" s="3">
-        <v>56600</v>
+        <v>54800</v>
       </c>
       <c r="K89" s="3">
         <v>208800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-125800</v>
+        <v>-121700</v>
       </c>
       <c r="E91" s="3">
-        <v>-91000</v>
+        <v>-88000</v>
       </c>
       <c r="F91" s="3">
-        <v>-59700</v>
+        <v>-57700</v>
       </c>
       <c r="G91" s="3">
-        <v>-43200</v>
+        <v>-41800</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I91" s="3">
-        <v>-29500</v>
+        <v>-28500</v>
       </c>
       <c r="J91" s="3">
-        <v>-22800</v>
+        <v>-22100</v>
       </c>
       <c r="K91" s="3">
         <v>-27600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-343800</v>
+        <v>-332600</v>
       </c>
       <c r="E94" s="3">
-        <v>-123400</v>
+        <v>-119300</v>
       </c>
       <c r="F94" s="3">
-        <v>-284500</v>
+        <v>-275200</v>
       </c>
       <c r="G94" s="3">
-        <v>-116700</v>
+        <v>-112800</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I94" s="3">
-        <v>-25800</v>
+        <v>-25000</v>
       </c>
       <c r="J94" s="3">
-        <v>-17600</v>
+        <v>-17000</v>
       </c>
       <c r="K94" s="3">
         <v>-11200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-186600</v>
+        <v>-180500</v>
       </c>
       <c r="E96" s="3">
-        <v>-114300</v>
+        <v>-110600</v>
       </c>
       <c r="F96" s="3">
-        <v>-120400</v>
+        <v>-116500</v>
       </c>
       <c r="G96" s="3">
-        <v>-101100</v>
+        <v>-97700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-29400</v>
+        <v>-28500</v>
       </c>
       <c r="J96" s="3">
-        <v>-25600</v>
+        <v>-24700</v>
       </c>
       <c r="K96" s="3">
         <v>-14900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-503800</v>
+        <v>-487300</v>
       </c>
       <c r="E100" s="3">
-        <v>-222900</v>
+        <v>-215600</v>
       </c>
       <c r="F100" s="3">
-        <v>-131300</v>
+        <v>-127000</v>
       </c>
       <c r="G100" s="3">
-        <v>-100600</v>
+        <v>-97300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I100" s="3">
-        <v>-7300</v>
+        <v>-7100</v>
       </c>
       <c r="J100" s="3">
-        <v>-99200</v>
+        <v>-95900</v>
       </c>
       <c r="K100" s="3">
         <v>-11100</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>30600</v>
+        <v>29600</v>
       </c>
       <c r="E101" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="F101" s="3">
-        <v>-14500</v>
+        <v>-14000</v>
       </c>
       <c r="G101" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I101" s="3">
-        <v>-10400</v>
+        <v>-10000</v>
       </c>
       <c r="J101" s="3">
-        <v>-28900</v>
+        <v>-28000</v>
       </c>
       <c r="K101" s="3">
         <v>57200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-238800</v>
+        <v>-231000</v>
       </c>
       <c r="E102" s="3">
-        <v>157300</v>
+        <v>152200</v>
       </c>
       <c r="F102" s="3">
-        <v>56900</v>
+        <v>55000</v>
       </c>
       <c r="G102" s="3">
-        <v>117100</v>
+        <v>113200</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I102" s="3">
-        <v>72500</v>
+        <v>70100</v>
       </c>
       <c r="J102" s="3">
-        <v>-89000</v>
+        <v>-86100</v>
       </c>
       <c r="K102" s="3">
         <v>243800</v>

--- a/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2955800</v>
+        <v>3064200</v>
       </c>
       <c r="E8" s="3">
-        <v>2217700</v>
+        <v>2299000</v>
       </c>
       <c r="F8" s="3">
-        <v>1956100</v>
+        <v>2027800</v>
       </c>
       <c r="G8" s="3">
-        <v>2002600</v>
+        <v>2076100</v>
       </c>
       <c r="H8" s="3">
-        <v>1469200</v>
+        <v>1523100</v>
       </c>
       <c r="I8" s="3">
-        <v>1105400</v>
+        <v>1146000</v>
       </c>
       <c r="J8" s="3">
-        <v>1149400</v>
+        <v>1191500</v>
       </c>
       <c r="K8" s="3">
         <v>1393200</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1283200</v>
+        <v>1330300</v>
       </c>
       <c r="E9" s="3">
-        <v>1024500</v>
+        <v>1062100</v>
       </c>
       <c r="F9" s="3">
-        <v>846500</v>
+        <v>877600</v>
       </c>
       <c r="G9" s="3">
-        <v>910500</v>
+        <v>943900</v>
       </c>
       <c r="H9" s="3">
-        <v>713500</v>
+        <v>739700</v>
       </c>
       <c r="I9" s="3">
-        <v>469200</v>
+        <v>486400</v>
       </c>
       <c r="J9" s="3">
-        <v>500800</v>
+        <v>519200</v>
       </c>
       <c r="K9" s="3">
         <v>621900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1672600</v>
+        <v>1733900</v>
       </c>
       <c r="E10" s="3">
-        <v>1193200</v>
+        <v>1236900</v>
       </c>
       <c r="F10" s="3">
-        <v>1109600</v>
+        <v>1150300</v>
       </c>
       <c r="G10" s="3">
-        <v>1092100</v>
+        <v>1132200</v>
       </c>
       <c r="H10" s="3">
-        <v>755700</v>
+        <v>783400</v>
       </c>
       <c r="I10" s="3">
-        <v>636300</v>
+        <v>659600</v>
       </c>
       <c r="J10" s="3">
-        <v>648600</v>
+        <v>672300</v>
       </c>
       <c r="K10" s="3">
         <v>771300</v>
@@ -900,13 +900,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-39500</v>
+        <v>-40900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>-17900</v>
+        <v>-18600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>79800</v>
+        <v>82700</v>
       </c>
       <c r="E15" s="3">
-        <v>69300</v>
+        <v>71800</v>
       </c>
       <c r="F15" s="3">
-        <v>54600</v>
+        <v>56600</v>
       </c>
       <c r="G15" s="3">
-        <v>27500</v>
+        <v>28500</v>
       </c>
       <c r="H15" s="3">
-        <v>29100</v>
+        <v>30100</v>
       </c>
       <c r="I15" s="3">
-        <v>27500</v>
+        <v>28600</v>
       </c>
       <c r="J15" s="3">
-        <v>24400</v>
+        <v>25300</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2142400</v>
+        <v>2220900</v>
       </c>
       <c r="E17" s="3">
-        <v>1716200</v>
+        <v>1779200</v>
       </c>
       <c r="F17" s="3">
-        <v>1539800</v>
+        <v>1596300</v>
       </c>
       <c r="G17" s="3">
-        <v>1544200</v>
+        <v>1600800</v>
       </c>
       <c r="H17" s="3">
-        <v>1295600</v>
+        <v>1343100</v>
       </c>
       <c r="I17" s="3">
-        <v>1006900</v>
+        <v>1043800</v>
       </c>
       <c r="J17" s="3">
-        <v>1060100</v>
+        <v>1098900</v>
       </c>
       <c r="K17" s="3">
         <v>1268500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>813500</v>
+        <v>843300</v>
       </c>
       <c r="E18" s="3">
-        <v>501400</v>
+        <v>519800</v>
       </c>
       <c r="F18" s="3">
-        <v>416200</v>
+        <v>431500</v>
       </c>
       <c r="G18" s="3">
-        <v>458500</v>
+        <v>475300</v>
       </c>
       <c r="H18" s="3">
-        <v>173600</v>
+        <v>180000</v>
       </c>
       <c r="I18" s="3">
-        <v>98600</v>
+        <v>102200</v>
       </c>
       <c r="J18" s="3">
-        <v>89300</v>
+        <v>92600</v>
       </c>
       <c r="K18" s="3">
         <v>124700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="E20" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="H20" s="3">
         <v>-400</v>
       </c>
       <c r="I20" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="J20" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="K20" s="3">
         <v>37300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>929100</v>
+        <v>966100</v>
       </c>
       <c r="E21" s="3">
-        <v>575200</v>
+        <v>598600</v>
       </c>
       <c r="F21" s="3">
-        <v>490800</v>
+        <v>511000</v>
       </c>
       <c r="G21" s="3">
-        <v>503900</v>
+        <v>523400</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I21" s="3">
-        <v>143300</v>
+        <v>149600</v>
       </c>
       <c r="J21" s="3">
-        <v>118900</v>
+        <v>124200</v>
       </c>
       <c r="K21" s="3">
         <v>205700</v>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E22" s="3">
         <v>1300</v>
@@ -1131,16 +1131,16 @@
         <v>1100</v>
       </c>
       <c r="G22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H22" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I22" s="3">
         <v>1600</v>
       </c>
       <c r="J22" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K22" s="3">
         <v>1200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>824900</v>
+        <v>855100</v>
       </c>
       <c r="E23" s="3">
-        <v>493600</v>
+        <v>511700</v>
       </c>
       <c r="F23" s="3">
-        <v>415300</v>
+        <v>430500</v>
       </c>
       <c r="G23" s="3">
-        <v>469400</v>
+        <v>486700</v>
       </c>
       <c r="H23" s="3">
-        <v>172200</v>
+        <v>178500</v>
       </c>
       <c r="I23" s="3">
-        <v>106500</v>
+        <v>110400</v>
       </c>
       <c r="J23" s="3">
-        <v>83400</v>
+        <v>86500</v>
       </c>
       <c r="K23" s="3">
         <v>160900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>205900</v>
+        <v>213500</v>
       </c>
       <c r="E24" s="3">
         <v>-1200</v>
       </c>
       <c r="F24" s="3">
-        <v>35700</v>
+        <v>37100</v>
       </c>
       <c r="G24" s="3">
-        <v>65400</v>
+        <v>67800</v>
       </c>
       <c r="H24" s="3">
-        <v>43800</v>
+        <v>45400</v>
       </c>
       <c r="I24" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="J24" s="3">
-        <v>36000</v>
+        <v>37300</v>
       </c>
       <c r="K24" s="3">
         <v>50400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>619000</v>
+        <v>641700</v>
       </c>
       <c r="E26" s="3">
-        <v>494800</v>
+        <v>512900</v>
       </c>
       <c r="F26" s="3">
-        <v>379500</v>
+        <v>393500</v>
       </c>
       <c r="G26" s="3">
-        <v>404100</v>
+        <v>418900</v>
       </c>
       <c r="H26" s="3">
-        <v>128400</v>
+        <v>133100</v>
       </c>
       <c r="I26" s="3">
-        <v>100700</v>
+        <v>104400</v>
       </c>
       <c r="J26" s="3">
-        <v>47500</v>
+        <v>49200</v>
       </c>
       <c r="K26" s="3">
         <v>110400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>619000</v>
+        <v>641700</v>
       </c>
       <c r="E27" s="3">
-        <v>494800</v>
+        <v>512900</v>
       </c>
       <c r="F27" s="3">
-        <v>379500</v>
+        <v>393500</v>
       </c>
       <c r="G27" s="3">
-        <v>404100</v>
+        <v>418900</v>
       </c>
       <c r="H27" s="3">
-        <v>128400</v>
+        <v>133100</v>
       </c>
       <c r="I27" s="3">
-        <v>100700</v>
+        <v>104400</v>
       </c>
       <c r="J27" s="3">
-        <v>47500</v>
+        <v>49200</v>
       </c>
       <c r="K27" s="3">
         <v>110400</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13400</v>
+        <v>-13900</v>
       </c>
       <c r="E32" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
-        <v>-11500</v>
+        <v>-12000</v>
       </c>
       <c r="H32" s="3">
         <v>400</v>
       </c>
       <c r="I32" s="3">
-        <v>-9500</v>
+        <v>-9800</v>
       </c>
       <c r="J32" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K32" s="3">
         <v>-37300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>619000</v>
+        <v>641700</v>
       </c>
       <c r="E33" s="3">
-        <v>494800</v>
+        <v>512900</v>
       </c>
       <c r="F33" s="3">
-        <v>379500</v>
+        <v>393500</v>
       </c>
       <c r="G33" s="3">
-        <v>404100</v>
+        <v>418900</v>
       </c>
       <c r="H33" s="3">
-        <v>128400</v>
+        <v>133100</v>
       </c>
       <c r="I33" s="3">
-        <v>100700</v>
+        <v>104400</v>
       </c>
       <c r="J33" s="3">
-        <v>47500</v>
+        <v>49200</v>
       </c>
       <c r="K33" s="3">
         <v>110400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>619000</v>
+        <v>641700</v>
       </c>
       <c r="E35" s="3">
-        <v>494800</v>
+        <v>512900</v>
       </c>
       <c r="F35" s="3">
-        <v>379500</v>
+        <v>393500</v>
       </c>
       <c r="G35" s="3">
-        <v>404100</v>
+        <v>418900</v>
       </c>
       <c r="H35" s="3">
-        <v>128400</v>
+        <v>133100</v>
       </c>
       <c r="I35" s="3">
-        <v>100700</v>
+        <v>104400</v>
       </c>
       <c r="J35" s="3">
-        <v>47500</v>
+        <v>49200</v>
       </c>
       <c r="K35" s="3">
         <v>110400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>826600</v>
+        <v>856900</v>
       </c>
       <c r="E41" s="3">
-        <v>1057600</v>
+        <v>1096400</v>
       </c>
       <c r="F41" s="3">
-        <v>905400</v>
+        <v>938600</v>
       </c>
       <c r="G41" s="3">
-        <v>850400</v>
+        <v>881600</v>
       </c>
       <c r="H41" s="3">
-        <v>737200</v>
+        <v>764200</v>
       </c>
       <c r="I41" s="3">
-        <v>675800</v>
+        <v>700600</v>
       </c>
       <c r="J41" s="3">
-        <v>605700</v>
+        <v>627900</v>
       </c>
       <c r="K41" s="3">
         <v>832300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>582500</v>
+        <v>603800</v>
       </c>
       <c r="E43" s="3">
-        <v>404300</v>
+        <v>419200</v>
       </c>
       <c r="F43" s="3">
-        <v>329200</v>
+        <v>341200</v>
       </c>
       <c r="G43" s="3">
-        <v>367200</v>
+        <v>380600</v>
       </c>
       <c r="H43" s="3">
-        <v>268900</v>
+        <v>278800</v>
       </c>
       <c r="I43" s="3">
-        <v>230100</v>
+        <v>238500</v>
       </c>
       <c r="J43" s="3">
-        <v>198600</v>
+        <v>205800</v>
       </c>
       <c r="K43" s="3">
         <v>212900</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>673600</v>
+        <v>698300</v>
       </c>
       <c r="E44" s="3">
-        <v>456200</v>
+        <v>472900</v>
       </c>
       <c r="F44" s="3">
-        <v>417900</v>
+        <v>433200</v>
       </c>
       <c r="G44" s="3">
-        <v>404800</v>
+        <v>419700</v>
       </c>
       <c r="H44" s="3">
-        <v>351900</v>
+        <v>364800</v>
       </c>
       <c r="I44" s="3">
-        <v>277200</v>
+        <v>287300</v>
       </c>
       <c r="J44" s="3">
-        <v>240400</v>
+        <v>249300</v>
       </c>
       <c r="K44" s="3">
         <v>317400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>79400</v>
+        <v>82300</v>
       </c>
       <c r="E45" s="3">
-        <v>60700</v>
+        <v>62900</v>
       </c>
       <c r="F45" s="3">
-        <v>50100</v>
+        <v>52000</v>
       </c>
       <c r="G45" s="3">
+        <v>32500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>41300</v>
+      </c>
+      <c r="I45" s="3">
         <v>31400</v>
       </c>
-      <c r="H45" s="3">
-        <v>39800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>30300</v>
-      </c>
       <c r="J45" s="3">
-        <v>21600</v>
+        <v>22400</v>
       </c>
       <c r="K45" s="3">
         <v>43100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2162100</v>
+        <v>2241300</v>
       </c>
       <c r="E46" s="3">
-        <v>1978800</v>
+        <v>2051300</v>
       </c>
       <c r="F46" s="3">
-        <v>1702600</v>
+        <v>1765000</v>
       </c>
       <c r="G46" s="3">
-        <v>1653700</v>
+        <v>1714400</v>
       </c>
       <c r="H46" s="3">
-        <v>1397700</v>
+        <v>1449000</v>
       </c>
       <c r="I46" s="3">
-        <v>1213400</v>
+        <v>1257900</v>
       </c>
       <c r="J46" s="3">
-        <v>1066300</v>
+        <v>1105400</v>
       </c>
       <c r="K46" s="3">
         <v>1405800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>105700</v>
+        <v>109600</v>
       </c>
       <c r="E47" s="3">
-        <v>74300</v>
+        <v>77000</v>
       </c>
       <c r="F47" s="3">
-        <v>21300</v>
+        <v>22100</v>
       </c>
       <c r="G47" s="3">
-        <v>22800</v>
+        <v>23600</v>
       </c>
       <c r="H47" s="3">
-        <v>19600</v>
+        <v>20400</v>
       </c>
       <c r="I47" s="3">
-        <v>26900</v>
+        <v>27800</v>
       </c>
       <c r="J47" s="3">
-        <v>27200</v>
+        <v>28200</v>
       </c>
       <c r="K47" s="3">
         <v>19200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>454000</v>
+        <v>470700</v>
       </c>
       <c r="E48" s="3">
-        <v>377800</v>
+        <v>391600</v>
       </c>
       <c r="F48" s="3">
-        <v>328000</v>
+        <v>340000</v>
       </c>
       <c r="G48" s="3">
-        <v>218300</v>
+        <v>226300</v>
       </c>
       <c r="H48" s="3">
-        <v>207300</v>
+        <v>214900</v>
       </c>
       <c r="I48" s="3">
-        <v>212100</v>
+        <v>219900</v>
       </c>
       <c r="J48" s="3">
-        <v>223000</v>
+        <v>231200</v>
       </c>
       <c r="K48" s="3">
         <v>328200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>604800</v>
+        <v>627000</v>
       </c>
       <c r="E49" s="3">
-        <v>386700</v>
+        <v>400900</v>
       </c>
       <c r="F49" s="3">
-        <v>361800</v>
+        <v>375000</v>
       </c>
       <c r="G49" s="3">
-        <v>185200</v>
+        <v>192000</v>
       </c>
       <c r="H49" s="3">
-        <v>108400</v>
+        <v>112400</v>
       </c>
       <c r="I49" s="3">
-        <v>116800</v>
+        <v>121100</v>
       </c>
       <c r="J49" s="3">
-        <v>118600</v>
+        <v>122900</v>
       </c>
       <c r="K49" s="3">
         <v>500500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>180800</v>
+        <v>187400</v>
       </c>
       <c r="E52" s="3">
-        <v>179000</v>
+        <v>185500</v>
       </c>
       <c r="F52" s="3">
-        <v>108800</v>
+        <v>112800</v>
       </c>
       <c r="G52" s="3">
-        <v>79500</v>
+        <v>82400</v>
       </c>
       <c r="H52" s="3">
-        <v>71800</v>
+        <v>74400</v>
       </c>
       <c r="I52" s="3">
-        <v>72900</v>
+        <v>75600</v>
       </c>
       <c r="J52" s="3">
-        <v>57000</v>
+        <v>59100</v>
       </c>
       <c r="K52" s="3">
         <v>75400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3507400</v>
+        <v>3636000</v>
       </c>
       <c r="E54" s="3">
-        <v>2996500</v>
+        <v>3106400</v>
       </c>
       <c r="F54" s="3">
-        <v>2522500</v>
+        <v>2615000</v>
       </c>
       <c r="G54" s="3">
-        <v>2159500</v>
+        <v>2238700</v>
       </c>
       <c r="H54" s="3">
-        <v>1804800</v>
+        <v>1871000</v>
       </c>
       <c r="I54" s="3">
-        <v>1642100</v>
+        <v>1702300</v>
       </c>
       <c r="J54" s="3">
-        <v>1492100</v>
+        <v>1546800</v>
       </c>
       <c r="K54" s="3">
         <v>2329000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>351400</v>
+        <v>364300</v>
       </c>
       <c r="E57" s="3">
-        <v>285800</v>
+        <v>296200</v>
       </c>
       <c r="F57" s="3">
-        <v>222900</v>
+        <v>231000</v>
       </c>
       <c r="G57" s="3">
-        <v>202400</v>
+        <v>209800</v>
       </c>
       <c r="H57" s="3">
-        <v>222500</v>
+        <v>230600</v>
       </c>
       <c r="I57" s="3">
-        <v>135900</v>
+        <v>140900</v>
       </c>
       <c r="J57" s="3">
-        <v>94300</v>
+        <v>97800</v>
       </c>
       <c r="K57" s="3">
         <v>154400</v>
@@ -2177,22 +2177,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>150900</v>
+        <v>156400</v>
       </c>
       <c r="E58" s="3">
-        <v>17600</v>
+        <v>18300</v>
       </c>
       <c r="F58" s="3">
-        <v>16100</v>
+        <v>16700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H58" s="3">
-        <v>211800</v>
+        <v>219600</v>
       </c>
       <c r="I58" s="3">
-        <v>106300</v>
+        <v>110300</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>567500</v>
+        <v>588300</v>
       </c>
       <c r="E59" s="3">
-        <v>333400</v>
+        <v>345600</v>
       </c>
       <c r="F59" s="3">
-        <v>261100</v>
+        <v>270700</v>
       </c>
       <c r="G59" s="3">
-        <v>243200</v>
+        <v>252100</v>
       </c>
       <c r="H59" s="3">
-        <v>184000</v>
+        <v>190700</v>
       </c>
       <c r="I59" s="3">
-        <v>122400</v>
+        <v>126900</v>
       </c>
       <c r="J59" s="3">
-        <v>114400</v>
+        <v>118500</v>
       </c>
       <c r="K59" s="3">
         <v>184100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1069800</v>
+        <v>1109000</v>
       </c>
       <c r="E60" s="3">
-        <v>636800</v>
+        <v>660100</v>
       </c>
       <c r="F60" s="3">
-        <v>500100</v>
+        <v>518400</v>
       </c>
       <c r="G60" s="3">
-        <v>445600</v>
+        <v>461900</v>
       </c>
       <c r="H60" s="3">
-        <v>618200</v>
+        <v>640900</v>
       </c>
       <c r="I60" s="3">
-        <v>364700</v>
+        <v>378000</v>
       </c>
       <c r="J60" s="3">
-        <v>208700</v>
+        <v>216300</v>
       </c>
       <c r="K60" s="3">
         <v>423800</v>
@@ -2276,13 +2276,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>157300</v>
+        <v>163100</v>
       </c>
       <c r="E61" s="3">
-        <v>66400</v>
+        <v>68800</v>
       </c>
       <c r="F61" s="3">
-        <v>63900</v>
+        <v>66200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2291,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>210900</v>
+        <v>218600</v>
       </c>
       <c r="J61" s="3">
-        <v>316300</v>
+        <v>327900</v>
       </c>
       <c r="K61" s="3">
         <v>384900</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>191500</v>
+        <v>198500</v>
       </c>
       <c r="E62" s="3">
-        <v>305600</v>
+        <v>316800</v>
       </c>
       <c r="F62" s="3">
-        <v>317500</v>
+        <v>329100</v>
       </c>
       <c r="G62" s="3">
-        <v>304900</v>
+        <v>316100</v>
       </c>
       <c r="H62" s="3">
-        <v>303100</v>
+        <v>314200</v>
       </c>
       <c r="I62" s="3">
-        <v>290000</v>
+        <v>300700</v>
       </c>
       <c r="J62" s="3">
-        <v>303300</v>
+        <v>314400</v>
       </c>
       <c r="K62" s="3">
         <v>318200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1418500</v>
+        <v>1470600</v>
       </c>
       <c r="E66" s="3">
-        <v>1008700</v>
+        <v>1045700</v>
       </c>
       <c r="F66" s="3">
-        <v>881500</v>
+        <v>913800</v>
       </c>
       <c r="G66" s="3">
-        <v>750500</v>
+        <v>778000</v>
       </c>
       <c r="H66" s="3">
-        <v>921300</v>
+        <v>955100</v>
       </c>
       <c r="I66" s="3">
-        <v>865600</v>
+        <v>897300</v>
       </c>
       <c r="J66" s="3">
-        <v>828300</v>
+        <v>858700</v>
       </c>
       <c r="K66" s="3">
         <v>1126800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1984000</v>
+        <v>2056700</v>
       </c>
       <c r="E72" s="3">
-        <v>1523300</v>
+        <v>1579200</v>
       </c>
       <c r="F72" s="3">
-        <v>1133000</v>
+        <v>1174600</v>
       </c>
       <c r="G72" s="3">
-        <v>892800</v>
+        <v>925600</v>
       </c>
       <c r="H72" s="3">
-        <v>887700</v>
+        <v>920200</v>
       </c>
       <c r="I72" s="3">
-        <v>806000</v>
+        <v>835500</v>
       </c>
       <c r="J72" s="3">
-        <v>745800</v>
+        <v>773100</v>
       </c>
       <c r="K72" s="3">
         <v>1203600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2088900</v>
+        <v>2165500</v>
       </c>
       <c r="E76" s="3">
-        <v>1987800</v>
+        <v>2060700</v>
       </c>
       <c r="F76" s="3">
-        <v>1641000</v>
+        <v>1701200</v>
       </c>
       <c r="G76" s="3">
-        <v>1409000</v>
+        <v>1460700</v>
       </c>
       <c r="H76" s="3">
-        <v>883500</v>
+        <v>915900</v>
       </c>
       <c r="I76" s="3">
-        <v>776500</v>
+        <v>804900</v>
       </c>
       <c r="J76" s="3">
-        <v>663800</v>
+        <v>688100</v>
       </c>
       <c r="K76" s="3">
         <v>1202200</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>619000</v>
+        <v>641700</v>
       </c>
       <c r="E81" s="3">
-        <v>494800</v>
+        <v>512900</v>
       </c>
       <c r="F81" s="3">
-        <v>379500</v>
+        <v>393500</v>
       </c>
       <c r="G81" s="3">
-        <v>404100</v>
+        <v>418900</v>
       </c>
       <c r="H81" s="3">
-        <v>128400</v>
+        <v>133100</v>
       </c>
       <c r="I81" s="3">
-        <v>100700</v>
+        <v>104400</v>
       </c>
       <c r="J81" s="3">
-        <v>47500</v>
+        <v>49200</v>
       </c>
       <c r="K81" s="3">
         <v>110400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>106100</v>
+        <v>110000</v>
       </c>
       <c r="E83" s="3">
-        <v>83400</v>
+        <v>86400</v>
       </c>
       <c r="F83" s="3">
-        <v>77200</v>
+        <v>80100</v>
       </c>
       <c r="G83" s="3">
-        <v>35200</v>
+        <v>36500</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I83" s="3">
-        <v>36600</v>
+        <v>37900</v>
       </c>
       <c r="J83" s="3">
-        <v>35200</v>
+        <v>36500</v>
       </c>
       <c r="K83" s="3">
         <v>43200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>559300</v>
+        <v>579800</v>
       </c>
       <c r="E89" s="3">
-        <v>480900</v>
+        <v>498600</v>
       </c>
       <c r="F89" s="3">
-        <v>471300</v>
+        <v>488600</v>
       </c>
       <c r="G89" s="3">
-        <v>317600</v>
+        <v>329200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I89" s="3">
-        <v>112300</v>
+        <v>116400</v>
       </c>
       <c r="J89" s="3">
-        <v>54800</v>
+        <v>56800</v>
       </c>
       <c r="K89" s="3">
         <v>208800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-121700</v>
+        <v>-126100</v>
       </c>
       <c r="E91" s="3">
-        <v>-88000</v>
+        <v>-91300</v>
       </c>
       <c r="F91" s="3">
-        <v>-57700</v>
+        <v>-59800</v>
       </c>
       <c r="G91" s="3">
-        <v>-41800</v>
+        <v>-43300</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I91" s="3">
-        <v>-28500</v>
+        <v>-29500</v>
       </c>
       <c r="J91" s="3">
-        <v>-22100</v>
+        <v>-22900</v>
       </c>
       <c r="K91" s="3">
         <v>-27600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-332600</v>
+        <v>-344800</v>
       </c>
       <c r="E94" s="3">
-        <v>-119300</v>
+        <v>-123700</v>
       </c>
       <c r="F94" s="3">
-        <v>-275200</v>
+        <v>-285300</v>
       </c>
       <c r="G94" s="3">
-        <v>-112800</v>
+        <v>-117000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I94" s="3">
-        <v>-25000</v>
+        <v>-25900</v>
       </c>
       <c r="J94" s="3">
-        <v>-17000</v>
+        <v>-17600</v>
       </c>
       <c r="K94" s="3">
         <v>-11200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-180500</v>
+        <v>-187100</v>
       </c>
       <c r="E96" s="3">
-        <v>-110600</v>
+        <v>-114600</v>
       </c>
       <c r="F96" s="3">
-        <v>-116500</v>
+        <v>-120700</v>
       </c>
       <c r="G96" s="3">
-        <v>-97700</v>
+        <v>-101300</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-28500</v>
+        <v>-29500</v>
       </c>
       <c r="J96" s="3">
-        <v>-24700</v>
+        <v>-25600</v>
       </c>
       <c r="K96" s="3">
         <v>-14900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-487300</v>
+        <v>-505200</v>
       </c>
       <c r="E100" s="3">
-        <v>-215600</v>
+        <v>-223600</v>
       </c>
       <c r="F100" s="3">
-        <v>-127000</v>
+        <v>-131700</v>
       </c>
       <c r="G100" s="3">
-        <v>-97300</v>
+        <v>-100900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I100" s="3">
-        <v>-7100</v>
+        <v>-7400</v>
       </c>
       <c r="J100" s="3">
-        <v>-95900</v>
+        <v>-99500</v>
       </c>
       <c r="K100" s="3">
         <v>-11100</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>29600</v>
+        <v>30700</v>
       </c>
       <c r="E101" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="F101" s="3">
-        <v>-14000</v>
+        <v>-14600</v>
       </c>
       <c r="G101" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I101" s="3">
-        <v>-10000</v>
+        <v>-10400</v>
       </c>
       <c r="J101" s="3">
-        <v>-28000</v>
+        <v>-29000</v>
       </c>
       <c r="K101" s="3">
         <v>57200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-231000</v>
+        <v>-239500</v>
       </c>
       <c r="E102" s="3">
-        <v>152200</v>
+        <v>157700</v>
       </c>
       <c r="F102" s="3">
-        <v>55000</v>
+        <v>57000</v>
       </c>
       <c r="G102" s="3">
-        <v>113200</v>
+        <v>117400</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I102" s="3">
-        <v>70100</v>
+        <v>72700</v>
       </c>
       <c r="J102" s="3">
-        <v>-86100</v>
+        <v>-89300</v>
       </c>
       <c r="K102" s="3">
         <v>243800</v>

--- a/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>ATEYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3064200</v>
+        <v>4039000</v>
       </c>
       <c r="E8" s="3">
-        <v>2299000</v>
+        <v>3005900</v>
       </c>
       <c r="F8" s="3">
-        <v>2027800</v>
+        <v>2255200</v>
       </c>
       <c r="G8" s="3">
-        <v>2076100</v>
+        <v>1989200</v>
       </c>
       <c r="H8" s="3">
-        <v>1523100</v>
+        <v>2036500</v>
       </c>
       <c r="I8" s="3">
-        <v>1146000</v>
+        <v>1494100</v>
       </c>
       <c r="J8" s="3">
+        <v>1124200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1191500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1393200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1024800</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1330300</v>
+        <v>1738500</v>
       </c>
       <c r="E9" s="3">
-        <v>1062100</v>
+        <v>1305000</v>
       </c>
       <c r="F9" s="3">
-        <v>877600</v>
+        <v>1041800</v>
       </c>
       <c r="G9" s="3">
-        <v>943900</v>
+        <v>860900</v>
       </c>
       <c r="H9" s="3">
-        <v>739700</v>
+        <v>925900</v>
       </c>
       <c r="I9" s="3">
-        <v>486400</v>
+        <v>725600</v>
       </c>
       <c r="J9" s="3">
+        <v>477100</v>
+      </c>
+      <c r="K9" s="3">
         <v>519200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>621900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>572900</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1733900</v>
+        <v>2300400</v>
       </c>
       <c r="E10" s="3">
-        <v>1236900</v>
+        <v>1700900</v>
       </c>
       <c r="F10" s="3">
-        <v>1150300</v>
+        <v>1213400</v>
       </c>
       <c r="G10" s="3">
-        <v>1132200</v>
+        <v>1128300</v>
       </c>
       <c r="H10" s="3">
-        <v>783400</v>
+        <v>1110600</v>
       </c>
       <c r="I10" s="3">
-        <v>659600</v>
+        <v>768500</v>
       </c>
       <c r="J10" s="3">
+        <v>647000</v>
+      </c>
+      <c r="K10" s="3">
         <v>672300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>771300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>451900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,15 +864,18 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3">
         <v>254800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>299300</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,26 +906,29 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>-40900</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>-18600</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-18200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -917,48 +936,54 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>119700</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>82700</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>71800</v>
+        <v>81100</v>
       </c>
       <c r="F15" s="3">
-        <v>56600</v>
+        <v>70500</v>
       </c>
       <c r="G15" s="3">
-        <v>28500</v>
+        <v>55500</v>
       </c>
       <c r="H15" s="3">
-        <v>30100</v>
+        <v>27900</v>
       </c>
       <c r="I15" s="3">
-        <v>28600</v>
+        <v>29600</v>
       </c>
       <c r="J15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K15" s="3">
         <v>25300</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2220900</v>
+        <v>2830000</v>
       </c>
       <c r="E17" s="3">
-        <v>1779200</v>
+        <v>2178600</v>
       </c>
       <c r="F17" s="3">
-        <v>1596300</v>
+        <v>1745300</v>
       </c>
       <c r="G17" s="3">
-        <v>1600800</v>
+        <v>1565900</v>
       </c>
       <c r="H17" s="3">
-        <v>1343100</v>
+        <v>1570300</v>
       </c>
       <c r="I17" s="3">
-        <v>1043800</v>
+        <v>1317500</v>
       </c>
       <c r="J17" s="3">
+        <v>1023900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1098900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1268500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1355900</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>843300</v>
+        <v>1209000</v>
       </c>
       <c r="E18" s="3">
-        <v>519800</v>
+        <v>827200</v>
       </c>
       <c r="F18" s="3">
-        <v>431500</v>
+        <v>509900</v>
       </c>
       <c r="G18" s="3">
-        <v>475300</v>
+        <v>423300</v>
       </c>
       <c r="H18" s="3">
-        <v>180000</v>
+        <v>466200</v>
       </c>
       <c r="I18" s="3">
-        <v>102200</v>
+        <v>176600</v>
       </c>
       <c r="J18" s="3">
+        <v>100300</v>
+      </c>
+      <c r="K18" s="3">
         <v>92600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>124700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-331100</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13900</v>
+        <v>25800</v>
       </c>
       <c r="E20" s="3">
-        <v>-6800</v>
+        <v>13600</v>
       </c>
       <c r="F20" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>12000</v>
-      </c>
       <c r="H20" s="3">
+        <v>11700</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
-        <v>9800</v>
-      </c>
       <c r="J20" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>37300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9200</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>966100</v>
+        <v>1390200</v>
       </c>
       <c r="E21" s="3">
-        <v>598600</v>
+        <v>949500</v>
       </c>
       <c r="F21" s="3">
-        <v>511000</v>
+        <v>588600</v>
       </c>
       <c r="G21" s="3">
-        <v>523400</v>
-      </c>
-      <c r="H21" s="3" t="s">
+        <v>502500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>514000</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
-        <v>149600</v>
-      </c>
       <c r="J21" s="3">
+        <v>147300</v>
+      </c>
+      <c r="K21" s="3">
         <v>124200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>205700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-245800</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>2100</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
-        <v>1100</v>
-      </c>
       <c r="I22" s="3">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="J22" s="3">
         <v>1600</v>
       </c>
       <c r="K22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>855100</v>
+        <v>1234900</v>
       </c>
       <c r="E23" s="3">
-        <v>511700</v>
+        <v>838800</v>
       </c>
       <c r="F23" s="3">
-        <v>430500</v>
+        <v>501900</v>
       </c>
       <c r="G23" s="3">
-        <v>486700</v>
+        <v>422300</v>
       </c>
       <c r="H23" s="3">
-        <v>178500</v>
+        <v>477400</v>
       </c>
       <c r="I23" s="3">
-        <v>110400</v>
+        <v>175100</v>
       </c>
       <c r="J23" s="3">
+        <v>108300</v>
+      </c>
+      <c r="K23" s="3">
         <v>86500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>160900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-323100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>213500</v>
+        <v>294700</v>
       </c>
       <c r="E24" s="3">
+        <v>209400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1200</v>
       </c>
-      <c r="F24" s="3">
-        <v>37100</v>
-      </c>
       <c r="G24" s="3">
-        <v>67800</v>
+        <v>36400</v>
       </c>
       <c r="H24" s="3">
-        <v>45400</v>
+        <v>66500</v>
       </c>
       <c r="I24" s="3">
-        <v>6000</v>
+        <v>44600</v>
       </c>
       <c r="J24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K24" s="3">
         <v>37300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>50400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>641700</v>
+        <v>940200</v>
       </c>
       <c r="E26" s="3">
-        <v>512900</v>
+        <v>629400</v>
       </c>
       <c r="F26" s="3">
-        <v>393500</v>
+        <v>503200</v>
       </c>
       <c r="G26" s="3">
-        <v>418900</v>
+        <v>386000</v>
       </c>
       <c r="H26" s="3">
-        <v>133100</v>
+        <v>410900</v>
       </c>
       <c r="I26" s="3">
-        <v>104400</v>
+        <v>130500</v>
       </c>
       <c r="J26" s="3">
+        <v>102400</v>
+      </c>
+      <c r="K26" s="3">
         <v>49200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>110400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-323700</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>641700</v>
+        <v>940200</v>
       </c>
       <c r="E27" s="3">
-        <v>512900</v>
+        <v>629400</v>
       </c>
       <c r="F27" s="3">
-        <v>393500</v>
+        <v>503200</v>
       </c>
       <c r="G27" s="3">
-        <v>418900</v>
+        <v>386000</v>
       </c>
       <c r="H27" s="3">
-        <v>133100</v>
+        <v>410900</v>
       </c>
       <c r="I27" s="3">
-        <v>104400</v>
+        <v>130500</v>
       </c>
       <c r="J27" s="3">
+        <v>102400</v>
+      </c>
+      <c r="K27" s="3">
         <v>49200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>110400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-323500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13900</v>
+        <v>-25800</v>
       </c>
       <c r="E32" s="3">
-        <v>6800</v>
+        <v>-13600</v>
       </c>
       <c r="F32" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-12000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
-        <v>-9800</v>
-      </c>
       <c r="J32" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K32" s="3">
         <v>4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-37300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9200</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>641700</v>
+        <v>940200</v>
       </c>
       <c r="E33" s="3">
-        <v>512900</v>
+        <v>629400</v>
       </c>
       <c r="F33" s="3">
-        <v>393500</v>
+        <v>503200</v>
       </c>
       <c r="G33" s="3">
-        <v>418900</v>
+        <v>386000</v>
       </c>
       <c r="H33" s="3">
-        <v>133100</v>
+        <v>410900</v>
       </c>
       <c r="I33" s="3">
-        <v>104400</v>
+        <v>130500</v>
       </c>
       <c r="J33" s="3">
+        <v>102400</v>
+      </c>
+      <c r="K33" s="3">
         <v>49200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>110400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-323500</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>641700</v>
+        <v>940200</v>
       </c>
       <c r="E35" s="3">
-        <v>512900</v>
+        <v>629400</v>
       </c>
       <c r="F35" s="3">
-        <v>393500</v>
+        <v>503200</v>
       </c>
       <c r="G35" s="3">
-        <v>418900</v>
+        <v>386000</v>
       </c>
       <c r="H35" s="3">
-        <v>133100</v>
+        <v>410900</v>
       </c>
       <c r="I35" s="3">
-        <v>104400</v>
+        <v>130500</v>
       </c>
       <c r="J35" s="3">
+        <v>102400</v>
+      </c>
+      <c r="K35" s="3">
         <v>49200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>110400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-323500</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>856900</v>
+        <v>616700</v>
       </c>
       <c r="E41" s="3">
-        <v>1096400</v>
+        <v>840600</v>
       </c>
       <c r="F41" s="3">
-        <v>938600</v>
+        <v>1075500</v>
       </c>
       <c r="G41" s="3">
-        <v>881600</v>
+        <v>920700</v>
       </c>
       <c r="H41" s="3">
-        <v>764200</v>
+        <v>864800</v>
       </c>
       <c r="I41" s="3">
-        <v>700600</v>
+        <v>749600</v>
       </c>
       <c r="J41" s="3">
+        <v>687300</v>
+      </c>
+      <c r="K41" s="3">
         <v>627900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>832300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>632000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,240 +1800,264 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>603800</v>
+        <v>736500</v>
       </c>
       <c r="E43" s="3">
-        <v>419200</v>
+        <v>592300</v>
       </c>
       <c r="F43" s="3">
-        <v>341200</v>
+        <v>411200</v>
       </c>
       <c r="G43" s="3">
-        <v>380600</v>
+        <v>334700</v>
       </c>
       <c r="H43" s="3">
-        <v>278800</v>
+        <v>373400</v>
       </c>
       <c r="I43" s="3">
-        <v>238500</v>
+        <v>273500</v>
       </c>
       <c r="J43" s="3">
+        <v>234000</v>
+      </c>
+      <c r="K43" s="3">
         <v>205800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>212900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>186900</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>698300</v>
+        <v>1219100</v>
       </c>
       <c r="E44" s="3">
-        <v>472900</v>
+        <v>685000</v>
       </c>
       <c r="F44" s="3">
-        <v>433200</v>
+        <v>463900</v>
       </c>
       <c r="G44" s="3">
-        <v>419700</v>
+        <v>425000</v>
       </c>
       <c r="H44" s="3">
-        <v>364800</v>
+        <v>411700</v>
       </c>
       <c r="I44" s="3">
-        <v>287300</v>
+        <v>357800</v>
       </c>
       <c r="J44" s="3">
+        <v>281900</v>
+      </c>
+      <c r="K44" s="3">
         <v>249300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>317400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>276600</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>82300</v>
+        <v>129200</v>
       </c>
       <c r="E45" s="3">
-        <v>62900</v>
+        <v>80700</v>
       </c>
       <c r="F45" s="3">
-        <v>52000</v>
+        <v>61700</v>
       </c>
       <c r="G45" s="3">
-        <v>32500</v>
+        <v>51000</v>
       </c>
       <c r="H45" s="3">
-        <v>41300</v>
+        <v>31900</v>
       </c>
       <c r="I45" s="3">
-        <v>31400</v>
+        <v>40500</v>
       </c>
       <c r="J45" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K45" s="3">
         <v>22400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>43100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>47800</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2241300</v>
+        <v>2701600</v>
       </c>
       <c r="E46" s="3">
-        <v>2051300</v>
+        <v>2198700</v>
       </c>
       <c r="F46" s="3">
-        <v>1765000</v>
+        <v>2012300</v>
       </c>
       <c r="G46" s="3">
-        <v>1714400</v>
+        <v>1731400</v>
       </c>
       <c r="H46" s="3">
-        <v>1449000</v>
+        <v>1681700</v>
       </c>
       <c r="I46" s="3">
-        <v>1257900</v>
+        <v>1421400</v>
       </c>
       <c r="J46" s="3">
+        <v>1233900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1105400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1405800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1143300</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>109600</v>
+        <v>157800</v>
       </c>
       <c r="E47" s="3">
-        <v>77000</v>
+        <v>107500</v>
       </c>
       <c r="F47" s="3">
-        <v>22100</v>
+        <v>75600</v>
       </c>
       <c r="G47" s="3">
-        <v>23600</v>
+        <v>21700</v>
       </c>
       <c r="H47" s="3">
-        <v>20400</v>
+        <v>23200</v>
       </c>
       <c r="I47" s="3">
-        <v>27800</v>
+        <v>20000</v>
       </c>
       <c r="J47" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K47" s="3">
         <v>28200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>34300</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>470700</v>
+        <v>586600</v>
       </c>
       <c r="E48" s="3">
-        <v>391600</v>
+        <v>461700</v>
       </c>
       <c r="F48" s="3">
-        <v>340000</v>
+        <v>384200</v>
       </c>
       <c r="G48" s="3">
-        <v>226300</v>
+        <v>333500</v>
       </c>
       <c r="H48" s="3">
-        <v>214900</v>
+        <v>222000</v>
       </c>
       <c r="I48" s="3">
-        <v>219900</v>
+        <v>210800</v>
       </c>
       <c r="J48" s="3">
+        <v>215700</v>
+      </c>
+      <c r="K48" s="3">
         <v>231200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>328200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>365700</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>627000</v>
+        <v>690500</v>
       </c>
       <c r="E49" s="3">
-        <v>400900</v>
+        <v>615100</v>
       </c>
       <c r="F49" s="3">
-        <v>375000</v>
+        <v>393300</v>
       </c>
       <c r="G49" s="3">
-        <v>192000</v>
+        <v>367900</v>
       </c>
       <c r="H49" s="3">
-        <v>112400</v>
+        <v>188300</v>
       </c>
       <c r="I49" s="3">
-        <v>121100</v>
+        <v>110200</v>
       </c>
       <c r="J49" s="3">
+        <v>118800</v>
+      </c>
+      <c r="K49" s="3">
         <v>122900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>500500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>461600</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>187400</v>
+        <v>191200</v>
       </c>
       <c r="E52" s="3">
-        <v>185500</v>
+        <v>183800</v>
       </c>
       <c r="F52" s="3">
-        <v>112800</v>
+        <v>182000</v>
       </c>
       <c r="G52" s="3">
-        <v>82400</v>
+        <v>110700</v>
       </c>
       <c r="H52" s="3">
-        <v>74400</v>
+        <v>80800</v>
       </c>
       <c r="I52" s="3">
-        <v>75600</v>
+        <v>73000</v>
       </c>
       <c r="J52" s="3">
+        <v>74100</v>
+      </c>
+      <c r="K52" s="3">
         <v>59100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>75400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100600</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3636000</v>
+        <v>4327600</v>
       </c>
       <c r="E54" s="3">
-        <v>3106400</v>
+        <v>3566800</v>
       </c>
       <c r="F54" s="3">
-        <v>2615000</v>
+        <v>3047200</v>
       </c>
       <c r="G54" s="3">
-        <v>2238700</v>
+        <v>2565200</v>
       </c>
       <c r="H54" s="3">
-        <v>1871000</v>
+        <v>2196000</v>
       </c>
       <c r="I54" s="3">
-        <v>1702300</v>
+        <v>1835400</v>
       </c>
       <c r="J54" s="3">
+        <v>1669900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1546800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2329000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2105500</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>364300</v>
+        <v>643600</v>
       </c>
       <c r="E57" s="3">
-        <v>296200</v>
+        <v>357400</v>
       </c>
       <c r="F57" s="3">
-        <v>231000</v>
+        <v>290600</v>
       </c>
       <c r="G57" s="3">
-        <v>209800</v>
+        <v>226600</v>
       </c>
       <c r="H57" s="3">
-        <v>230600</v>
+        <v>205900</v>
       </c>
       <c r="I57" s="3">
-        <v>140900</v>
+        <v>226200</v>
       </c>
       <c r="J57" s="3">
+        <v>138200</v>
+      </c>
+      <c r="K57" s="3">
         <v>97800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>154400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>113200</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>156400</v>
+        <v>129400</v>
       </c>
       <c r="E58" s="3">
-        <v>18300</v>
+        <v>153400</v>
       </c>
       <c r="F58" s="3">
-        <v>16700</v>
-      </c>
-      <c r="G58" s="3" t="s">
+        <v>17900</v>
+      </c>
+      <c r="G58" s="3">
+        <v>16400</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>219600</v>
-      </c>
       <c r="I58" s="3">
-        <v>110300</v>
-      </c>
-      <c r="J58" s="3" t="s">
+        <v>215400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>108200</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>85300</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>588300</v>
+        <v>486600</v>
       </c>
       <c r="E59" s="3">
-        <v>345600</v>
+        <v>577100</v>
       </c>
       <c r="F59" s="3">
-        <v>270700</v>
+        <v>339000</v>
       </c>
       <c r="G59" s="3">
-        <v>252100</v>
+        <v>265500</v>
       </c>
       <c r="H59" s="3">
-        <v>190700</v>
+        <v>247300</v>
       </c>
       <c r="I59" s="3">
-        <v>126900</v>
+        <v>187100</v>
       </c>
       <c r="J59" s="3">
+        <v>124500</v>
+      </c>
+      <c r="K59" s="3">
         <v>118500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>184100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>130600</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1109000</v>
+        <v>1259500</v>
       </c>
       <c r="E60" s="3">
-        <v>660100</v>
+        <v>1087900</v>
       </c>
       <c r="F60" s="3">
-        <v>518400</v>
+        <v>647500</v>
       </c>
       <c r="G60" s="3">
-        <v>461900</v>
+        <v>508600</v>
       </c>
       <c r="H60" s="3">
-        <v>640900</v>
+        <v>453100</v>
       </c>
       <c r="I60" s="3">
-        <v>378000</v>
+        <v>628700</v>
       </c>
       <c r="J60" s="3">
+        <v>370800</v>
+      </c>
+      <c r="K60" s="3">
         <v>216300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>423800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>243700</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>163100</v>
+        <v>237200</v>
       </c>
       <c r="E61" s="3">
-        <v>68800</v>
+        <v>160000</v>
       </c>
       <c r="F61" s="3">
-        <v>66200</v>
+        <v>67500</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>65000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>218600</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>214500</v>
+      </c>
+      <c r="K61" s="3">
         <v>327900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>384900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>505200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>198500</v>
+        <v>172600</v>
       </c>
       <c r="E62" s="3">
-        <v>316800</v>
+        <v>194700</v>
       </c>
       <c r="F62" s="3">
-        <v>329100</v>
+        <v>310700</v>
       </c>
       <c r="G62" s="3">
-        <v>316100</v>
+        <v>322800</v>
       </c>
       <c r="H62" s="3">
-        <v>314200</v>
+        <v>310000</v>
       </c>
       <c r="I62" s="3">
-        <v>300700</v>
+        <v>308200</v>
       </c>
       <c r="J62" s="3">
+        <v>294900</v>
+      </c>
+      <c r="K62" s="3">
         <v>314400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>318200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>291700</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1470600</v>
+        <v>1669300</v>
       </c>
       <c r="E66" s="3">
-        <v>1045700</v>
+        <v>1442500</v>
       </c>
       <c r="F66" s="3">
-        <v>913800</v>
+        <v>1025800</v>
       </c>
       <c r="G66" s="3">
-        <v>778000</v>
+        <v>896400</v>
       </c>
       <c r="H66" s="3">
-        <v>955100</v>
+        <v>763200</v>
       </c>
       <c r="I66" s="3">
-        <v>897300</v>
+        <v>936900</v>
       </c>
       <c r="J66" s="3">
+        <v>880200</v>
+      </c>
+      <c r="K66" s="3">
         <v>858700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1126800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1040600</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2056700</v>
+        <v>2301200</v>
       </c>
       <c r="E72" s="3">
-        <v>1579200</v>
+        <v>2017600</v>
       </c>
       <c r="F72" s="3">
-        <v>1174600</v>
+        <v>1549100</v>
       </c>
       <c r="G72" s="3">
-        <v>925600</v>
+        <v>1152200</v>
       </c>
       <c r="H72" s="3">
-        <v>920200</v>
+        <v>907900</v>
       </c>
       <c r="I72" s="3">
-        <v>835500</v>
+        <v>902700</v>
       </c>
       <c r="J72" s="3">
+        <v>819600</v>
+      </c>
+      <c r="K72" s="3">
         <v>773100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1203600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1197600</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2165500</v>
+        <v>2658300</v>
       </c>
       <c r="E76" s="3">
-        <v>2060700</v>
+        <v>2124200</v>
       </c>
       <c r="F76" s="3">
-        <v>1701200</v>
+        <v>2021500</v>
       </c>
       <c r="G76" s="3">
-        <v>1460700</v>
+        <v>1668800</v>
       </c>
       <c r="H76" s="3">
-        <v>915900</v>
+        <v>1432900</v>
       </c>
       <c r="I76" s="3">
-        <v>804900</v>
+        <v>898400</v>
       </c>
       <c r="J76" s="3">
+        <v>789600</v>
+      </c>
+      <c r="K76" s="3">
         <v>688100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1202200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1064900</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>641700</v>
+        <v>940200</v>
       </c>
       <c r="E81" s="3">
-        <v>512900</v>
+        <v>629400</v>
       </c>
       <c r="F81" s="3">
-        <v>393500</v>
+        <v>503200</v>
       </c>
       <c r="G81" s="3">
-        <v>418900</v>
+        <v>386000</v>
       </c>
       <c r="H81" s="3">
-        <v>133100</v>
+        <v>410900</v>
       </c>
       <c r="I81" s="3">
-        <v>104400</v>
+        <v>130500</v>
       </c>
       <c r="J81" s="3">
+        <v>102400</v>
+      </c>
+      <c r="K81" s="3">
         <v>49200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>110400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-323500</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>110000</v>
+        <v>154300</v>
       </c>
       <c r="E83" s="3">
-        <v>86400</v>
+        <v>107900</v>
       </c>
       <c r="F83" s="3">
-        <v>80100</v>
+        <v>84800</v>
       </c>
       <c r="G83" s="3">
+        <v>78500</v>
+      </c>
+      <c r="H83" s="3">
+        <v>35800</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3">
+        <v>37200</v>
+      </c>
+      <c r="K83" s="3">
         <v>36500</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3">
-        <v>37900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>36500</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>75700</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>579800</v>
+        <v>506300</v>
       </c>
       <c r="E89" s="3">
-        <v>498600</v>
+        <v>568800</v>
       </c>
       <c r="F89" s="3">
-        <v>488600</v>
+        <v>489100</v>
       </c>
       <c r="G89" s="3">
-        <v>329200</v>
-      </c>
-      <c r="H89" s="3" t="s">
+        <v>479300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>323000</v>
+      </c>
+      <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I89" s="3">
-        <v>116400</v>
-      </c>
       <c r="J89" s="3">
+        <v>114200</v>
+      </c>
+      <c r="K89" s="3">
         <v>56800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>208800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-34600</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-126100</v>
+        <v>-162500</v>
       </c>
       <c r="E91" s="3">
-        <v>-91300</v>
+        <v>-123700</v>
       </c>
       <c r="F91" s="3">
-        <v>-59800</v>
+        <v>-89500</v>
       </c>
       <c r="G91" s="3">
-        <v>-43300</v>
-      </c>
-      <c r="H91" s="3" t="s">
+        <v>-58700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>-29500</v>
-      </c>
       <c r="J91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-22900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-50500</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-344800</v>
+        <v>-192600</v>
       </c>
       <c r="E94" s="3">
-        <v>-123700</v>
+        <v>-338200</v>
       </c>
       <c r="F94" s="3">
-        <v>-285300</v>
+        <v>-121400</v>
       </c>
       <c r="G94" s="3">
-        <v>-117000</v>
-      </c>
-      <c r="H94" s="3" t="s">
+        <v>-279900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-114700</v>
+      </c>
+      <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
-        <v>-25900</v>
-      </c>
       <c r="J94" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-17600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-43200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-187100</v>
+        <v>-183300</v>
       </c>
       <c r="E96" s="3">
-        <v>-114600</v>
+        <v>-183500</v>
       </c>
       <c r="F96" s="3">
-        <v>-120700</v>
+        <v>-112400</v>
       </c>
       <c r="G96" s="3">
-        <v>-101300</v>
+        <v>-118400</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-99400</v>
       </c>
       <c r="I96" s="3">
-        <v>-29500</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-25600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-14900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-31800</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-505200</v>
+        <v>-558300</v>
       </c>
       <c r="E100" s="3">
-        <v>-223600</v>
+        <v>-495600</v>
       </c>
       <c r="F100" s="3">
-        <v>-131700</v>
+        <v>-219300</v>
       </c>
       <c r="G100" s="3">
-        <v>-100900</v>
-      </c>
-      <c r="H100" s="3" t="s">
+        <v>-129200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="I100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I100" s="3">
-        <v>-7400</v>
-      </c>
       <c r="J100" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-99500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>249200</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>30700</v>
+        <v>20700</v>
       </c>
       <c r="E101" s="3">
-        <v>6400</v>
+        <v>30100</v>
       </c>
       <c r="F101" s="3">
-        <v>-14600</v>
+        <v>6300</v>
       </c>
       <c r="G101" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H101" s="3" t="s">
+        <v>-14300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I101" s="3">
-        <v>-10400</v>
-      </c>
       <c r="J101" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-29000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>57200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>42300</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-239500</v>
+        <v>-223800</v>
       </c>
       <c r="E102" s="3">
-        <v>157700</v>
+        <v>-234900</v>
       </c>
       <c r="F102" s="3">
-        <v>57000</v>
+        <v>154700</v>
       </c>
       <c r="G102" s="3">
-        <v>117400</v>
-      </c>
-      <c r="H102" s="3" t="s">
+        <v>55900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>115100</v>
+      </c>
+      <c r="I102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I102" s="3">
-        <v>72700</v>
-      </c>
       <c r="J102" s="3">
+        <v>71300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-89300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>243800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>213700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>ATEYY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4039000</v>
+        <v>3848500</v>
       </c>
       <c r="E8" s="3">
-        <v>3005900</v>
+        <v>2864100</v>
       </c>
       <c r="F8" s="3">
-        <v>2255200</v>
+        <v>2148900</v>
       </c>
       <c r="G8" s="3">
-        <v>1989200</v>
+        <v>1895400</v>
       </c>
       <c r="H8" s="3">
-        <v>2036500</v>
+        <v>1940500</v>
       </c>
       <c r="I8" s="3">
-        <v>1494100</v>
+        <v>1423600</v>
       </c>
       <c r="J8" s="3">
-        <v>1124200</v>
+        <v>1071100</v>
       </c>
       <c r="K8" s="3">
         <v>1191500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1738500</v>
+        <v>1656600</v>
       </c>
       <c r="E9" s="3">
-        <v>1305000</v>
+        <v>1243400</v>
       </c>
       <c r="F9" s="3">
-        <v>1041800</v>
+        <v>992700</v>
       </c>
       <c r="G9" s="3">
-        <v>860900</v>
+        <v>820300</v>
       </c>
       <c r="H9" s="3">
-        <v>925900</v>
+        <v>882200</v>
       </c>
       <c r="I9" s="3">
-        <v>725600</v>
+        <v>691400</v>
       </c>
       <c r="J9" s="3">
-        <v>477100</v>
+        <v>454600</v>
       </c>
       <c r="K9" s="3">
         <v>519200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2300400</v>
+        <v>2191900</v>
       </c>
       <c r="E10" s="3">
-        <v>1700900</v>
+        <v>1620700</v>
       </c>
       <c r="F10" s="3">
-        <v>1213400</v>
+        <v>1156200</v>
       </c>
       <c r="G10" s="3">
-        <v>1128300</v>
+        <v>1075100</v>
       </c>
       <c r="H10" s="3">
-        <v>1110600</v>
+        <v>1058200</v>
       </c>
       <c r="I10" s="3">
-        <v>768500</v>
+        <v>732300</v>
       </c>
       <c r="J10" s="3">
-        <v>647000</v>
+        <v>616500</v>
       </c>
       <c r="K10" s="3">
         <v>672300</v>
@@ -922,13 +922,13 @@
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>-40200</v>
+        <v>-38300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>-18200</v>
+        <v>-17400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -951,26 +951,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>96400</v>
       </c>
       <c r="E15" s="3">
-        <v>81100</v>
+        <v>77300</v>
       </c>
       <c r="F15" s="3">
-        <v>70500</v>
+        <v>67100</v>
       </c>
       <c r="G15" s="3">
-        <v>55500</v>
+        <v>52900</v>
       </c>
       <c r="H15" s="3">
-        <v>27900</v>
+        <v>26600</v>
       </c>
       <c r="I15" s="3">
-        <v>29600</v>
+        <v>28200</v>
       </c>
       <c r="J15" s="3">
-        <v>28000</v>
+        <v>26700</v>
       </c>
       <c r="K15" s="3">
         <v>25300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2830000</v>
+        <v>2696500</v>
       </c>
       <c r="E17" s="3">
-        <v>2178600</v>
+        <v>2075900</v>
       </c>
       <c r="F17" s="3">
-        <v>1745300</v>
+        <v>1663000</v>
       </c>
       <c r="G17" s="3">
-        <v>1565900</v>
+        <v>1492100</v>
       </c>
       <c r="H17" s="3">
-        <v>1570300</v>
+        <v>1496200</v>
       </c>
       <c r="I17" s="3">
-        <v>1317500</v>
+        <v>1255400</v>
       </c>
       <c r="J17" s="3">
-        <v>1023900</v>
+        <v>975600</v>
       </c>
       <c r="K17" s="3">
         <v>1098900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1209000</v>
+        <v>1152000</v>
       </c>
       <c r="E18" s="3">
-        <v>827200</v>
+        <v>788200</v>
       </c>
       <c r="F18" s="3">
-        <v>509900</v>
+        <v>485900</v>
       </c>
       <c r="G18" s="3">
-        <v>423300</v>
+        <v>403300</v>
       </c>
       <c r="H18" s="3">
-        <v>466200</v>
+        <v>444200</v>
       </c>
       <c r="I18" s="3">
-        <v>176600</v>
+        <v>168200</v>
       </c>
       <c r="J18" s="3">
-        <v>100300</v>
+        <v>95500</v>
       </c>
       <c r="K18" s="3">
         <v>92600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>25800</v>
+        <v>29400</v>
       </c>
       <c r="E20" s="3">
-        <v>13600</v>
+        <v>13000</v>
       </c>
       <c r="F20" s="3">
-        <v>-6700</v>
+        <v>-6400</v>
       </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>11700</v>
+        <v>11200</v>
       </c>
       <c r="I20" s="3">
         <v>-400</v>
       </c>
       <c r="J20" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="K20" s="3">
         <v>-4500</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1390200</v>
+        <v>1328400</v>
       </c>
       <c r="E21" s="3">
-        <v>949500</v>
+        <v>904000</v>
       </c>
       <c r="F21" s="3">
-        <v>588600</v>
+        <v>560300</v>
       </c>
       <c r="G21" s="3">
-        <v>502500</v>
+        <v>478300</v>
       </c>
       <c r="H21" s="3">
-        <v>514000</v>
+        <v>489500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J21" s="3">
-        <v>147300</v>
+        <v>140200</v>
       </c>
       <c r="K21" s="3">
         <v>124200</v>
@@ -1160,11 +1160,11 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>4800</v>
       </c>
       <c r="E22" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F22" s="3">
         <v>1300</v>
@@ -1173,13 +1173,13 @@
         <v>1100</v>
       </c>
       <c r="H22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I22" s="3">
         <v>1000</v>
       </c>
       <c r="J22" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K22" s="3">
         <v>1600</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1234900</v>
+        <v>1176600</v>
       </c>
       <c r="E23" s="3">
-        <v>838800</v>
+        <v>799300</v>
       </c>
       <c r="F23" s="3">
-        <v>501900</v>
+        <v>478300</v>
       </c>
       <c r="G23" s="3">
-        <v>422300</v>
+        <v>402400</v>
       </c>
       <c r="H23" s="3">
-        <v>477400</v>
+        <v>454900</v>
       </c>
       <c r="I23" s="3">
-        <v>175100</v>
+        <v>166800</v>
       </c>
       <c r="J23" s="3">
-        <v>108300</v>
+        <v>103200</v>
       </c>
       <c r="K23" s="3">
         <v>86500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>294700</v>
+        <v>280800</v>
       </c>
       <c r="E24" s="3">
-        <v>209400</v>
+        <v>199500</v>
       </c>
       <c r="F24" s="3">
         <v>-1200</v>
       </c>
       <c r="G24" s="3">
-        <v>36400</v>
+        <v>34600</v>
       </c>
       <c r="H24" s="3">
-        <v>66500</v>
+        <v>63300</v>
       </c>
       <c r="I24" s="3">
-        <v>44600</v>
+        <v>42400</v>
       </c>
       <c r="J24" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="K24" s="3">
         <v>37300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>940200</v>
+        <v>895800</v>
       </c>
       <c r="E26" s="3">
-        <v>629400</v>
+        <v>599800</v>
       </c>
       <c r="F26" s="3">
-        <v>503200</v>
+        <v>479400</v>
       </c>
       <c r="G26" s="3">
-        <v>386000</v>
+        <v>367800</v>
       </c>
       <c r="H26" s="3">
-        <v>410900</v>
+        <v>391500</v>
       </c>
       <c r="I26" s="3">
-        <v>130500</v>
+        <v>124400</v>
       </c>
       <c r="J26" s="3">
-        <v>102400</v>
+        <v>97600</v>
       </c>
       <c r="K26" s="3">
         <v>49200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>940200</v>
+        <v>895800</v>
       </c>
       <c r="E27" s="3">
-        <v>629400</v>
+        <v>599800</v>
       </c>
       <c r="F27" s="3">
-        <v>503200</v>
+        <v>479400</v>
       </c>
       <c r="G27" s="3">
-        <v>386000</v>
+        <v>367800</v>
       </c>
       <c r="H27" s="3">
-        <v>410900</v>
+        <v>391500</v>
       </c>
       <c r="I27" s="3">
-        <v>130500</v>
+        <v>124400</v>
       </c>
       <c r="J27" s="3">
-        <v>102400</v>
+        <v>97600</v>
       </c>
       <c r="K27" s="3">
         <v>49200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-25800</v>
+        <v>-29400</v>
       </c>
       <c r="E32" s="3">
-        <v>-13600</v>
+        <v>-13000</v>
       </c>
       <c r="F32" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="G32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>-11700</v>
+        <v>-11200</v>
       </c>
       <c r="I32" s="3">
         <v>400</v>
       </c>
       <c r="J32" s="3">
-        <v>-9600</v>
+        <v>-9200</v>
       </c>
       <c r="K32" s="3">
         <v>4500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>940200</v>
+        <v>895800</v>
       </c>
       <c r="E33" s="3">
-        <v>629400</v>
+        <v>599800</v>
       </c>
       <c r="F33" s="3">
-        <v>503200</v>
+        <v>479400</v>
       </c>
       <c r="G33" s="3">
-        <v>386000</v>
+        <v>367800</v>
       </c>
       <c r="H33" s="3">
-        <v>410900</v>
+        <v>391500</v>
       </c>
       <c r="I33" s="3">
-        <v>130500</v>
+        <v>124400</v>
       </c>
       <c r="J33" s="3">
-        <v>102400</v>
+        <v>97600</v>
       </c>
       <c r="K33" s="3">
         <v>49200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>940200</v>
+        <v>895800</v>
       </c>
       <c r="E35" s="3">
-        <v>629400</v>
+        <v>599800</v>
       </c>
       <c r="F35" s="3">
-        <v>503200</v>
+        <v>479400</v>
       </c>
       <c r="G35" s="3">
-        <v>386000</v>
+        <v>367800</v>
       </c>
       <c r="H35" s="3">
-        <v>410900</v>
+        <v>391500</v>
       </c>
       <c r="I35" s="3">
-        <v>130500</v>
+        <v>124400</v>
       </c>
       <c r="J35" s="3">
-        <v>102400</v>
+        <v>97600</v>
       </c>
       <c r="K35" s="3">
         <v>49200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>616700</v>
+        <v>587600</v>
       </c>
       <c r="E41" s="3">
-        <v>840600</v>
+        <v>800900</v>
       </c>
       <c r="F41" s="3">
-        <v>1075500</v>
+        <v>1024800</v>
       </c>
       <c r="G41" s="3">
-        <v>920700</v>
+        <v>877300</v>
       </c>
       <c r="H41" s="3">
-        <v>864800</v>
+        <v>824000</v>
       </c>
       <c r="I41" s="3">
-        <v>749600</v>
+        <v>714300</v>
       </c>
       <c r="J41" s="3">
-        <v>687300</v>
+        <v>654900</v>
       </c>
       <c r="K41" s="3">
         <v>627900</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>736500</v>
+        <v>701800</v>
       </c>
       <c r="E43" s="3">
-        <v>592300</v>
+        <v>564400</v>
       </c>
       <c r="F43" s="3">
-        <v>411200</v>
+        <v>391800</v>
       </c>
       <c r="G43" s="3">
-        <v>334700</v>
+        <v>318900</v>
       </c>
       <c r="H43" s="3">
-        <v>373400</v>
+        <v>355800</v>
       </c>
       <c r="I43" s="3">
-        <v>273500</v>
+        <v>260600</v>
       </c>
       <c r="J43" s="3">
-        <v>234000</v>
+        <v>222900</v>
       </c>
       <c r="K43" s="3">
         <v>205800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1219100</v>
+        <v>1161600</v>
       </c>
       <c r="E44" s="3">
-        <v>685000</v>
+        <v>652700</v>
       </c>
       <c r="F44" s="3">
-        <v>463900</v>
+        <v>442000</v>
       </c>
       <c r="G44" s="3">
-        <v>425000</v>
+        <v>404900</v>
       </c>
       <c r="H44" s="3">
-        <v>411700</v>
+        <v>392300</v>
       </c>
       <c r="I44" s="3">
-        <v>357800</v>
+        <v>340900</v>
       </c>
       <c r="J44" s="3">
-        <v>281900</v>
+        <v>268600</v>
       </c>
       <c r="K44" s="3">
         <v>249300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>129200</v>
+        <v>123100</v>
       </c>
       <c r="E45" s="3">
-        <v>80700</v>
+        <v>76900</v>
       </c>
       <c r="F45" s="3">
-        <v>61700</v>
+        <v>58800</v>
       </c>
       <c r="G45" s="3">
-        <v>51000</v>
+        <v>48600</v>
       </c>
       <c r="H45" s="3">
-        <v>31900</v>
+        <v>30400</v>
       </c>
       <c r="I45" s="3">
-        <v>40500</v>
+        <v>38600</v>
       </c>
       <c r="J45" s="3">
-        <v>30800</v>
+        <v>29300</v>
       </c>
       <c r="K45" s="3">
         <v>22400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2701600</v>
+        <v>2574200</v>
       </c>
       <c r="E46" s="3">
-        <v>2198700</v>
+        <v>2095000</v>
       </c>
       <c r="F46" s="3">
-        <v>2012300</v>
+        <v>1917400</v>
       </c>
       <c r="G46" s="3">
-        <v>1731400</v>
+        <v>1649800</v>
       </c>
       <c r="H46" s="3">
-        <v>1681700</v>
+        <v>1602400</v>
       </c>
       <c r="I46" s="3">
-        <v>1421400</v>
+        <v>1354400</v>
       </c>
       <c r="J46" s="3">
-        <v>1233900</v>
+        <v>1175700</v>
       </c>
       <c r="K46" s="3">
         <v>1105400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>157800</v>
+        <v>147600</v>
       </c>
       <c r="E47" s="3">
-        <v>107500</v>
+        <v>100100</v>
       </c>
       <c r="F47" s="3">
-        <v>75600</v>
+        <v>70100</v>
       </c>
       <c r="G47" s="3">
-        <v>21700</v>
+        <v>19700</v>
       </c>
       <c r="H47" s="3">
-        <v>23200</v>
+        <v>19700</v>
       </c>
       <c r="I47" s="3">
-        <v>20000</v>
+        <v>16600</v>
       </c>
       <c r="J47" s="3">
-        <v>27300</v>
+        <v>24900</v>
       </c>
       <c r="K47" s="3">
         <v>28200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>586600</v>
+        <v>558900</v>
       </c>
       <c r="E48" s="3">
-        <v>461700</v>
+        <v>439900</v>
       </c>
       <c r="F48" s="3">
-        <v>384200</v>
+        <v>366000</v>
       </c>
       <c r="G48" s="3">
-        <v>333500</v>
+        <v>317800</v>
       </c>
       <c r="H48" s="3">
-        <v>222000</v>
+        <v>211500</v>
       </c>
       <c r="I48" s="3">
-        <v>210800</v>
+        <v>200800</v>
       </c>
       <c r="J48" s="3">
-        <v>215700</v>
+        <v>205500</v>
       </c>
       <c r="K48" s="3">
         <v>231200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>690500</v>
+        <v>657900</v>
       </c>
       <c r="E49" s="3">
-        <v>615100</v>
+        <v>586100</v>
       </c>
       <c r="F49" s="3">
-        <v>393300</v>
+        <v>374700</v>
       </c>
       <c r="G49" s="3">
-        <v>367900</v>
+        <v>350500</v>
       </c>
       <c r="H49" s="3">
-        <v>188300</v>
+        <v>179400</v>
       </c>
       <c r="I49" s="3">
-        <v>110200</v>
+        <v>105000</v>
       </c>
       <c r="J49" s="3">
-        <v>118800</v>
+        <v>113200</v>
       </c>
       <c r="K49" s="3">
         <v>122900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>191200</v>
+        <v>184900</v>
       </c>
       <c r="E52" s="3">
-        <v>183800</v>
+        <v>177500</v>
       </c>
       <c r="F52" s="3">
-        <v>182000</v>
+        <v>175300</v>
       </c>
       <c r="G52" s="3">
-        <v>110700</v>
+        <v>106400</v>
       </c>
       <c r="H52" s="3">
-        <v>80800</v>
+        <v>79400</v>
       </c>
       <c r="I52" s="3">
-        <v>73000</v>
+        <v>72000</v>
       </c>
       <c r="J52" s="3">
-        <v>74100</v>
+        <v>71800</v>
       </c>
       <c r="K52" s="3">
         <v>59100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4327600</v>
+        <v>4123500</v>
       </c>
       <c r="E54" s="3">
-        <v>3566800</v>
+        <v>3398600</v>
       </c>
       <c r="F54" s="3">
-        <v>3047200</v>
+        <v>2903500</v>
       </c>
       <c r="G54" s="3">
-        <v>2565200</v>
+        <v>2444200</v>
       </c>
       <c r="H54" s="3">
-        <v>2196000</v>
+        <v>2092500</v>
       </c>
       <c r="I54" s="3">
-        <v>1835400</v>
+        <v>1748800</v>
       </c>
       <c r="J54" s="3">
-        <v>1669900</v>
+        <v>1591100</v>
       </c>
       <c r="K54" s="3">
         <v>1546800</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>643600</v>
+        <v>454700</v>
       </c>
       <c r="E57" s="3">
-        <v>357400</v>
+        <v>340500</v>
       </c>
       <c r="F57" s="3">
-        <v>290600</v>
+        <v>276900</v>
       </c>
       <c r="G57" s="3">
-        <v>226600</v>
+        <v>216000</v>
       </c>
       <c r="H57" s="3">
-        <v>205900</v>
+        <v>196100</v>
       </c>
       <c r="I57" s="3">
-        <v>226200</v>
+        <v>215600</v>
       </c>
       <c r="J57" s="3">
-        <v>138200</v>
+        <v>131700</v>
       </c>
       <c r="K57" s="3">
         <v>97800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>129400</v>
+        <v>123300</v>
       </c>
       <c r="E58" s="3">
-        <v>153400</v>
+        <v>146200</v>
       </c>
       <c r="F58" s="3">
-        <v>17900</v>
+        <v>17100</v>
       </c>
       <c r="G58" s="3">
-        <v>16400</v>
+        <v>15600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I58" s="3">
-        <v>215400</v>
+        <v>205200</v>
       </c>
       <c r="J58" s="3">
-        <v>108200</v>
+        <v>103000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>486600</v>
+        <v>622100</v>
       </c>
       <c r="E59" s="3">
-        <v>577100</v>
+        <v>549900</v>
       </c>
       <c r="F59" s="3">
-        <v>339000</v>
+        <v>323000</v>
       </c>
       <c r="G59" s="3">
-        <v>265500</v>
+        <v>253000</v>
       </c>
       <c r="H59" s="3">
-        <v>247300</v>
+        <v>235600</v>
       </c>
       <c r="I59" s="3">
-        <v>187100</v>
+        <v>178300</v>
       </c>
       <c r="J59" s="3">
-        <v>124500</v>
+        <v>118600</v>
       </c>
       <c r="K59" s="3">
         <v>118500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1259500</v>
+        <v>1200100</v>
       </c>
       <c r="E60" s="3">
-        <v>1087900</v>
+        <v>1036600</v>
       </c>
       <c r="F60" s="3">
-        <v>647500</v>
+        <v>617000</v>
       </c>
       <c r="G60" s="3">
-        <v>508600</v>
+        <v>484600</v>
       </c>
       <c r="H60" s="3">
-        <v>453100</v>
+        <v>431800</v>
       </c>
       <c r="I60" s="3">
-        <v>628700</v>
+        <v>599000</v>
       </c>
       <c r="J60" s="3">
-        <v>370800</v>
+        <v>353400</v>
       </c>
       <c r="K60" s="3">
         <v>216300</v>
@@ -2418,16 +2418,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>237200</v>
+        <v>226000</v>
       </c>
       <c r="E61" s="3">
-        <v>160000</v>
+        <v>152400</v>
       </c>
       <c r="F61" s="3">
-        <v>67500</v>
+        <v>64300</v>
       </c>
       <c r="G61" s="3">
-        <v>65000</v>
+        <v>61900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>214500</v>
+        <v>204300</v>
       </c>
       <c r="K61" s="3">
         <v>327900</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>172600</v>
+        <v>164500</v>
       </c>
       <c r="E62" s="3">
-        <v>194700</v>
+        <v>185500</v>
       </c>
       <c r="F62" s="3">
-        <v>310700</v>
+        <v>296100</v>
       </c>
       <c r="G62" s="3">
-        <v>322800</v>
+        <v>307600</v>
       </c>
       <c r="H62" s="3">
-        <v>310000</v>
+        <v>295400</v>
       </c>
       <c r="I62" s="3">
-        <v>308200</v>
+        <v>293700</v>
       </c>
       <c r="J62" s="3">
-        <v>294900</v>
+        <v>281000</v>
       </c>
       <c r="K62" s="3">
         <v>314400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1669300</v>
+        <v>1590600</v>
       </c>
       <c r="E66" s="3">
-        <v>1442500</v>
+        <v>1374500</v>
       </c>
       <c r="F66" s="3">
-        <v>1025800</v>
+        <v>977400</v>
       </c>
       <c r="G66" s="3">
-        <v>896400</v>
+        <v>854100</v>
       </c>
       <c r="H66" s="3">
-        <v>763200</v>
+        <v>727200</v>
       </c>
       <c r="I66" s="3">
-        <v>936900</v>
+        <v>892700</v>
       </c>
       <c r="J66" s="3">
-        <v>880200</v>
+        <v>838700</v>
       </c>
       <c r="K66" s="3">
         <v>858700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2301200</v>
+        <v>2192700</v>
       </c>
       <c r="E72" s="3">
-        <v>2017600</v>
+        <v>1922400</v>
       </c>
       <c r="F72" s="3">
-        <v>1549100</v>
+        <v>1476100</v>
       </c>
       <c r="G72" s="3">
-        <v>1152200</v>
+        <v>1097800</v>
       </c>
       <c r="H72" s="3">
-        <v>907900</v>
+        <v>865100</v>
       </c>
       <c r="I72" s="3">
-        <v>902700</v>
+        <v>860200</v>
       </c>
       <c r="J72" s="3">
-        <v>819600</v>
+        <v>781000</v>
       </c>
       <c r="K72" s="3">
         <v>773100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2658300</v>
+        <v>2532900</v>
       </c>
       <c r="E76" s="3">
-        <v>2124200</v>
+        <v>2024000</v>
       </c>
       <c r="F76" s="3">
-        <v>2021500</v>
+        <v>1926100</v>
       </c>
       <c r="G76" s="3">
-        <v>1668800</v>
+        <v>1590100</v>
       </c>
       <c r="H76" s="3">
-        <v>1432900</v>
+        <v>1365300</v>
       </c>
       <c r="I76" s="3">
-        <v>898400</v>
+        <v>856100</v>
       </c>
       <c r="J76" s="3">
-        <v>789600</v>
+        <v>752400</v>
       </c>
       <c r="K76" s="3">
         <v>688100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>940200</v>
+        <v>895800</v>
       </c>
       <c r="E81" s="3">
-        <v>629400</v>
+        <v>599800</v>
       </c>
       <c r="F81" s="3">
-        <v>503200</v>
+        <v>479400</v>
       </c>
       <c r="G81" s="3">
-        <v>386000</v>
+        <v>367800</v>
       </c>
       <c r="H81" s="3">
-        <v>410900</v>
+        <v>391500</v>
       </c>
       <c r="I81" s="3">
-        <v>130500</v>
+        <v>124400</v>
       </c>
       <c r="J81" s="3">
-        <v>102400</v>
+        <v>97600</v>
       </c>
       <c r="K81" s="3">
         <v>49200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>154300</v>
+        <v>147000</v>
       </c>
       <c r="E83" s="3">
-        <v>107900</v>
+        <v>102800</v>
       </c>
       <c r="F83" s="3">
-        <v>84800</v>
+        <v>80800</v>
       </c>
       <c r="G83" s="3">
-        <v>78500</v>
+        <v>74800</v>
       </c>
       <c r="H83" s="3">
-        <v>35800</v>
+        <v>34100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J83" s="3">
-        <v>37200</v>
+        <v>35400</v>
       </c>
       <c r="K83" s="3">
         <v>36500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>506300</v>
+        <v>482400</v>
       </c>
       <c r="E89" s="3">
-        <v>568800</v>
+        <v>542000</v>
       </c>
       <c r="F89" s="3">
-        <v>489100</v>
+        <v>466000</v>
       </c>
       <c r="G89" s="3">
-        <v>479300</v>
+        <v>456700</v>
       </c>
       <c r="H89" s="3">
-        <v>323000</v>
+        <v>307700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J89" s="3">
-        <v>114200</v>
+        <v>108800</v>
       </c>
       <c r="K89" s="3">
         <v>56800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-162500</v>
+        <v>-154800</v>
       </c>
       <c r="E91" s="3">
-        <v>-123700</v>
+        <v>-117900</v>
       </c>
       <c r="F91" s="3">
-        <v>-89500</v>
+        <v>-85300</v>
       </c>
       <c r="G91" s="3">
-        <v>-58700</v>
+        <v>-55900</v>
       </c>
       <c r="H91" s="3">
-        <v>-42500</v>
+        <v>-40500</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J91" s="3">
-        <v>-29000</v>
+        <v>-27600</v>
       </c>
       <c r="K91" s="3">
         <v>-22900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-192600</v>
+        <v>-183500</v>
       </c>
       <c r="E94" s="3">
-        <v>-338200</v>
+        <v>-322300</v>
       </c>
       <c r="F94" s="3">
-        <v>-121400</v>
+        <v>-115600</v>
       </c>
       <c r="G94" s="3">
-        <v>-279900</v>
+        <v>-266700</v>
       </c>
       <c r="H94" s="3">
-        <v>-114700</v>
+        <v>-109300</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J94" s="3">
-        <v>-25400</v>
+        <v>-24200</v>
       </c>
       <c r="K94" s="3">
         <v>-17600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-183300</v>
+        <v>-174600</v>
       </c>
       <c r="E96" s="3">
-        <v>-183500</v>
+        <v>-174900</v>
       </c>
       <c r="F96" s="3">
-        <v>-112400</v>
+        <v>-107100</v>
       </c>
       <c r="G96" s="3">
-        <v>-118400</v>
+        <v>-112900</v>
       </c>
       <c r="H96" s="3">
-        <v>-99400</v>
+        <v>-94700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-29000</v>
+        <v>-27600</v>
       </c>
       <c r="K96" s="3">
         <v>-25600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-558300</v>
+        <v>-532000</v>
       </c>
       <c r="E100" s="3">
-        <v>-495600</v>
+        <v>-472200</v>
       </c>
       <c r="F100" s="3">
-        <v>-219300</v>
+        <v>-209000</v>
       </c>
       <c r="G100" s="3">
-        <v>-129200</v>
+        <v>-123100</v>
       </c>
       <c r="H100" s="3">
-        <v>-99000</v>
+        <v>-94300</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J100" s="3">
-        <v>-7200</v>
+        <v>-6900</v>
       </c>
       <c r="K100" s="3">
         <v>-99500</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="E101" s="3">
-        <v>30100</v>
+        <v>28700</v>
       </c>
       <c r="F101" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="G101" s="3">
-        <v>-14300</v>
+        <v>-13600</v>
       </c>
       <c r="H101" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J101" s="3">
-        <v>-10200</v>
+        <v>-9700</v>
       </c>
       <c r="K101" s="3">
         <v>-29000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-213300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-223800</v>
       </c>
-      <c r="E102" s="3">
-        <v>-234900</v>
-      </c>
       <c r="F102" s="3">
-        <v>154700</v>
+        <v>147400</v>
       </c>
       <c r="G102" s="3">
-        <v>55900</v>
+        <v>53300</v>
       </c>
       <c r="H102" s="3">
-        <v>115100</v>
+        <v>109700</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J102" s="3">
-        <v>71300</v>
+        <v>68000</v>
       </c>
       <c r="K102" s="3">
         <v>-89300</v>

--- a/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATEYY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3848500</v>
+        <v>3719700</v>
       </c>
       <c r="E8" s="3">
-        <v>2864100</v>
+        <v>2768200</v>
       </c>
       <c r="F8" s="3">
-        <v>2148900</v>
+        <v>2076900</v>
       </c>
       <c r="G8" s="3">
-        <v>1895400</v>
+        <v>1831900</v>
       </c>
       <c r="H8" s="3">
-        <v>1940500</v>
+        <v>1875500</v>
       </c>
       <c r="I8" s="3">
-        <v>1423600</v>
+        <v>1376000</v>
       </c>
       <c r="J8" s="3">
-        <v>1071100</v>
+        <v>1035300</v>
       </c>
       <c r="K8" s="3">
         <v>1191500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1656600</v>
+        <v>1601100</v>
       </c>
       <c r="E9" s="3">
-        <v>1243400</v>
+        <v>1201800</v>
       </c>
       <c r="F9" s="3">
-        <v>992700</v>
+        <v>959500</v>
       </c>
       <c r="G9" s="3">
-        <v>820300</v>
+        <v>792800</v>
       </c>
       <c r="H9" s="3">
-        <v>882200</v>
+        <v>852700</v>
       </c>
       <c r="I9" s="3">
-        <v>691400</v>
+        <v>668200</v>
       </c>
       <c r="J9" s="3">
-        <v>454600</v>
+        <v>439400</v>
       </c>
       <c r="K9" s="3">
         <v>519200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2191900</v>
+        <v>2118600</v>
       </c>
       <c r="E10" s="3">
-        <v>1620700</v>
+        <v>1566400</v>
       </c>
       <c r="F10" s="3">
-        <v>1156200</v>
+        <v>1117500</v>
       </c>
       <c r="G10" s="3">
-        <v>1075100</v>
+        <v>1039100</v>
       </c>
       <c r="H10" s="3">
-        <v>1058200</v>
+        <v>1022800</v>
       </c>
       <c r="I10" s="3">
-        <v>732300</v>
+        <v>707700</v>
       </c>
       <c r="J10" s="3">
-        <v>616500</v>
+        <v>595900</v>
       </c>
       <c r="K10" s="3">
         <v>672300</v>
@@ -922,13 +922,13 @@
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>-38300</v>
+        <v>-37000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>-17400</v>
+        <v>-16800</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>96400</v>
+        <v>93200</v>
       </c>
       <c r="E15" s="3">
-        <v>77300</v>
+        <v>74700</v>
       </c>
       <c r="F15" s="3">
-        <v>67100</v>
+        <v>64900</v>
       </c>
       <c r="G15" s="3">
-        <v>52900</v>
+        <v>51100</v>
       </c>
       <c r="H15" s="3">
-        <v>26600</v>
+        <v>25700</v>
       </c>
       <c r="I15" s="3">
-        <v>28200</v>
+        <v>27200</v>
       </c>
       <c r="J15" s="3">
-        <v>26700</v>
+        <v>25800</v>
       </c>
       <c r="K15" s="3">
         <v>25300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2696500</v>
+        <v>2606200</v>
       </c>
       <c r="E17" s="3">
-        <v>2075900</v>
+        <v>2006400</v>
       </c>
       <c r="F17" s="3">
-        <v>1663000</v>
+        <v>1607300</v>
       </c>
       <c r="G17" s="3">
-        <v>1492100</v>
+        <v>1442100</v>
       </c>
       <c r="H17" s="3">
-        <v>1496200</v>
+        <v>1446200</v>
       </c>
       <c r="I17" s="3">
-        <v>1255400</v>
+        <v>1213400</v>
       </c>
       <c r="J17" s="3">
-        <v>975600</v>
+        <v>943000</v>
       </c>
       <c r="K17" s="3">
         <v>1098900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1152000</v>
+        <v>1113400</v>
       </c>
       <c r="E18" s="3">
-        <v>788200</v>
+        <v>761800</v>
       </c>
       <c r="F18" s="3">
-        <v>485900</v>
+        <v>469600</v>
       </c>
       <c r="G18" s="3">
-        <v>403300</v>
+        <v>389800</v>
       </c>
       <c r="H18" s="3">
-        <v>444200</v>
+        <v>429400</v>
       </c>
       <c r="I18" s="3">
-        <v>168200</v>
+        <v>162600</v>
       </c>
       <c r="J18" s="3">
-        <v>95500</v>
+        <v>92300</v>
       </c>
       <c r="K18" s="3">
         <v>92600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>29400</v>
+        <v>28400</v>
       </c>
       <c r="E20" s="3">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="F20" s="3">
-        <v>-6400</v>
+        <v>-6100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="I20" s="3">
         <v>-400</v>
       </c>
       <c r="J20" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="K20" s="3">
         <v>-4500</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1328400</v>
+        <v>1283300</v>
       </c>
       <c r="E21" s="3">
-        <v>904000</v>
+        <v>873300</v>
       </c>
       <c r="F21" s="3">
-        <v>560300</v>
+        <v>541200</v>
       </c>
       <c r="G21" s="3">
-        <v>478300</v>
+        <v>462000</v>
       </c>
       <c r="H21" s="3">
-        <v>489500</v>
+        <v>473000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J21" s="3">
-        <v>140200</v>
+        <v>135300</v>
       </c>
       <c r="K21" s="3">
         <v>124200</v>
@@ -1161,16 +1161,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E22" s="3">
         <v>1900</v>
       </c>
       <c r="F22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H22" s="3">
         <v>500</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1176600</v>
+        <v>1137200</v>
       </c>
       <c r="E23" s="3">
-        <v>799300</v>
+        <v>772500</v>
       </c>
       <c r="F23" s="3">
-        <v>478300</v>
+        <v>462300</v>
       </c>
       <c r="G23" s="3">
-        <v>402400</v>
+        <v>388900</v>
       </c>
       <c r="H23" s="3">
-        <v>454900</v>
+        <v>439600</v>
       </c>
       <c r="I23" s="3">
-        <v>166800</v>
+        <v>161200</v>
       </c>
       <c r="J23" s="3">
-        <v>103200</v>
+        <v>99700</v>
       </c>
       <c r="K23" s="3">
         <v>86500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>280800</v>
+        <v>271400</v>
       </c>
       <c r="E24" s="3">
-        <v>199500</v>
+        <v>192800</v>
       </c>
       <c r="F24" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="G24" s="3">
-        <v>34600</v>
+        <v>33500</v>
       </c>
       <c r="H24" s="3">
-        <v>63300</v>
+        <v>61200</v>
       </c>
       <c r="I24" s="3">
-        <v>42400</v>
+        <v>41000</v>
       </c>
       <c r="J24" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="K24" s="3">
         <v>37300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>895800</v>
+        <v>865900</v>
       </c>
       <c r="E26" s="3">
-        <v>599800</v>
+        <v>579700</v>
       </c>
       <c r="F26" s="3">
-        <v>479400</v>
+        <v>463400</v>
       </c>
       <c r="G26" s="3">
-        <v>367800</v>
+        <v>355500</v>
       </c>
       <c r="H26" s="3">
-        <v>391500</v>
+        <v>378400</v>
       </c>
       <c r="I26" s="3">
-        <v>124400</v>
+        <v>120200</v>
       </c>
       <c r="J26" s="3">
-        <v>97600</v>
+        <v>94300</v>
       </c>
       <c r="K26" s="3">
         <v>49200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>895800</v>
+        <v>865900</v>
       </c>
       <c r="E27" s="3">
-        <v>599800</v>
+        <v>579700</v>
       </c>
       <c r="F27" s="3">
-        <v>479400</v>
+        <v>463400</v>
       </c>
       <c r="G27" s="3">
-        <v>367800</v>
+        <v>355500</v>
       </c>
       <c r="H27" s="3">
-        <v>391500</v>
+        <v>378400</v>
       </c>
       <c r="I27" s="3">
-        <v>124400</v>
+        <v>120200</v>
       </c>
       <c r="J27" s="3">
-        <v>97600</v>
+        <v>94300</v>
       </c>
       <c r="K27" s="3">
         <v>49200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-29400</v>
+        <v>-28400</v>
       </c>
       <c r="E32" s="3">
-        <v>-13000</v>
+        <v>-12500</v>
       </c>
       <c r="F32" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>-11200</v>
+        <v>-10800</v>
       </c>
       <c r="I32" s="3">
         <v>400</v>
       </c>
       <c r="J32" s="3">
-        <v>-9200</v>
+        <v>-8900</v>
       </c>
       <c r="K32" s="3">
         <v>4500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>895800</v>
+        <v>865900</v>
       </c>
       <c r="E33" s="3">
-        <v>599800</v>
+        <v>579700</v>
       </c>
       <c r="F33" s="3">
-        <v>479400</v>
+        <v>463400</v>
       </c>
       <c r="G33" s="3">
-        <v>367800</v>
+        <v>355500</v>
       </c>
       <c r="H33" s="3">
-        <v>391500</v>
+        <v>378400</v>
       </c>
       <c r="I33" s="3">
-        <v>124400</v>
+        <v>120200</v>
       </c>
       <c r="J33" s="3">
-        <v>97600</v>
+        <v>94300</v>
       </c>
       <c r="K33" s="3">
         <v>49200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>895800</v>
+        <v>865900</v>
       </c>
       <c r="E35" s="3">
-        <v>599800</v>
+        <v>579700</v>
       </c>
       <c r="F35" s="3">
-        <v>479400</v>
+        <v>463400</v>
       </c>
       <c r="G35" s="3">
-        <v>367800</v>
+        <v>355500</v>
       </c>
       <c r="H35" s="3">
-        <v>391500</v>
+        <v>378400</v>
       </c>
       <c r="I35" s="3">
-        <v>124400</v>
+        <v>120200</v>
       </c>
       <c r="J35" s="3">
-        <v>97600</v>
+        <v>94300</v>
       </c>
       <c r="K35" s="3">
         <v>49200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>587600</v>
+        <v>568000</v>
       </c>
       <c r="E41" s="3">
-        <v>800900</v>
+        <v>774100</v>
       </c>
       <c r="F41" s="3">
-        <v>1024800</v>
+        <v>990400</v>
       </c>
       <c r="G41" s="3">
-        <v>877300</v>
+        <v>847900</v>
       </c>
       <c r="H41" s="3">
-        <v>824000</v>
+        <v>796400</v>
       </c>
       <c r="I41" s="3">
-        <v>714300</v>
+        <v>690400</v>
       </c>
       <c r="J41" s="3">
-        <v>654900</v>
+        <v>633000</v>
       </c>
       <c r="K41" s="3">
         <v>627900</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>701800</v>
+        <v>678300</v>
       </c>
       <c r="E43" s="3">
-        <v>564400</v>
+        <v>545500</v>
       </c>
       <c r="F43" s="3">
-        <v>391800</v>
+        <v>378700</v>
       </c>
       <c r="G43" s="3">
-        <v>318900</v>
+        <v>308300</v>
       </c>
       <c r="H43" s="3">
-        <v>355800</v>
+        <v>343900</v>
       </c>
       <c r="I43" s="3">
-        <v>260600</v>
+        <v>251800</v>
       </c>
       <c r="J43" s="3">
-        <v>222900</v>
+        <v>215500</v>
       </c>
       <c r="K43" s="3">
         <v>205800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1161600</v>
+        <v>1122700</v>
       </c>
       <c r="E44" s="3">
-        <v>652700</v>
+        <v>630900</v>
       </c>
       <c r="F44" s="3">
-        <v>442000</v>
+        <v>427200</v>
       </c>
       <c r="G44" s="3">
-        <v>404900</v>
+        <v>391400</v>
       </c>
       <c r="H44" s="3">
-        <v>392300</v>
+        <v>379100</v>
       </c>
       <c r="I44" s="3">
-        <v>340900</v>
+        <v>329500</v>
       </c>
       <c r="J44" s="3">
-        <v>268600</v>
+        <v>259600</v>
       </c>
       <c r="K44" s="3">
         <v>249300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>123100</v>
+        <v>119000</v>
       </c>
       <c r="E45" s="3">
-        <v>76900</v>
+        <v>74300</v>
       </c>
       <c r="F45" s="3">
-        <v>58800</v>
+        <v>56900</v>
       </c>
       <c r="G45" s="3">
-        <v>48600</v>
+        <v>46900</v>
       </c>
       <c r="H45" s="3">
-        <v>30400</v>
+        <v>29400</v>
       </c>
       <c r="I45" s="3">
-        <v>38600</v>
+        <v>37300</v>
       </c>
       <c r="J45" s="3">
-        <v>29300</v>
+        <v>28400</v>
       </c>
       <c r="K45" s="3">
         <v>22400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2574200</v>
+        <v>2488000</v>
       </c>
       <c r="E46" s="3">
-        <v>2095000</v>
+        <v>2024800</v>
       </c>
       <c r="F46" s="3">
-        <v>1917400</v>
+        <v>1853200</v>
       </c>
       <c r="G46" s="3">
-        <v>1649800</v>
+        <v>1594500</v>
       </c>
       <c r="H46" s="3">
-        <v>1602400</v>
+        <v>1548800</v>
       </c>
       <c r="I46" s="3">
-        <v>1354400</v>
+        <v>1309000</v>
       </c>
       <c r="J46" s="3">
-        <v>1175700</v>
+        <v>1136400</v>
       </c>
       <c r="K46" s="3">
         <v>1105400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>147600</v>
+        <v>142700</v>
       </c>
       <c r="E47" s="3">
-        <v>100100</v>
+        <v>96700</v>
       </c>
       <c r="F47" s="3">
-        <v>70100</v>
+        <v>67800</v>
       </c>
       <c r="G47" s="3">
-        <v>19700</v>
+        <v>19000</v>
       </c>
       <c r="H47" s="3">
-        <v>19700</v>
+        <v>19000</v>
       </c>
       <c r="I47" s="3">
-        <v>16600</v>
+        <v>16000</v>
       </c>
       <c r="J47" s="3">
-        <v>24900</v>
+        <v>24100</v>
       </c>
       <c r="K47" s="3">
         <v>28200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>558900</v>
+        <v>540200</v>
       </c>
       <c r="E48" s="3">
-        <v>439900</v>
+        <v>425200</v>
       </c>
       <c r="F48" s="3">
-        <v>366000</v>
+        <v>353800</v>
       </c>
       <c r="G48" s="3">
-        <v>317800</v>
+        <v>307100</v>
       </c>
       <c r="H48" s="3">
-        <v>211500</v>
+        <v>204400</v>
       </c>
       <c r="I48" s="3">
-        <v>200800</v>
+        <v>194100</v>
       </c>
       <c r="J48" s="3">
-        <v>205500</v>
+        <v>198600</v>
       </c>
       <c r="K48" s="3">
         <v>231200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>657900</v>
+        <v>635900</v>
       </c>
       <c r="E49" s="3">
-        <v>586100</v>
+        <v>566400</v>
       </c>
       <c r="F49" s="3">
-        <v>374700</v>
+        <v>362200</v>
       </c>
       <c r="G49" s="3">
-        <v>350500</v>
+        <v>338800</v>
       </c>
       <c r="H49" s="3">
-        <v>179400</v>
+        <v>173400</v>
       </c>
       <c r="I49" s="3">
-        <v>105000</v>
+        <v>101500</v>
       </c>
       <c r="J49" s="3">
-        <v>113200</v>
+        <v>109400</v>
       </c>
       <c r="K49" s="3">
         <v>122900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>184900</v>
+        <v>178700</v>
       </c>
       <c r="E52" s="3">
-        <v>177500</v>
+        <v>171600</v>
       </c>
       <c r="F52" s="3">
-        <v>175300</v>
+        <v>169400</v>
       </c>
       <c r="G52" s="3">
-        <v>106400</v>
+        <v>102800</v>
       </c>
       <c r="H52" s="3">
-        <v>79400</v>
+        <v>76800</v>
       </c>
       <c r="I52" s="3">
-        <v>72000</v>
+        <v>69600</v>
       </c>
       <c r="J52" s="3">
-        <v>71800</v>
+        <v>69400</v>
       </c>
       <c r="K52" s="3">
         <v>59100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4123500</v>
+        <v>3985500</v>
       </c>
       <c r="E54" s="3">
-        <v>3398600</v>
+        <v>3284800</v>
       </c>
       <c r="F54" s="3">
-        <v>2903500</v>
+        <v>2806300</v>
       </c>
       <c r="G54" s="3">
-        <v>2444200</v>
+        <v>2362400</v>
       </c>
       <c r="H54" s="3">
-        <v>2092500</v>
+        <v>2022400</v>
       </c>
       <c r="I54" s="3">
-        <v>1748800</v>
+        <v>1690300</v>
       </c>
       <c r="J54" s="3">
-        <v>1591100</v>
+        <v>1537800</v>
       </c>
       <c r="K54" s="3">
         <v>1546800</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>454700</v>
+        <v>439500</v>
       </c>
       <c r="E57" s="3">
-        <v>340500</v>
+        <v>329100</v>
       </c>
       <c r="F57" s="3">
-        <v>276900</v>
+        <v>267600</v>
       </c>
       <c r="G57" s="3">
-        <v>216000</v>
+        <v>208700</v>
       </c>
       <c r="H57" s="3">
-        <v>196100</v>
+        <v>189600</v>
       </c>
       <c r="I57" s="3">
-        <v>215600</v>
+        <v>208300</v>
       </c>
       <c r="J57" s="3">
-        <v>131700</v>
+        <v>127300</v>
       </c>
       <c r="K57" s="3">
         <v>97800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>123300</v>
+        <v>119100</v>
       </c>
       <c r="E58" s="3">
-        <v>146200</v>
+        <v>141300</v>
       </c>
       <c r="F58" s="3">
-        <v>17100</v>
+        <v>16500</v>
       </c>
       <c r="G58" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I58" s="3">
-        <v>205200</v>
+        <v>198400</v>
       </c>
       <c r="J58" s="3">
-        <v>103000</v>
+        <v>99600</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>622100</v>
+        <v>601300</v>
       </c>
       <c r="E59" s="3">
-        <v>549900</v>
+        <v>531500</v>
       </c>
       <c r="F59" s="3">
-        <v>323000</v>
+        <v>312200</v>
       </c>
       <c r="G59" s="3">
-        <v>253000</v>
+        <v>244500</v>
       </c>
       <c r="H59" s="3">
-        <v>235600</v>
+        <v>227700</v>
       </c>
       <c r="I59" s="3">
-        <v>178300</v>
+        <v>172300</v>
       </c>
       <c r="J59" s="3">
-        <v>118600</v>
+        <v>114700</v>
       </c>
       <c r="K59" s="3">
         <v>118500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1200100</v>
+        <v>1159900</v>
       </c>
       <c r="E60" s="3">
-        <v>1036600</v>
+        <v>1001900</v>
       </c>
       <c r="F60" s="3">
-        <v>617000</v>
+        <v>596300</v>
       </c>
       <c r="G60" s="3">
-        <v>484600</v>
+        <v>468400</v>
       </c>
       <c r="H60" s="3">
-        <v>431800</v>
+        <v>417300</v>
       </c>
       <c r="I60" s="3">
-        <v>599000</v>
+        <v>579000</v>
       </c>
       <c r="J60" s="3">
-        <v>353400</v>
+        <v>341500</v>
       </c>
       <c r="K60" s="3">
         <v>216300</v>
@@ -2418,16 +2418,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>226000</v>
+        <v>218500</v>
       </c>
       <c r="E61" s="3">
-        <v>152400</v>
+        <v>147300</v>
       </c>
       <c r="F61" s="3">
-        <v>64300</v>
+        <v>62200</v>
       </c>
       <c r="G61" s="3">
-        <v>61900</v>
+        <v>59800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>204300</v>
+        <v>197500</v>
       </c>
       <c r="K61" s="3">
         <v>327900</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>164500</v>
+        <v>159000</v>
       </c>
       <c r="E62" s="3">
-        <v>185500</v>
+        <v>179300</v>
       </c>
       <c r="F62" s="3">
-        <v>296100</v>
+        <v>286200</v>
       </c>
       <c r="G62" s="3">
-        <v>307600</v>
+        <v>297300</v>
       </c>
       <c r="H62" s="3">
-        <v>295400</v>
+        <v>285500</v>
       </c>
       <c r="I62" s="3">
-        <v>293700</v>
+        <v>283900</v>
       </c>
       <c r="J62" s="3">
-        <v>281000</v>
+        <v>271600</v>
       </c>
       <c r="K62" s="3">
         <v>314400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1590600</v>
+        <v>1537400</v>
       </c>
       <c r="E66" s="3">
-        <v>1374500</v>
+        <v>1328500</v>
       </c>
       <c r="F66" s="3">
-        <v>977400</v>
+        <v>944700</v>
       </c>
       <c r="G66" s="3">
-        <v>854100</v>
+        <v>825500</v>
       </c>
       <c r="H66" s="3">
-        <v>727200</v>
+        <v>702800</v>
       </c>
       <c r="I66" s="3">
-        <v>892700</v>
+        <v>862900</v>
       </c>
       <c r="J66" s="3">
-        <v>838700</v>
+        <v>810700</v>
       </c>
       <c r="K66" s="3">
         <v>858700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2192700</v>
+        <v>2119300</v>
       </c>
       <c r="E72" s="3">
-        <v>1922400</v>
+        <v>1858100</v>
       </c>
       <c r="F72" s="3">
-        <v>1476100</v>
+        <v>1426700</v>
       </c>
       <c r="G72" s="3">
-        <v>1097800</v>
+        <v>1061100</v>
       </c>
       <c r="H72" s="3">
-        <v>865100</v>
+        <v>836200</v>
       </c>
       <c r="I72" s="3">
-        <v>860200</v>
+        <v>831400</v>
       </c>
       <c r="J72" s="3">
-        <v>781000</v>
+        <v>754800</v>
       </c>
       <c r="K72" s="3">
         <v>773100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2532900</v>
+        <v>2448100</v>
       </c>
       <c r="E76" s="3">
-        <v>2024000</v>
+        <v>1956300</v>
       </c>
       <c r="F76" s="3">
-        <v>1926100</v>
+        <v>1861700</v>
       </c>
       <c r="G76" s="3">
-        <v>1590100</v>
+        <v>1536800</v>
       </c>
       <c r="H76" s="3">
-        <v>1365300</v>
+        <v>1319600</v>
       </c>
       <c r="I76" s="3">
-        <v>856100</v>
+        <v>827400</v>
       </c>
       <c r="J76" s="3">
-        <v>752400</v>
+        <v>727200</v>
       </c>
       <c r="K76" s="3">
         <v>688100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>895800</v>
+        <v>865900</v>
       </c>
       <c r="E81" s="3">
-        <v>599800</v>
+        <v>579700</v>
       </c>
       <c r="F81" s="3">
-        <v>479400</v>
+        <v>463400</v>
       </c>
       <c r="G81" s="3">
-        <v>367800</v>
+        <v>355500</v>
       </c>
       <c r="H81" s="3">
-        <v>391500</v>
+        <v>378400</v>
       </c>
       <c r="I81" s="3">
-        <v>124400</v>
+        <v>120200</v>
       </c>
       <c r="J81" s="3">
-        <v>97600</v>
+        <v>94300</v>
       </c>
       <c r="K81" s="3">
         <v>49200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>147000</v>
+        <v>142100</v>
       </c>
       <c r="E83" s="3">
-        <v>102800</v>
+        <v>99400</v>
       </c>
       <c r="F83" s="3">
-        <v>80800</v>
+        <v>78100</v>
       </c>
       <c r="G83" s="3">
-        <v>74800</v>
+        <v>72300</v>
       </c>
       <c r="H83" s="3">
-        <v>34100</v>
+        <v>33000</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J83" s="3">
-        <v>35400</v>
+        <v>34200</v>
       </c>
       <c r="K83" s="3">
         <v>36500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>482400</v>
+        <v>466300</v>
       </c>
       <c r="E89" s="3">
-        <v>542000</v>
+        <v>523800</v>
       </c>
       <c r="F89" s="3">
-        <v>466000</v>
+        <v>450400</v>
       </c>
       <c r="G89" s="3">
-        <v>456700</v>
+        <v>441400</v>
       </c>
       <c r="H89" s="3">
-        <v>307700</v>
+        <v>297400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J89" s="3">
-        <v>108800</v>
+        <v>105100</v>
       </c>
       <c r="K89" s="3">
         <v>56800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-154800</v>
+        <v>-149600</v>
       </c>
       <c r="E91" s="3">
-        <v>-117900</v>
+        <v>-113900</v>
       </c>
       <c r="F91" s="3">
-        <v>-85300</v>
+        <v>-82400</v>
       </c>
       <c r="G91" s="3">
-        <v>-55900</v>
+        <v>-54100</v>
       </c>
       <c r="H91" s="3">
-        <v>-40500</v>
+        <v>-39100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J91" s="3">
-        <v>-27600</v>
+        <v>-26700</v>
       </c>
       <c r="K91" s="3">
         <v>-22900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-183500</v>
+        <v>-177300</v>
       </c>
       <c r="E94" s="3">
-        <v>-322300</v>
+        <v>-311500</v>
       </c>
       <c r="F94" s="3">
-        <v>-115600</v>
+        <v>-111800</v>
       </c>
       <c r="G94" s="3">
-        <v>-266700</v>
+        <v>-257800</v>
       </c>
       <c r="H94" s="3">
-        <v>-109300</v>
+        <v>-105700</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J94" s="3">
-        <v>-24200</v>
+        <v>-23400</v>
       </c>
       <c r="K94" s="3">
         <v>-17600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-174600</v>
+        <v>-168800</v>
       </c>
       <c r="E96" s="3">
-        <v>-174900</v>
+        <v>-169000</v>
       </c>
       <c r="F96" s="3">
-        <v>-107100</v>
+        <v>-103500</v>
       </c>
       <c r="G96" s="3">
-        <v>-112900</v>
+        <v>-109100</v>
       </c>
       <c r="H96" s="3">
-        <v>-94700</v>
+        <v>-91500</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-27600</v>
+        <v>-26700</v>
       </c>
       <c r="K96" s="3">
         <v>-25600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-532000</v>
+        <v>-514200</v>
       </c>
       <c r="E100" s="3">
-        <v>-472200</v>
+        <v>-456400</v>
       </c>
       <c r="F100" s="3">
-        <v>-209000</v>
+        <v>-202000</v>
       </c>
       <c r="G100" s="3">
-        <v>-123100</v>
+        <v>-119000</v>
       </c>
       <c r="H100" s="3">
-        <v>-94300</v>
+        <v>-91100</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J100" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="K100" s="3">
         <v>-99500</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19700</v>
+        <v>19100</v>
       </c>
       <c r="E101" s="3">
-        <v>28700</v>
+        <v>27700</v>
       </c>
       <c r="F101" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="G101" s="3">
-        <v>-13600</v>
+        <v>-13100</v>
       </c>
       <c r="H101" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J101" s="3">
-        <v>-9700</v>
+        <v>-9400</v>
       </c>
       <c r="K101" s="3">
         <v>-29000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-213300</v>
+        <v>-206100</v>
       </c>
       <c r="E102" s="3">
-        <v>-223800</v>
+        <v>-216300</v>
       </c>
       <c r="F102" s="3">
-        <v>147400</v>
+        <v>142500</v>
       </c>
       <c r="G102" s="3">
-        <v>53300</v>
+        <v>51500</v>
       </c>
       <c r="H102" s="3">
-        <v>109700</v>
+        <v>106000</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J102" s="3">
-        <v>68000</v>
+        <v>65700</v>
       </c>
       <c r="K102" s="3">
         <v>-89300</v>
